--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5176500</v>
+        <v>5177533</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,73 +1954,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
         <v>3.75</v>
       </c>
       <c r="M17">
+        <v>3.25</v>
+      </c>
+      <c r="N17">
+        <v>1.85</v>
+      </c>
+      <c r="O17">
+        <v>3.6</v>
+      </c>
+      <c r="P17">
         <v>4.2</v>
       </c>
-      <c r="N17">
-        <v>1.65</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <v>5.25</v>
-      </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5177533</v>
+        <v>5176500</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
+        <v>1.65</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>5.25</v>
+      </c>
+      <c r="Q19">
+        <v>-0.75</v>
+      </c>
+      <c r="R19">
         <v>1.85</v>
       </c>
-      <c r="O19">
-        <v>3.6</v>
-      </c>
-      <c r="P19">
-        <v>4.2</v>
-      </c>
-      <c r="Q19">
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.425</v>
+      </c>
+      <c r="AA19">
         <v>-0.5</v>
       </c>
-      <c r="R19">
-        <v>1.9</v>
-      </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.8</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.6</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5176503</v>
+        <v>5177541</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB35">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5177541</v>
+        <v>5176503</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
         <v>1.8</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.875</v>
+      </c>
+      <c r="AB36">
+        <v>0.4</v>
+      </c>
+      <c r="AC36">
         <v>-0.5</v>
-      </c>
-      <c r="AA36">
-        <v>0.5</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5177549</v>
+        <v>5176504</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,76 +4446,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5176504</v>
+        <v>5177549</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5420248</v>
+        <v>5420246</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N72">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q72">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>1.8</v>
+      </c>
+      <c r="T72">
+        <v>2.75</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
+        <v>1.8</v>
+      </c>
+      <c r="W72">
+        <v>3.333</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>1</v>
       </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>0.55</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5420246</v>
+        <v>5420248</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N73">
+        <v>5.75</v>
+      </c>
+      <c r="O73">
         <v>4.333</v>
       </c>
-      <c r="O73">
-        <v>3.75</v>
-      </c>
       <c r="P73">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5461923</v>
+        <v>5461428</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,58 +7472,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
+        <v>3.4</v>
+      </c>
+      <c r="N79">
+        <v>1.85</v>
+      </c>
+      <c r="O79">
+        <v>3.8</v>
+      </c>
+      <c r="P79">
         <v>4</v>
       </c>
-      <c r="M79">
-        <v>5</v>
-      </c>
-      <c r="N79">
-        <v>1.4</v>
-      </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
-      <c r="P79">
-        <v>7.5</v>
-      </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7532,16 +7532,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461428</v>
+        <v>5461923</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,58 +7561,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
+        <v>1.55</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>1.4</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>7.5</v>
+      </c>
+      <c r="Q80">
+        <v>-1.5</v>
+      </c>
+      <c r="R80">
         <v>1.95</v>
       </c>
-      <c r="L80">
-        <v>3.4</v>
-      </c>
-      <c r="M80">
-        <v>3.4</v>
-      </c>
-      <c r="N80">
+      <c r="S80">
         <v>1.85</v>
       </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
-      <c r="P80">
-        <v>4</v>
-      </c>
-      <c r="Q80">
-        <v>-0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.875</v>
-      </c>
-      <c r="S80">
-        <v>1.925</v>
-      </c>
       <c r="T80">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7621,16 +7621,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6811909</v>
+        <v>6811743</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,40 +8629,40 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N92">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
         <v>1.775</v>
@@ -8671,34 +8671,34 @@
         <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6811743</v>
+        <v>6811909</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,40 +8718,40 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O93">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
         <v>1.775</v>
@@ -8760,34 +8760,34 @@
         <v>2.025</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X93">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="V105">
-        <v>1.95</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,76 +9875,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
         <v>1.95</v>
       </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6811915</v>
+        <v>6811740</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,58 +9964,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N107">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10024,16 +10024,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6811740</v>
+        <v>6811915</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,58 +10053,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N108">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10113,16 +10113,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N129">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB129">
         <v>-0.5</v>
       </c>
-      <c r="AA129">
-        <v>0.4375</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811433</v>
+        <v>6811927</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N130">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M135">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N135">
         <v>2.7</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P135">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q135">
         <v>0</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W135">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N136">
         <v>2.7</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q136">
         <v>0</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X136">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6811727</v>
+        <v>6811447</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,13 +15393,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15408,43 +15408,43 @@
         <v>43</v>
       </c>
       <c r="K168">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L168">
         <v>3.6</v>
       </c>
       <c r="M168">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N168">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
         <v>3.8</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15453,7 +15453,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6811447</v>
+        <v>6811727</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,13 +15482,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15497,43 +15497,43 @@
         <v>43</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L169">
         <v>3.6</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N169">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O169">
         <v>3.8</v>
       </c>
       <c r="P169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15542,7 +15542,7 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15551,7 +15551,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6811949</v>
+        <v>6811450</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,10 +16105,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16120,61 +16120,61 @@
         <v>43</v>
       </c>
       <c r="K176">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M176">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N176">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q176">
+        <v>-1.5</v>
+      </c>
+      <c r="R176">
+        <v>1.975</v>
+      </c>
+      <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
+        <v>1.925</v>
+      </c>
+      <c r="W176">
+        <v>0.363</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.825</v>
+      </c>
+      <c r="AB176">
+        <v>0.4375</v>
+      </c>
+      <c r="AC176">
         <v>-0.5</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>3</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
-      <c r="W176">
-        <v>0.909</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
-      <c r="Z176">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
-      <c r="AB176">
-        <v>0</v>
-      </c>
-      <c r="AC176">
-        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6811450</v>
+        <v>6811949</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,10 +16194,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16209,43 +16209,43 @@
         <v>43</v>
       </c>
       <c r="K177">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O177">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16254,16 +16254,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
         <v>3.75</v>
       </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
       <c r="M180">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O180">
         <v>3.6</v>
       </c>
       <c r="P180">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O181">
         <v>3.6</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -18256,13 +18256,13 @@
         <v>2.7</v>
       </c>
       <c r="N200">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="Q200">
         <v>0</v>
@@ -18274,13 +18274,13 @@
         <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W200">
         <v>0</v>
@@ -18330,7 +18330,7 @@
         <v>2.2</v>
       </c>
       <c r="N201">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O201">
         <v>3.5</v>
@@ -18342,19 +18342,19 @@
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
         <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AC199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5177533</v>
+        <v>5177531</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,10 +1954,10 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1969,58 +1969,58 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5177531</v>
+        <v>5176500</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,73 +2043,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5176500</v>
+        <v>5177533</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
+        <v>3.25</v>
+      </c>
+      <c r="N19">
+        <v>1.85</v>
+      </c>
+      <c r="O19">
+        <v>3.6</v>
+      </c>
+      <c r="P19">
         <v>4.2</v>
       </c>
-      <c r="N19">
-        <v>1.65</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>5.25</v>
-      </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5177541</v>
+        <v>5176503</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.8</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.85</v>
-      </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
+        <v>0.875</v>
+      </c>
+      <c r="AB35">
+        <v>0.4</v>
+      </c>
+      <c r="AC35">
         <v>-0.5</v>
-      </c>
-      <c r="AA35">
-        <v>0.5</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
-      <c r="AC35">
-        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5176503</v>
+        <v>5177541</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5176504</v>
+        <v>5177549</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,76 +4446,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M45">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5177549</v>
+        <v>5176504</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N46">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5420246</v>
+        <v>5420248</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N72">
+        <v>5.75</v>
+      </c>
+      <c r="O72">
         <v>4.333</v>
       </c>
-      <c r="O72">
-        <v>3.75</v>
-      </c>
       <c r="P72">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5420248</v>
+        <v>5420246</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N73">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q73">
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2.75</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>1.8</v>
+      </c>
+      <c r="W73">
+        <v>3.333</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>1</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>0.55</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5461426</v>
+        <v>5461427</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
+        <v>0.4</v>
+      </c>
+      <c r="AC77">
         <v>-0.5</v>
-      </c>
-      <c r="AB77">
-        <v>0.925</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5461427</v>
+        <v>5461923</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,13 +7383,13 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7398,25 +7398,25 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7425,16 +7425,16 @@
         <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7449,10 +7449,10 @@
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5461428</v>
+        <v>5461426</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,73 +7472,73 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
         <v>3.4</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N79">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
+        <v>1.925</v>
+      </c>
+      <c r="S79">
         <v>1.875</v>
-      </c>
-      <c r="S79">
-        <v>1.925</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461923</v>
+        <v>5461428</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,58 +7561,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L80">
+        <v>3.4</v>
+      </c>
+      <c r="M80">
+        <v>3.4</v>
+      </c>
+      <c r="N80">
+        <v>1.85</v>
+      </c>
+      <c r="O80">
+        <v>3.8</v>
+      </c>
+      <c r="P80">
         <v>4</v>
       </c>
-      <c r="M80">
-        <v>5</v>
-      </c>
-      <c r="N80">
-        <v>1.4</v>
-      </c>
-      <c r="O80">
-        <v>5</v>
-      </c>
-      <c r="P80">
-        <v>7.5</v>
-      </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7621,16 +7621,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
         <v>1.95</v>
       </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
       <c r="W105">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,76 +9875,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6811740</v>
+        <v>6811915</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,58 +9964,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10024,16 +10024,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6811915</v>
+        <v>6811740</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,58 +10053,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N108">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10113,16 +10113,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811433</v>
+        <v>6811927</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M129">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y129">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z130">
+        <v>-1</v>
+      </c>
+      <c r="AA130">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB130">
         <v>-0.5</v>
       </c>
-      <c r="AA130">
-        <v>0.4375</v>
-      </c>
-      <c r="AB130">
-        <v>-1</v>
-      </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,10 +14236,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14251,25 +14251,25 @@
         <v>44</v>
       </c>
       <c r="K155">
+        <v>1.4</v>
+      </c>
+      <c r="L155">
+        <v>4.5</v>
+      </c>
+      <c r="M155">
+        <v>7</v>
+      </c>
+      <c r="N155">
+        <v>1.533</v>
+      </c>
+      <c r="O155">
         <v>4.75</v>
       </c>
-      <c r="L155">
-        <v>3.8</v>
-      </c>
-      <c r="M155">
-        <v>1.615</v>
-      </c>
-      <c r="N155">
-        <v>6.5</v>
-      </c>
-      <c r="O155">
-        <v>4.333</v>
-      </c>
       <c r="P155">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q155">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R155">
         <v>1.975</v>
@@ -14278,7 +14278,7 @@
         <v>1.825</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U155">
         <v>1.9</v>
@@ -14293,19 +14293,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
+        <v>-0.5</v>
+      </c>
+      <c r="AC155">
         <v>0.45</v>
-      </c>
-      <c r="AC155">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14313,7 +14313,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,10 +14325,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14340,25 +14340,25 @@
         <v>44</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N156">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P156">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R156">
         <v>1.975</v>
@@ -14367,7 +14367,7 @@
         <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.9</v>
@@ -14382,19 +14382,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
+        <v>0.45</v>
+      </c>
+      <c r="AC156">
         <v>-0.5</v>
-      </c>
-      <c r="AC156">
-        <v>0.45</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6811447</v>
+        <v>6811727</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,13 +15393,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15408,43 +15408,43 @@
         <v>43</v>
       </c>
       <c r="K168">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L168">
         <v>3.6</v>
       </c>
       <c r="M168">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O168">
         <v>3.8</v>
       </c>
       <c r="P168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15453,7 +15453,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6811727</v>
+        <v>6811447</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,13 +15482,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15497,43 +15497,43 @@
         <v>43</v>
       </c>
       <c r="K169">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
         <v>3.6</v>
       </c>
       <c r="M169">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O169">
         <v>3.8</v>
       </c>
       <c r="P169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15542,7 +15542,7 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15551,7 +15551,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O180">
         <v>3.6</v>
       </c>
       <c r="P180">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
         <v>3.75</v>
       </c>
-      <c r="L181">
-        <v>3.5</v>
-      </c>
       <c r="M181">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O181">
         <v>3.6</v>
       </c>
       <c r="P181">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -18222,154 +18222,6 @@
       </c>
       <c r="AC199">
         <v>-0.5</v>
-      </c>
-    </row>
-    <row r="200" spans="1:29">
-      <c r="A200" s="1">
-        <v>198</v>
-      </c>
-      <c r="B200">
-        <v>7617774</v>
-      </c>
-      <c r="C200" t="s">
-        <v>28</v>
-      </c>
-      <c r="D200" t="s">
-        <v>28</v>
-      </c>
-      <c r="E200" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F200" t="s">
-        <v>31</v>
-      </c>
-      <c r="G200" t="s">
-        <v>37</v>
-      </c>
-      <c r="K200">
-        <v>2.45</v>
-      </c>
-      <c r="L200">
-        <v>3.2</v>
-      </c>
-      <c r="M200">
-        <v>2.7</v>
-      </c>
-      <c r="N200">
-        <v>2.55</v>
-      </c>
-      <c r="O200">
-        <v>3.1</v>
-      </c>
-      <c r="P200">
-        <v>2.9</v>
-      </c>
-      <c r="Q200">
-        <v>0</v>
-      </c>
-      <c r="R200">
-        <v>1.775</v>
-      </c>
-      <c r="S200">
-        <v>2.025</v>
-      </c>
-      <c r="T200">
-        <v>2.25</v>
-      </c>
-      <c r="U200">
-        <v>1.975</v>
-      </c>
-      <c r="V200">
-        <v>1.825</v>
-      </c>
-      <c r="W200">
-        <v>0</v>
-      </c>
-      <c r="X200">
-        <v>0</v>
-      </c>
-      <c r="Y200">
-        <v>0</v>
-      </c>
-      <c r="Z200">
-        <v>0</v>
-      </c>
-      <c r="AA200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:29">
-      <c r="A201" s="1">
-        <v>199</v>
-      </c>
-      <c r="B201">
-        <v>7617832</v>
-      </c>
-      <c r="C201" t="s">
-        <v>28</v>
-      </c>
-      <c r="D201" t="s">
-        <v>28</v>
-      </c>
-      <c r="E201" s="2">
-        <v>45339.58333333334</v>
-      </c>
-      <c r="F201" t="s">
-        <v>41</v>
-      </c>
-      <c r="G201" t="s">
-        <v>34</v>
-      </c>
-      <c r="K201">
-        <v>2.9</v>
-      </c>
-      <c r="L201">
-        <v>3.4</v>
-      </c>
-      <c r="M201">
-        <v>2.2</v>
-      </c>
-      <c r="N201">
-        <v>3.25</v>
-      </c>
-      <c r="O201">
-        <v>3.5</v>
-      </c>
-      <c r="P201">
-        <v>2.2</v>
-      </c>
-      <c r="Q201">
-        <v>0.25</v>
-      </c>
-      <c r="R201">
-        <v>1.9</v>
-      </c>
-      <c r="S201">
-        <v>1.9</v>
-      </c>
-      <c r="T201">
-        <v>2.75</v>
-      </c>
-      <c r="U201">
-        <v>1.95</v>
-      </c>
-      <c r="V201">
-        <v>1.85</v>
-      </c>
-      <c r="W201">
-        <v>0</v>
-      </c>
-      <c r="X201">
-        <v>0</v>
-      </c>
-      <c r="Y201">
-        <v>0</v>
-      </c>
-      <c r="Z201">
-        <v>0</v>
-      </c>
-      <c r="AA201">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC199"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5177530</v>
+        <v>5177529</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,55 +1687,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
         <v>2.25</v>
       </c>
-      <c r="N14">
-        <v>2.45</v>
-      </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1744,19 +1744,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5177529</v>
+        <v>5177530</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,55 +1776,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>3</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1833,19 +1833,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5177531</v>
+        <v>5177533</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,10 +1954,10 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1969,58 +1969,58 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5176500</v>
+        <v>5177531</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,73 +2043,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
         <v>1.85</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1.8</v>
-      </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5177533</v>
+        <v>5176500</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
+        <v>1.65</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>5.25</v>
+      </c>
+      <c r="Q19">
+        <v>-0.75</v>
+      </c>
+      <c r="R19">
         <v>1.85</v>
       </c>
-      <c r="O19">
-        <v>3.6</v>
-      </c>
-      <c r="P19">
-        <v>4.2</v>
-      </c>
-      <c r="Q19">
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.425</v>
+      </c>
+      <c r="AA19">
         <v>-0.5</v>
       </c>
-      <c r="R19">
-        <v>1.9</v>
-      </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.8</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.6</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5176501</v>
+        <v>5177535</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,55 +2666,55 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
         <v>44</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q25">
         <v>-0.5</v>
       </c>
       <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
         <v>1.925</v>
-      </c>
-      <c r="S25">
-        <v>1.875</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2723,19 +2723,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>0.4625</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5177535</v>
+        <v>5176501</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,55 +2755,55 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>44</v>
       </c>
       <c r="K26">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>3.6</v>
       </c>
       <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>1.95</v>
+      </c>
+      <c r="O26">
         <v>3.8</v>
       </c>
-      <c r="N26">
-        <v>1.909</v>
-      </c>
-      <c r="O26">
-        <v>3.75</v>
-      </c>
       <c r="P26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q26">
         <v>-0.5</v>
       </c>
       <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
         <v>1.875</v>
-      </c>
-      <c r="S26">
-        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
         <v>-1</v>
@@ -2812,19 +2812,19 @@
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Z26">
         <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB26">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5177538</v>
+        <v>5176853</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,55 +3022,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="K29">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3079,19 +3079,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5176853</v>
+        <v>5177538</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,55 +3111,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3168,19 +3168,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5317065</v>
+        <v>5310702</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,76 +6226,76 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K65">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="N65">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z65">
         <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5310702</v>
+        <v>5317065</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L66">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="N66">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="O66">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y66">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z66">
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5176847</v>
+        <v>5385750</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,58 +6493,58 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6553,16 +6553,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5385750</v>
+        <v>5176847</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,58 +6582,58 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6642,16 +6642,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5420248</v>
+        <v>5420246</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N72">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q72">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>1.8</v>
+      </c>
+      <c r="T72">
+        <v>2.75</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
+        <v>1.8</v>
+      </c>
+      <c r="W72">
+        <v>3.333</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>1</v>
       </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>0.55</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5420246</v>
+        <v>5420248</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N73">
+        <v>5.75</v>
+      </c>
+      <c r="O73">
         <v>4.333</v>
       </c>
-      <c r="O73">
-        <v>3.75</v>
-      </c>
       <c r="P73">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5461427</v>
+        <v>5461428</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,49 +7294,49 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
         <v>3.8</v>
       </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U77">
         <v>1.8</v>
@@ -7345,7 +7345,7 @@
         <v>2</v>
       </c>
       <c r="W77">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7354,16 +7354,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5461923</v>
+        <v>5461427</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,13 +7383,13 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7398,25 +7398,25 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N78">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P78">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7425,16 +7425,16 @@
         <v>1.85</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7449,10 +7449,10 @@
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461428</v>
+        <v>5461923</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,58 +7561,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>43</v>
       </c>
       <c r="K80">
+        <v>1.55</v>
+      </c>
+      <c r="L80">
+        <v>4</v>
+      </c>
+      <c r="M80">
+        <v>5</v>
+      </c>
+      <c r="N80">
+        <v>1.4</v>
+      </c>
+      <c r="O80">
+        <v>5</v>
+      </c>
+      <c r="P80">
+        <v>7.5</v>
+      </c>
+      <c r="Q80">
+        <v>-1.5</v>
+      </c>
+      <c r="R80">
         <v>1.95</v>
       </c>
-      <c r="L80">
-        <v>3.4</v>
-      </c>
-      <c r="M80">
-        <v>3.4</v>
-      </c>
-      <c r="N80">
+      <c r="S80">
         <v>1.85</v>
       </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
-      <c r="P80">
-        <v>4</v>
-      </c>
-      <c r="Q80">
-        <v>-0.5</v>
-      </c>
-      <c r="R80">
-        <v>1.875</v>
-      </c>
-      <c r="S80">
-        <v>1.925</v>
-      </c>
       <c r="T80">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7621,16 +7621,16 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5505610</v>
+        <v>5495011</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>1.6</v>
+      </c>
+      <c r="N82">
         <v>3.6</v>
-      </c>
-      <c r="M82">
-        <v>2.8</v>
-      </c>
-      <c r="N82">
-        <v>2</v>
       </c>
       <c r="O82">
         <v>4</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S82">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5499199</v>
+        <v>5505610</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,10 +7828,10 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7843,31 +7843,31 @@
         <v>42</v>
       </c>
       <c r="K83">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
         <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N83">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
-      </c>
-      <c r="S83">
-        <v>1.975</v>
       </c>
       <c r="T83">
         <v>3.25</v>
@@ -7882,16 +7882,16 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5495011</v>
+        <v>5499197</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,13 +7917,13 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7932,43 +7932,43 @@
         <v>43</v>
       </c>
       <c r="K84">
-        <v>5.5</v>
+        <v>1.85</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M84">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>1.615</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P84">
-        <v>1.85</v>
+        <v>4.5</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R84">
+        <v>2</v>
+      </c>
+      <c r="S84">
         <v>1.8</v>
-      </c>
-      <c r="S84">
-        <v>2</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>2.6</v>
+        <v>0.615</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7977,16 +7977,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
+        <v>1</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>0.8</v>
-      </c>
-      <c r="AA84">
-        <v>-1</v>
-      </c>
-      <c r="AB84">
-        <v>-0.5</v>
-      </c>
-      <c r="AC84">
-        <v>0.475</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5499197</v>
+        <v>5499198</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,46 +8006,46 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N85">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T85">
         <v>3.25</v>
@@ -8057,25 +8057,25 @@
         <v>1.8</v>
       </c>
       <c r="W85">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
+        <v>0.925</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
         <v>1</v>
       </c>
-      <c r="AA85">
-        <v>-1</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5499198</v>
+        <v>5499199</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
         <v>42</v>
       </c>
       <c r="K86">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N86">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P86">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q86">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S86">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T86">
         <v>3.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB86">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,10 +8896,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L95">
         <v>3.5</v>
@@ -8920,31 +8920,31 @@
         <v>2.4</v>
       </c>
       <c r="N95">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8953,19 +8953,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,10 +8985,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>44</v>
       </c>
       <c r="K96">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L96">
         <v>3.5</v>
@@ -9009,31 +9009,31 @@
         <v>2.4</v>
       </c>
       <c r="N96">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9042,19 +9042,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,46 +9074,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
         <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9128,16 +9128,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,46 +9163,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
         <v>3.75</v>
       </c>
       <c r="P98">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9217,16 +9217,16 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6811915</v>
+        <v>6811740</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,58 +9964,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H107">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N107">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O107">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P107">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R107">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W107">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10024,16 +10024,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6811740</v>
+        <v>6811915</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,58 +10053,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N108">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O108">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10113,16 +10113,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6811429</v>
+        <v>6811919</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6811919</v>
+        <v>6811429</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,76 +10765,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L116">
         <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
         <v>1.925</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="T116">
-        <v>3.25</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811924</v>
+        <v>6811923</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
+        <v>1.909</v>
+      </c>
+      <c r="N123">
         <v>2.9</v>
       </c>
-      <c r="N123">
-        <v>2.375</v>
-      </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6811923</v>
+        <v>6811924</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>4</v>
-      </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>2.9</v>
+      </c>
+      <c r="N124">
+        <v>2.375</v>
+      </c>
+      <c r="O124">
         <v>3.75</v>
       </c>
-      <c r="M124">
-        <v>1.909</v>
-      </c>
-      <c r="N124">
-        <v>2.9</v>
-      </c>
-      <c r="O124">
-        <v>3.8</v>
-      </c>
       <c r="P124">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N129">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB129">
         <v>-0.5</v>
       </c>
-      <c r="AA129">
-        <v>0.4375</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811433</v>
+        <v>6811927</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N130">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y130">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB130">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G135" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L135">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M135">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N135">
         <v>2.7</v>
       </c>
       <c r="O135">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P135">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q135">
         <v>0</v>
       </c>
       <c r="R135">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S135">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T135">
         <v>2.75</v>
       </c>
       <c r="U135">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V135">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W135">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X135">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA135">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K136">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L136">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N136">
         <v>2.7</v>
       </c>
       <c r="O136">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P136">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q136">
         <v>0</v>
       </c>
       <c r="R136">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S136">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V136">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W136">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X136">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,76 +12634,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
         <v>3.9</v>
       </c>
-      <c r="M137">
-        <v>1.8</v>
-      </c>
       <c r="N137">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O137">
         <v>3.8</v>
       </c>
       <c r="P137">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
         <v>3</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12711,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12723,76 +12723,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
+        <v>3.5</v>
+      </c>
+      <c r="L138">
+        <v>3.9</v>
+      </c>
+      <c r="M138">
         <v>1.8</v>
       </c>
-      <c r="L138">
-        <v>3.6</v>
-      </c>
-      <c r="M138">
-        <v>3.9</v>
-      </c>
       <c r="N138">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O138">
         <v>3.8</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>3</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X138">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,73 +14859,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N162">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q162">
         <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,73 +14948,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N163">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q163">
         <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,76 +15126,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K165">
+        <v>1.909</v>
+      </c>
+      <c r="L165">
         <v>3.6</v>
       </c>
-      <c r="L165">
-        <v>3.75</v>
-      </c>
       <c r="M165">
+        <v>3.5</v>
+      </c>
+      <c r="N165">
+        <v>1.7</v>
+      </c>
+      <c r="O165">
+        <v>4</v>
+      </c>
+      <c r="P165">
+        <v>4.75</v>
+      </c>
+      <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
         <v>1.85</v>
       </c>
-      <c r="N165">
-        <v>3.1</v>
-      </c>
-      <c r="O165">
-        <v>3.6</v>
-      </c>
-      <c r="P165">
-        <v>2.2</v>
-      </c>
-      <c r="Q165">
-        <v>0.25</v>
-      </c>
-      <c r="R165">
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
         <v>1.875</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.925</v>
       </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.975</v>
-      </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15203,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,76 +15215,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K166">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>1.85</v>
+      </c>
+      <c r="N166">
+        <v>3.1</v>
+      </c>
+      <c r="O166">
         <v>3.6</v>
       </c>
-      <c r="M166">
-        <v>3.5</v>
-      </c>
-      <c r="N166">
-        <v>1.7</v>
-      </c>
-      <c r="O166">
-        <v>4</v>
-      </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L171">
         <v>3.5</v>
       </c>
       <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3.4</v>
+      </c>
+      <c r="O171">
         <v>3.3</v>
       </c>
-      <c r="N171">
+      <c r="P171">
+        <v>2.15</v>
+      </c>
+      <c r="Q171">
+        <v>0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
         <v>1.85</v>
       </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>4</v>
-      </c>
-      <c r="Q171">
-        <v>-0.5</v>
-      </c>
-      <c r="R171">
-        <v>1.9</v>
-      </c>
-      <c r="S171">
-        <v>1.9</v>
-      </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,76 +15749,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O172">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
         <v>3.75</v>
       </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
       <c r="M180">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O180">
         <v>3.6</v>
       </c>
       <c r="P180">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O181">
         <v>3.6</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17072,7 +17072,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17084,58 +17084,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>43</v>
       </c>
       <c r="K187">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L187">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
         <v>4.5</v>
       </c>
       <c r="N187">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q187">
         <v>-1</v>
       </c>
       <c r="R187">
+        <v>1.775</v>
+      </c>
+      <c r="S187">
         <v>2.025</v>
-      </c>
-      <c r="S187">
-        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17144,16 +17144,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,58 +17173,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
         <v>4.5</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
         <v>1.775</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,16 +17233,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,49 +17618,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N193">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P193">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
         <v>1.9</v>
@@ -17669,25 +17669,25 @@
         <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X193">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,49 +17707,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K194">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M194">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N194">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O194">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
         <v>1.9</v>
@@ -17758,25 +17758,25 @@
         <v>1.9</v>
       </c>
       <c r="W194">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC194">
-        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7617770</v>
+        <v>7617831</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,58 +17796,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>43</v>
       </c>
       <c r="K195">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N195">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O195">
         <v>3.6</v>
       </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17856,16 +17856,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7617831</v>
+        <v>7617770</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,58 +17885,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>43</v>
       </c>
       <c r="K196">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L196">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N196">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O196">
         <v>3.6</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
         <v>1.8</v>
       </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
       <c r="W196">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17945,16 +17945,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
         <v>0.8</v>
-      </c>
-      <c r="AC196">
-        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L198">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
+        <v>1.833</v>
+      </c>
+      <c r="N198">
+        <v>5.25</v>
+      </c>
+      <c r="O198">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>1.7</v>
-      </c>
-      <c r="O198">
-        <v>4.2</v>
-      </c>
       <c r="P198">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z198">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
+        <v>0.4</v>
+      </c>
+      <c r="AB198">
+        <v>0.4125</v>
+      </c>
+      <c r="AC198">
         <v>-0.5</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,624 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
+        <v>43</v>
+      </c>
+      <c r="K199">
+        <v>1.727</v>
+      </c>
+      <c r="L199">
+        <v>3.8</v>
+      </c>
+      <c r="M199">
+        <v>4</v>
+      </c>
+      <c r="N199">
+        <v>1.7</v>
+      </c>
+      <c r="O199">
+        <v>4.2</v>
+      </c>
+      <c r="P199">
+        <v>4.5</v>
+      </c>
+      <c r="Q199">
+        <v>-0.75</v>
+      </c>
+      <c r="R199">
+        <v>1.85</v>
+      </c>
+      <c r="S199">
+        <v>1.95</v>
+      </c>
+      <c r="T199">
+        <v>3</v>
+      </c>
+      <c r="U199">
+        <v>1.9</v>
+      </c>
+      <c r="V199">
+        <v>1.9</v>
+      </c>
+      <c r="W199">
+        <v>0.7</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.425</v>
+      </c>
+      <c r="AA199">
+        <v>-0.5</v>
+      </c>
+      <c r="AB199">
+        <v>-1</v>
+      </c>
+      <c r="AC199">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7617832</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45339.58333333334</v>
+      </c>
+      <c r="F200" t="s">
+        <v>41</v>
+      </c>
+      <c r="G200" t="s">
+        <v>34</v>
+      </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200" t="s">
         <v>44</v>
       </c>
-      <c r="K199">
+      <c r="K200">
+        <v>2.9</v>
+      </c>
+      <c r="L200">
+        <v>3.4</v>
+      </c>
+      <c r="M200">
+        <v>2.2</v>
+      </c>
+      <c r="N200">
+        <v>2.9</v>
+      </c>
+      <c r="O200">
+        <v>3.5</v>
+      </c>
+      <c r="P200">
+        <v>2.375</v>
+      </c>
+      <c r="Q200">
+        <v>0.25</v>
+      </c>
+      <c r="R200">
+        <v>1.775</v>
+      </c>
+      <c r="S200">
+        <v>2.025</v>
+      </c>
+      <c r="T200">
+        <v>2.75</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
+        <v>1.85</v>
+      </c>
+      <c r="W200">
+        <v>-1</v>
+      </c>
+      <c r="X200">
+        <v>-1</v>
+      </c>
+      <c r="Y200">
+        <v>1.375</v>
+      </c>
+      <c r="Z200">
+        <v>-1</v>
+      </c>
+      <c r="AA200">
+        <v>1.025</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>0.8500000000000001</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7617774</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45339.58333333334</v>
+      </c>
+      <c r="F201" t="s">
+        <v>31</v>
+      </c>
+      <c r="G201" t="s">
+        <v>37</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201" t="s">
+        <v>42</v>
+      </c>
+      <c r="K201">
+        <v>2.45</v>
+      </c>
+      <c r="L201">
+        <v>3.2</v>
+      </c>
+      <c r="M201">
+        <v>2.7</v>
+      </c>
+      <c r="N201">
+        <v>2.6</v>
+      </c>
+      <c r="O201">
+        <v>3.1</v>
+      </c>
+      <c r="P201">
+        <v>3</v>
+      </c>
+      <c r="Q201">
+        <v>0</v>
+      </c>
+      <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2</v>
+      </c>
+      <c r="U201">
+        <v>1.775</v>
+      </c>
+      <c r="V201">
+        <v>2.025</v>
+      </c>
+      <c r="W201">
+        <v>-1</v>
+      </c>
+      <c r="X201">
+        <v>2.1</v>
+      </c>
+      <c r="Y201">
+        <v>-1</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>-0</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7617776</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45345.64583333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>32</v>
+      </c>
+      <c r="G202" t="s">
+        <v>38</v>
+      </c>
+      <c r="K202">
+        <v>2.5</v>
+      </c>
+      <c r="L202">
+        <v>3.5</v>
+      </c>
+      <c r="M202">
+        <v>2.5</v>
+      </c>
+      <c r="N202">
+        <v>2.5</v>
+      </c>
+      <c r="O202">
+        <v>3.5</v>
+      </c>
+      <c r="P202">
+        <v>2.5</v>
+      </c>
+      <c r="Q202">
+        <v>0</v>
+      </c>
+      <c r="R202">
+        <v>1.875</v>
+      </c>
+      <c r="S202">
+        <v>1.925</v>
+      </c>
+      <c r="T202">
+        <v>3</v>
+      </c>
+      <c r="U202">
+        <v>2</v>
+      </c>
+      <c r="V202">
+        <v>1.8</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7617775</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45345.64583333334</v>
+      </c>
+      <c r="F203" t="s">
+        <v>34</v>
+      </c>
+      <c r="G203" t="s">
+        <v>40</v>
+      </c>
+      <c r="K203">
+        <v>5.5</v>
+      </c>
+      <c r="L203">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>1.533</v>
+      </c>
+      <c r="N203">
+        <v>5.5</v>
+      </c>
+      <c r="O203">
+        <v>4</v>
+      </c>
+      <c r="P203">
+        <v>1.533</v>
+      </c>
+      <c r="Q203">
+        <v>1</v>
+      </c>
+      <c r="R203">
+        <v>1.9</v>
+      </c>
+      <c r="S203">
+        <v>1.9</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.8</v>
+      </c>
+      <c r="V203">
+        <v>2</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7617777</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45345.67708333334</v>
+      </c>
+      <c r="F204" t="s">
+        <v>37</v>
+      </c>
+      <c r="G204" t="s">
+        <v>30</v>
+      </c>
+      <c r="K204">
+        <v>2</v>
+      </c>
+      <c r="L204">
+        <v>3.6</v>
+      </c>
+      <c r="M204">
+        <v>3.25</v>
+      </c>
+      <c r="N204">
+        <v>2.05</v>
+      </c>
+      <c r="O204">
+        <v>3.6</v>
+      </c>
+      <c r="P204">
+        <v>3.2</v>
+      </c>
+      <c r="Q204">
+        <v>-0.25</v>
+      </c>
+      <c r="R204">
+        <v>1.8</v>
+      </c>
+      <c r="S204">
+        <v>2</v>
+      </c>
+      <c r="T204">
+        <v>2.75</v>
+      </c>
+      <c r="U204">
+        <v>1.85</v>
+      </c>
+      <c r="V204">
+        <v>1.95</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7617833</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>41</v>
+      </c>
+      <c r="G205" t="s">
+        <v>39</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+      <c r="L205">
         <v>3.75</v>
       </c>
-      <c r="L199">
-        <v>3.6</v>
-      </c>
-      <c r="M199">
-        <v>1.833</v>
-      </c>
-      <c r="N199">
-        <v>5.25</v>
-      </c>
-      <c r="O199">
-        <v>4</v>
-      </c>
-      <c r="P199">
-        <v>1.615</v>
-      </c>
-      <c r="Q199">
-        <v>0.75</v>
-      </c>
-      <c r="R199">
-        <v>2</v>
-      </c>
-      <c r="S199">
-        <v>1.8</v>
-      </c>
-      <c r="T199">
+      <c r="M205">
+        <v>2.05</v>
+      </c>
+      <c r="N205">
+        <v>3</v>
+      </c>
+      <c r="O205">
+        <v>3.75</v>
+      </c>
+      <c r="P205">
+        <v>2.05</v>
+      </c>
+      <c r="Q205">
+        <v>0.25</v>
+      </c>
+      <c r="R205">
+        <v>1.975</v>
+      </c>
+      <c r="S205">
+        <v>1.825</v>
+      </c>
+      <c r="T205">
+        <v>3</v>
+      </c>
+      <c r="U205">
+        <v>1.95</v>
+      </c>
+      <c r="V205">
+        <v>1.85</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7617778</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45346.58333333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" t="s">
+        <v>29</v>
+      </c>
+      <c r="K206">
+        <v>2.375</v>
+      </c>
+      <c r="L206">
+        <v>3.4</v>
+      </c>
+      <c r="M206">
         <v>2.75</v>
       </c>
-      <c r="U199">
-        <v>1.825</v>
-      </c>
-      <c r="V199">
-        <v>1.975</v>
-      </c>
-      <c r="W199">
-        <v>-1</v>
-      </c>
-      <c r="X199">
-        <v>-1</v>
-      </c>
-      <c r="Y199">
-        <v>0.615</v>
-      </c>
-      <c r="Z199">
-        <v>-0.5</v>
-      </c>
-      <c r="AA199">
-        <v>0.4</v>
-      </c>
-      <c r="AB199">
-        <v>0.4125</v>
-      </c>
-      <c r="AC199">
-        <v>-0.5</v>
+      <c r="N206">
+        <v>2.375</v>
+      </c>
+      <c r="O206">
+        <v>3.4</v>
+      </c>
+      <c r="P206">
+        <v>2.75</v>
+      </c>
+      <c r="Q206">
+        <v>-0.25</v>
+      </c>
+      <c r="R206">
+        <v>2.05</v>
+      </c>
+      <c r="S206">
+        <v>1.75</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.925</v>
+      </c>
+      <c r="V206">
+        <v>1.875</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -112,16 +112,16 @@
     <t>AC Bellinzona</t>
   </si>
   <si>
+    <t>Stade LausanneOuchy</t>
+  </si>
+  <si>
     <t>Neuchatel Xamax</t>
   </si>
   <si>
-    <t>Stade LausanneOuchy</t>
+    <t>Yverdon Sport FC</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
-  </si>
-  <si>
-    <t>Yverdon Sport FC</t>
   </si>
   <si>
     <t>Lausanne Sports</t>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6028076</v>
+        <v>6028075</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,37 +889,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.375</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.05</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.775</v>
@@ -931,31 +931,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>1.875</v>
       </c>
-      <c r="V5">
-        <v>1.925</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.75</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6028075</v>
+        <v>6028076</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,37 +978,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
         <v>1.775</v>
@@ -1020,31 +1020,31 @@
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y6">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5177526</v>
+        <v>5177527</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1079,43 +1079,43 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
+        <v>2.2</v>
+      </c>
+      <c r="O7">
+        <v>3.8</v>
+      </c>
+      <c r="P7">
         <v>2.9</v>
       </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>2.375</v>
-      </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1124,7 +1124,7 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1133,7 +1133,7 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5177527</v>
+        <v>5177526</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1168,43 +1168,43 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.375</v>
+      </c>
+      <c r="N8">
+        <v>2.9</v>
+      </c>
+      <c r="O8">
         <v>3.5</v>
       </c>
-      <c r="M8">
-        <v>2.3</v>
-      </c>
-      <c r="N8">
-        <v>2.2</v>
-      </c>
-      <c r="O8">
-        <v>3.8</v>
-      </c>
       <c r="P8">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1213,7 +1213,7 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1222,7 +1222,7 @@
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>44967.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1601,7 +1601,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5177529</v>
+        <v>5477714</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,37 +1687,37 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
+        <v>3.2</v>
+      </c>
+      <c r="N14">
+        <v>2.2</v>
+      </c>
+      <c r="O14">
         <v>3.25</v>
       </c>
-      <c r="N14">
-        <v>2.25</v>
-      </c>
-      <c r="O14">
-        <v>3.5</v>
-      </c>
       <c r="P14">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
@@ -1729,13 +1729,13 @@
         <v>1.875</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1744,7 +1744,7 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1753,10 +1753,10 @@
         <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5477714</v>
+        <v>5177529</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,37 +1865,37 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>3.4</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
         <v>-0.25</v>
@@ -1907,13 +1907,13 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1922,7 +1922,7 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
@@ -1931,10 +1931,10 @@
         <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5177533</v>
+        <v>5177531</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,7 +1957,7 @@
         <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1969,58 +1969,58 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5177531</v>
+        <v>5176500</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,73 +2043,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5176500</v>
+        <v>5177533</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
+        <v>3.25</v>
+      </c>
+      <c r="N19">
+        <v>1.85</v>
+      </c>
+      <c r="O19">
+        <v>3.6</v>
+      </c>
+      <c r="P19">
         <v>4.2</v>
       </c>
-      <c r="N19">
-        <v>1.65</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>5.25</v>
-      </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2666,10 +2666,10 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>29</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2844,7 +2844,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2933,7 +2933,7 @@
         <v>44988.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5176853</v>
+        <v>5177538</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,55 +3022,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3079,19 +3079,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5177538</v>
+        <v>5176853</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,55 +3111,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N30">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3168,19 +3168,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>44995.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3381,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3556,10 +3556,10 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3734,10 +3734,10 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
         <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4004,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5177549</v>
+        <v>5176504</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,76 +4446,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5176504</v>
+        <v>5177549</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4713,10 +4713,10 @@
         <v>45023.63541666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5177552</v>
+        <v>5177550</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,55 +4802,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49">
+        <v>1.909</v>
+      </c>
+      <c r="L49">
+        <v>3.5</v>
+      </c>
+      <c r="M49">
+        <v>3.6</v>
+      </c>
+      <c r="N49">
         <v>2.2</v>
       </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>2.8</v>
-      </c>
-      <c r="N49">
-        <v>2.625</v>
-      </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4859,19 +4859,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB49">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5177550</v>
+        <v>5177552</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,55 +4891,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4948,19 +4948,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5158,10 +5158,10 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
         <v>34</v>
-      </c>
-      <c r="G53" t="s">
-        <v>35</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5428,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>45037.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5606,7 +5606,7 @@
         <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5695,7 +5695,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -5781,7 +5781,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5317066</v>
+        <v>5316506</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,76 +5959,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="N62">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O62">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R62">
+        <v>1.8</v>
+      </c>
+      <c r="S62">
+        <v>2</v>
+      </c>
+      <c r="T62">
+        <v>3</v>
+      </c>
+      <c r="U62">
+        <v>1.975</v>
+      </c>
+      <c r="V62">
         <v>1.825</v>
       </c>
-      <c r="S62">
-        <v>1.975</v>
-      </c>
-      <c r="T62">
-        <v>2.75</v>
-      </c>
-      <c r="U62">
-        <v>1.85</v>
-      </c>
-      <c r="V62">
-        <v>1.95</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y62">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5316506</v>
+        <v>5317066</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,76 +6048,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F63" t="s">
+        <v>37</v>
+      </c>
+      <c r="G63" t="s">
         <v>32</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L63">
+        <v>3.6</v>
+      </c>
+      <c r="M63">
         <v>3.5</v>
       </c>
-      <c r="M63">
+      <c r="N63">
+        <v>2.1</v>
+      </c>
+      <c r="O63">
+        <v>3.5</v>
+      </c>
+      <c r="P63">
+        <v>3.3</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>1.825</v>
+      </c>
+      <c r="S63">
+        <v>1.975</v>
+      </c>
+      <c r="T63">
+        <v>2.75</v>
+      </c>
+      <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>1.95</v>
       </c>
-      <c r="N63">
-        <v>4.2</v>
-      </c>
-      <c r="O63">
-        <v>4</v>
-      </c>
-      <c r="P63">
-        <v>1.8</v>
-      </c>
-      <c r="Q63">
-        <v>0.75</v>
-      </c>
-      <c r="R63">
-        <v>1.8</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>3</v>
-      </c>
-      <c r="U63">
-        <v>1.975</v>
-      </c>
-      <c r="V63">
-        <v>1.825</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC63">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6404,10 +6404,10 @@
         <v>45051.5625</v>
       </c>
       <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
         <v>33</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5385750</v>
+        <v>5176847</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,55 +6496,55 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P68">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6553,16 +6553,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5176847</v>
+        <v>5385750</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,55 +6585,55 @@
         <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N69">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O69">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6642,16 +6642,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5420246</v>
+        <v>5420248</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N72">
+        <v>5.75</v>
+      </c>
+      <c r="O72">
         <v>4.333</v>
       </c>
-      <c r="O72">
-        <v>3.75</v>
-      </c>
       <c r="P72">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5420248</v>
+        <v>5420246</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N73">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q73">
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2.75</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>1.8</v>
+      </c>
+      <c r="W73">
+        <v>3.333</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>1</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>0.55</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7030,7 +7030,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>38</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5461428</v>
+        <v>5461923</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,58 +7294,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>35</v>
       </c>
       <c r="H77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
         <v>43</v>
       </c>
       <c r="K77">
+        <v>1.55</v>
+      </c>
+      <c r="L77">
+        <v>4</v>
+      </c>
+      <c r="M77">
+        <v>5</v>
+      </c>
+      <c r="N77">
+        <v>1.4</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>7.5</v>
+      </c>
+      <c r="Q77">
+        <v>-1.5</v>
+      </c>
+      <c r="R77">
         <v>1.95</v>
       </c>
-      <c r="L77">
-        <v>3.4</v>
-      </c>
-      <c r="M77">
-        <v>3.4</v>
-      </c>
-      <c r="N77">
+      <c r="S77">
         <v>1.85</v>
       </c>
-      <c r="O77">
-        <v>3.8</v>
-      </c>
-      <c r="P77">
-        <v>4</v>
-      </c>
-      <c r="Q77">
-        <v>-0.5</v>
-      </c>
-      <c r="R77">
-        <v>1.875</v>
-      </c>
-      <c r="S77">
-        <v>1.925</v>
-      </c>
       <c r="T77">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W77">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X77">
         <v>-1</v>
@@ -7354,16 +7354,16 @@
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5461427</v>
+        <v>5461428</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,46 +7386,46 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>43</v>
       </c>
       <c r="K78">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="O78">
         <v>3.8</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78">
         <v>1.8</v>
@@ -7434,7 +7434,7 @@
         <v>2</v>
       </c>
       <c r="W78">
-        <v>0.75</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7443,16 +7443,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461923</v>
+        <v>5461427</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,13 +7561,13 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7576,25 +7576,25 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N80">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
         <v>1.95</v>
@@ -7603,16 +7603,16 @@
         <v>1.85</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7627,10 +7627,10 @@
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5495011</v>
+        <v>5499199</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="N82">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q82">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5505610</v>
+        <v>5499197</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,76 +7828,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>2</v>
+        <v>1.615</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q83">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA83">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB83">
         <v>-1</v>
       </c>
       <c r="AC83">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5499197</v>
+        <v>5495011</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,13 +7917,13 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -7932,43 +7932,43 @@
         <v>43</v>
       </c>
       <c r="K84">
+        <v>5.5</v>
+      </c>
+      <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>1.6</v>
+      </c>
+      <c r="N84">
+        <v>3.6</v>
+      </c>
+      <c r="O84">
+        <v>4</v>
+      </c>
+      <c r="P84">
         <v>1.85</v>
       </c>
-      <c r="L84">
-        <v>3.75</v>
-      </c>
-      <c r="M84">
-        <v>3.4</v>
-      </c>
-      <c r="N84">
-        <v>1.615</v>
-      </c>
-      <c r="O84">
-        <v>4.5</v>
-      </c>
-      <c r="P84">
-        <v>4.5</v>
-      </c>
       <c r="Q84">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>0.615</v>
+        <v>2.6</v>
       </c>
       <c r="X84">
         <v>-1</v>
@@ -7977,16 +7977,16 @@
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC84">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8009,7 +8009,7 @@
         <v>29</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5499199</v>
+        <v>5505610</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8098,7 +8098,7 @@
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8110,31 +8110,31 @@
         <v>42</v>
       </c>
       <c r="K86">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
         <v>3.6</v>
       </c>
       <c r="M86">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N86">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O86">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
         <v>1.825</v>
-      </c>
-      <c r="S86">
-        <v>1.975</v>
       </c>
       <c r="T86">
         <v>3.25</v>
@@ -8149,16 +8149,16 @@
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
         <v>-1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5575190</v>
+        <v>5571703</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,40 +8184,40 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P87">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R87">
         <v>1.8</v>
@@ -8226,7 +8226,7 @@
         <v>2</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8238,16 +8238,16 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB87">
         <v>0.925</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5571704</v>
+        <v>5569704</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,73 +8273,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N88">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P88">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5571703</v>
+        <v>5569705</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M89">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N89">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R89">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S89">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T89">
         <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z89">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5569705</v>
+        <v>5571704</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,49 +8451,49 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>35</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>1.571</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N90">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="Q90">
         <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U90">
         <v>1.975</v>
@@ -8508,19 +8508,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>4</v>
+        <v>3.333</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5569704</v>
+        <v>5575190</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,70 +8543,70 @@
         <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
         <v>6</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.285</v>
+        <v>2.2</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="N91">
-        <v>1.166</v>
+        <v>3.75</v>
       </c>
       <c r="O91">
-        <v>7</v>
+        <v>4.2</v>
       </c>
       <c r="P91">
-        <v>15</v>
+        <v>1.8</v>
       </c>
       <c r="Q91">
-        <v>-2.25</v>
+        <v>0.75</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>3.5</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z91">
+        <v>-1</v>
+      </c>
+      <c r="AA91">
         <v>1</v>
       </c>
-      <c r="AA91">
-        <v>-1</v>
-      </c>
       <c r="AB91">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8718,10 +8718,10 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,46 +9074,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
         <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9128,16 +9128,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,46 +9163,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N98">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
         <v>3.75</v>
       </c>
       <c r="P98">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9217,16 +9217,16 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,76 +9430,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.9</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X101">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103">
+        <v>2.625</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>2.3</v>
+      </c>
+      <c r="N103">
+        <v>2.625</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.6</v>
+      </c>
+      <c r="Q103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103">
-        <v>1.3</v>
-      </c>
-      <c r="L103">
-        <v>5.25</v>
-      </c>
-      <c r="M103">
-        <v>7.5</v>
-      </c>
-      <c r="N103">
-        <v>1.333</v>
-      </c>
-      <c r="O103">
-        <v>5.5</v>
-      </c>
-      <c r="P103">
-        <v>8</v>
-      </c>
-      <c r="Q103">
-        <v>-1.5</v>
-      </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.875</v>
+      </c>
+      <c r="AB103">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,76 +9697,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P104">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9967,7 +9967,7 @@
         <v>39</v>
       </c>
       <c r="G107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -10053,7 +10053,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10219,7 +10219,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10231,13 +10231,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10246,40 +10246,40 @@
         <v>44</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O110">
         <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10288,16 +10288,16 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,13 +10320,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -10335,40 +10335,40 @@
         <v>44</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
         <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q111">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10409,7 +10409,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
         <v>30</v>
@@ -10679,7 +10679,7 @@
         <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H115">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11213,7 +11213,7 @@
         <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>6</v>
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6811431</v>
+        <v>6811923</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,76 +11299,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K122">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
+      </c>
+      <c r="K123">
+        <v>4.5</v>
+      </c>
+      <c r="L123">
         <v>4</v>
       </c>
-      <c r="J123" t="s">
-        <v>44</v>
-      </c>
-      <c r="K123">
-        <v>3.25</v>
-      </c>
-      <c r="L123">
-        <v>3.75</v>
-      </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N123">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
         <v>41</v>
@@ -12011,7 +12011,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
         <v>31</v>
@@ -12278,7 +12278,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12548,7 +12548,7 @@
         <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,76 +12634,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
+        <v>3.5</v>
+      </c>
+      <c r="L137">
+        <v>3.9</v>
+      </c>
+      <c r="M137">
         <v>1.8</v>
       </c>
-      <c r="L137">
-        <v>3.6</v>
-      </c>
-      <c r="M137">
-        <v>3.9</v>
-      </c>
       <c r="N137">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O137">
         <v>3.8</v>
       </c>
       <c r="P137">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>3</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X137">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12711,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12723,76 +12723,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K138">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
         <v>3.9</v>
       </c>
-      <c r="M138">
-        <v>1.8</v>
-      </c>
       <c r="N138">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O138">
         <v>3.8</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
         <v>3</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,61 +13346,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>42</v>
       </c>
       <c r="K145">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3.25</v>
+      </c>
+      <c r="N145">
+        <v>2.15</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
         <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>3.4</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13409,13 +13409,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,61 +13435,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>42</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L146">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13498,13 +13498,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,55 +13524,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>44</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13581,19 +13581,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,55 +13613,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
         <v>44</v>
       </c>
       <c r="K148">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13670,19 +13670,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,76 +13702,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N149">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
       </c>
       <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA149">
+        <v>-0.5</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.95</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
-      <c r="AC149">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N150">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O150">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
         <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811939</v>
+        <v>6811731</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>42</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N152">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811731</v>
+        <v>6811939</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,76 +14058,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>42</v>
       </c>
       <c r="K153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N153">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14684,7 +14684,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,73 +14859,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N162">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q162">
         <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X162">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,73 +14948,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N163">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q163">
         <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15304,7 +15304,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K171">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L171">
         <v>3.5</v>
       </c>
       <c r="M171">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O171">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,76 +15749,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K172">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>3.4</v>
+      </c>
+      <c r="O172">
         <v>3.3</v>
       </c>
-      <c r="N172">
+      <c r="P172">
+        <v>2.15</v>
+      </c>
+      <c r="Q172">
+        <v>0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
         <v>1.85</v>
       </c>
-      <c r="O172">
-        <v>3.75</v>
-      </c>
-      <c r="P172">
-        <v>4</v>
-      </c>
-      <c r="Q172">
-        <v>-0.5</v>
-      </c>
-      <c r="R172">
-        <v>1.9</v>
-      </c>
-      <c r="S172">
-        <v>1.9</v>
-      </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X172">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16108,7 +16108,7 @@
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16194,7 +16194,7 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G177" t="s">
         <v>30</v>
@@ -16639,7 +16639,7 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -16820,7 +16820,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>37</v>
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,58 +17262,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
         <v>1.8</v>
       </c>
-      <c r="S189">
-        <v>2</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17322,13 +17322,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,59 +17351,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>43</v>
       </c>
       <c r="K190">
+        <v>3.2</v>
+      </c>
+      <c r="L190">
+        <v>3.5</v>
+      </c>
+      <c r="M190">
+        <v>2.1</v>
+      </c>
+      <c r="N190">
+        <v>3.6</v>
+      </c>
+      <c r="O190">
+        <v>3.5</v>
+      </c>
+      <c r="P190">
+        <v>2.05</v>
+      </c>
+      <c r="Q190">
+        <v>0.5</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>1.8</v>
+      </c>
+      <c r="W190">
         <v>2.6</v>
       </c>
-      <c r="L190">
-        <v>3.4</v>
-      </c>
-      <c r="M190">
-        <v>2.5</v>
-      </c>
-      <c r="N190">
-        <v>2.75</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
-      <c r="P190">
-        <v>2.55</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>3</v>
-      </c>
-      <c r="U190">
-        <v>1.975</v>
-      </c>
-      <c r="V190">
-        <v>1.825</v>
-      </c>
-      <c r="W190">
-        <v>1.75</v>
-      </c>
       <c r="X190">
         <v>-1</v>
       </c>
@@ -17411,13 +17411,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.8</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>1</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17529,7 +17529,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>31</v>
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,49 +17618,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L193">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N193">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O193">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
         <v>1.9</v>
@@ -17669,25 +17669,25 @@
         <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,49 +17707,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M194">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N194">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P194">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q194">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
         <v>1.9</v>
@@ -17758,25 +17758,25 @@
         <v>1.9</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X194">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P198">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
+        <v>0.425</v>
+      </c>
+      <c r="AA198">
         <v>-0.5</v>
       </c>
-      <c r="AA198">
-        <v>0.4</v>
-      </c>
       <c r="AB198">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
+        <v>1.833</v>
+      </c>
+      <c r="N199">
+        <v>5.25</v>
+      </c>
+      <c r="O199">
         <v>4</v>
       </c>
-      <c r="N199">
-        <v>1.7</v>
-      </c>
-      <c r="O199">
-        <v>4.2</v>
-      </c>
       <c r="P199">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z199">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
+        <v>0.4</v>
+      </c>
+      <c r="AB199">
+        <v>0.4125</v>
+      </c>
+      <c r="AC199">
         <v>-0.5</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
-      <c r="AC199">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7617776</v>
+        <v>7617775</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,31 +18419,31 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L202">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M202">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N202">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P202">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R202">
         <v>1.875</v>
@@ -18452,13 +18452,13 @@
         <v>1.925</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V202">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18481,7 +18481,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7617775</v>
+        <v>7617776</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18493,40 +18493,40 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K203">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M203">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N203">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="Q203">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S203">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
         <v>1.8</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5477714</v>
+        <v>5177529</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,37 +1687,37 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N14">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q14">
         <v>-0.25</v>
@@ -1729,13 +1729,13 @@
         <v>1.875</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1744,7 +1744,7 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
@@ -1753,10 +1753,10 @@
         <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5177529</v>
+        <v>5477714</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,37 +1865,37 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L16">
         <v>3.4</v>
       </c>
       <c r="M16">
+        <v>3.2</v>
+      </c>
+      <c r="N16">
+        <v>2.2</v>
+      </c>
+      <c r="O16">
         <v>3.25</v>
       </c>
-      <c r="N16">
-        <v>2.25</v>
-      </c>
-      <c r="O16">
-        <v>3.5</v>
-      </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
         <v>-0.25</v>
@@ -1907,13 +1907,13 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1922,7 +1922,7 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="Z16">
         <v>-1</v>
@@ -1931,10 +1931,10 @@
         <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5177531</v>
+        <v>5176500</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,73 +1954,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N17">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
+        <v>1.95</v>
+      </c>
+      <c r="T17">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
         <v>1.8</v>
       </c>
-      <c r="S17">
-        <v>2</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.85</v>
-      </c>
-      <c r="V17">
-        <v>1.95</v>
-      </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5176500</v>
+        <v>5177533</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,73 +2043,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>1.666</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
         <v>3.75</v>
       </c>
       <c r="M18">
+        <v>3.25</v>
+      </c>
+      <c r="N18">
+        <v>1.85</v>
+      </c>
+      <c r="O18">
+        <v>3.6</v>
+      </c>
+      <c r="P18">
         <v>4.2</v>
       </c>
-      <c r="N18">
-        <v>1.65</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>5.25</v>
-      </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5177533</v>
+        <v>5177531</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,10 +2132,10 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2147,58 +2147,58 @@
         <v>42</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5176852</v>
+        <v>5177535</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,19 +2577,19 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
         <v>1.727</v>
@@ -2601,22 +2601,22 @@
         <v>3.8</v>
       </c>
       <c r="N24">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O24">
         <v>3.75</v>
       </c>
       <c r="P24">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
@@ -2628,25 +2628,25 @@
         <v>2.025</v>
       </c>
       <c r="W24">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC24">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5177535</v>
+        <v>5176501</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,55 +2666,55 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>44</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>1.95</v>
+      </c>
+      <c r="O25">
         <v>3.8</v>
       </c>
-      <c r="N25">
-        <v>1.909</v>
-      </c>
-      <c r="O25">
-        <v>3.75</v>
-      </c>
       <c r="P25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q25">
         <v>-0.5</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
         <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2723,19 +2723,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5176501</v>
+        <v>5176852</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,76 +2755,76 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L26">
         <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N26">
+        <v>1.75</v>
+      </c>
+      <c r="O26">
+        <v>3.75</v>
+      </c>
+      <c r="P26">
+        <v>4.5</v>
+      </c>
+      <c r="Q26">
+        <v>-0.75</v>
+      </c>
+      <c r="R26">
         <v>1.95</v>
       </c>
-      <c r="O26">
-        <v>3.8</v>
-      </c>
-      <c r="P26">
-        <v>3.6</v>
-      </c>
-      <c r="Q26">
-        <v>-0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
         <v>2.75</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5176503</v>
+        <v>5177541</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB35">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5177541</v>
+        <v>5176503</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
         <v>1.8</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.875</v>
+      </c>
+      <c r="AB36">
+        <v>0.4</v>
+      </c>
+      <c r="AC36">
         <v>-0.5</v>
-      </c>
-      <c r="AA36">
-        <v>0.5</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5177550</v>
+        <v>5177552</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,55 +4802,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4859,19 +4859,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5177552</v>
+        <v>5177550</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,55 +4891,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50">
+        <v>1.909</v>
+      </c>
+      <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>3.6</v>
+      </c>
+      <c r="N50">
         <v>2.2</v>
       </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.8</v>
-      </c>
-      <c r="N50">
-        <v>2.625</v>
-      </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4948,19 +4948,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB50">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5176847</v>
+        <v>5385750</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,58 +6493,58 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6553,16 +6553,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5385750</v>
+        <v>5176847</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,58 +6582,58 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6642,16 +6642,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5461923</v>
+        <v>5461426</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N77">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>7.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q77">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5461428</v>
+        <v>5461923</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,58 +7383,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>43</v>
       </c>
       <c r="K78">
+        <v>1.55</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>5</v>
+      </c>
+      <c r="N78">
+        <v>1.4</v>
+      </c>
+      <c r="O78">
+        <v>5</v>
+      </c>
+      <c r="P78">
+        <v>7.5</v>
+      </c>
+      <c r="Q78">
+        <v>-1.5</v>
+      </c>
+      <c r="R78">
         <v>1.95</v>
       </c>
-      <c r="L78">
-        <v>3.4</v>
-      </c>
-      <c r="M78">
-        <v>3.4</v>
-      </c>
-      <c r="N78">
+      <c r="S78">
         <v>1.85</v>
       </c>
-      <c r="O78">
-        <v>3.8</v>
-      </c>
-      <c r="P78">
-        <v>4</v>
-      </c>
-      <c r="Q78">
-        <v>-0.5</v>
-      </c>
-      <c r="R78">
-        <v>1.875</v>
-      </c>
-      <c r="S78">
-        <v>1.925</v>
-      </c>
       <c r="T78">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7443,16 +7443,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5461426</v>
+        <v>5461428</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,73 +7472,73 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L79">
         <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N79">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P79">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q79">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
+        <v>1.875</v>
+      </c>
+      <c r="S79">
         <v>1.925</v>
-      </c>
-      <c r="S79">
-        <v>1.875</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X79">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5499199</v>
+        <v>5499197</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X82">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA82">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5499197</v>
+        <v>5499198</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,46 +7828,46 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L83">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N83">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="O83">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>3.25</v>
@@ -7879,25 +7879,25 @@
         <v>1.8</v>
       </c>
       <c r="W83">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
+        <v>0.925</v>
+      </c>
+      <c r="AA83">
+        <v>-1</v>
+      </c>
+      <c r="AB83">
         <v>1</v>
       </c>
-      <c r="AA83">
-        <v>-1</v>
-      </c>
-      <c r="AB83">
-        <v>-1</v>
-      </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5495011</v>
+        <v>5499199</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.4125</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5499198</v>
+        <v>5505610</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,55 +8006,55 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
         <v>42</v>
       </c>
       <c r="K85">
-        <v>2.875</v>
+        <v>2.15</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N85">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="O85">
         <v>4</v>
       </c>
       <c r="P85">
-        <v>1.95</v>
+        <v>3.4</v>
       </c>
       <c r="Q85">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R85">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
         <v>-1</v>
@@ -8066,16 +8066,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB85">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5505610</v>
+        <v>5495011</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
+        <v>1.6</v>
+      </c>
+      <c r="N86">
         <v>3.6</v>
-      </c>
-      <c r="M86">
-        <v>2.8</v>
-      </c>
-      <c r="N86">
-        <v>2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X86">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5571703</v>
+        <v>5575190</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,40 +8184,40 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
         <v>3.6</v>
       </c>
       <c r="M87">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N87">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q87">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
         <v>1.8</v>
@@ -8226,7 +8226,7 @@
         <v>2</v>
       </c>
       <c r="T87">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
         <v>1.925</v>
@@ -8238,16 +8238,16 @@
         <v>-1</v>
       </c>
       <c r="X87">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z87">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB87">
         <v>0.925</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5569704</v>
+        <v>5571704</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,73 +8273,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
+        <v>4.5</v>
+      </c>
+      <c r="M88">
         <v>5</v>
       </c>
-      <c r="M88">
-        <v>7</v>
-      </c>
       <c r="N88">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O88">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="Q88">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R88">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z88">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5569705</v>
+        <v>5571703</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,76 +8362,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89">
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N89">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O89">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T89">
         <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5571704</v>
+        <v>5569705</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,49 +8451,49 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L90">
+        <v>4.2</v>
+      </c>
+      <c r="M90">
+        <v>4.2</v>
+      </c>
+      <c r="N90">
+        <v>1.571</v>
+      </c>
+      <c r="O90">
         <v>4.5</v>
       </c>
-      <c r="M90">
+      <c r="P90">
         <v>5</v>
       </c>
-      <c r="N90">
-        <v>1.615</v>
-      </c>
-      <c r="O90">
-        <v>4.75</v>
-      </c>
-      <c r="P90">
-        <v>4.333</v>
-      </c>
       <c r="Q90">
         <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T90">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
         <v>1.975</v>
@@ -8508,19 +8508,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
+        <v>0.875</v>
+      </c>
+      <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>0.825</v>
-      </c>
-      <c r="AB90">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5575190</v>
+        <v>5569704</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,73 +8540,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N91">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="O91">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P91">
+        <v>15</v>
+      </c>
+      <c r="Q91">
+        <v>-2.25</v>
+      </c>
+      <c r="R91">
+        <v>2</v>
+      </c>
+      <c r="S91">
         <v>1.8</v>
-      </c>
-      <c r="Q91">
-        <v>0.75</v>
-      </c>
-      <c r="R91">
-        <v>1.8</v>
-      </c>
-      <c r="S91">
-        <v>2</v>
       </c>
       <c r="T91">
         <v>3.5</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6811743</v>
+        <v>6811909</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,40 +8629,40 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M92">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N92">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O92">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
         <v>1.775</v>
@@ -8671,34 +8671,34 @@
         <v>2.025</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V92">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X92">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC92">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6811909</v>
+        <v>6811743</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,40 +8718,40 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L93">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M93">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N93">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P93">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q93">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R93">
         <v>1.775</v>
@@ -8760,34 +8760,34 @@
         <v>2.025</v>
       </c>
       <c r="T93">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB93">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,10 +8896,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L95">
         <v>3.5</v>
@@ -8920,31 +8920,31 @@
         <v>2.4</v>
       </c>
       <c r="N95">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8953,19 +8953,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,10 +8985,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>44</v>
       </c>
       <c r="K96">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L96">
         <v>3.5</v>
@@ -9009,31 +9009,31 @@
         <v>2.4</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9042,19 +9042,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X100">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,76 +9430,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,76 +9697,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K104">
+        <v>2.625</v>
+      </c>
+      <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>2.3</v>
+      </c>
+      <c r="N104">
+        <v>2.625</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>2.6</v>
+      </c>
+      <c r="Q104">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K104">
-        <v>1.3</v>
-      </c>
-      <c r="L104">
-        <v>5.25</v>
-      </c>
-      <c r="M104">
-        <v>7.5</v>
-      </c>
-      <c r="N104">
-        <v>1.333</v>
-      </c>
-      <c r="O104">
-        <v>5.5</v>
-      </c>
-      <c r="P104">
-        <v>8</v>
-      </c>
-      <c r="Q104">
-        <v>-1.5</v>
-      </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.875</v>
+      </c>
+      <c r="AB104">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="V105">
-        <v>1.95</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,76 +9875,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
         <v>1.95</v>
       </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9952,7 +9952,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6811740</v>
+        <v>6811915</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9964,58 +9964,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M107">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N107">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O107">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P107">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q107">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T107">
         <v>3</v>
       </c>
       <c r="U107">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W107">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10024,16 +10024,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC107">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10041,7 +10041,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6811915</v>
+        <v>6811740</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,58 +10053,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N108">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P108">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>3</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10113,16 +10113,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10219,7 +10219,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10231,13 +10231,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10246,40 +10246,40 @@
         <v>44</v>
       </c>
       <c r="K110">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N110">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O110">
         <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10288,16 +10288,16 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,13 +10320,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -10335,40 +10335,40 @@
         <v>44</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
         <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K112">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>2.1</v>
+      </c>
+      <c r="N113">
         <v>3.6</v>
       </c>
-      <c r="M113">
-        <v>1.65</v>
-      </c>
-      <c r="N113">
-        <v>4.5</v>
-      </c>
       <c r="O113">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y113">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,76 +11299,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
+      </c>
+      <c r="K122">
+        <v>4.5</v>
+      </c>
+      <c r="L122">
         <v>4</v>
       </c>
-      <c r="J122" t="s">
-        <v>44</v>
-      </c>
-      <c r="K122">
-        <v>3.25</v>
-      </c>
-      <c r="L122">
-        <v>3.75</v>
-      </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N122">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811431</v>
+        <v>6811923</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N123">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z123">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811433</v>
+        <v>6811927</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M129">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y129">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811927</v>
+        <v>6811736</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
+        <v>1.95</v>
+      </c>
+      <c r="V130">
+        <v>1.85</v>
+      </c>
+      <c r="W130">
         <v>1.875</v>
       </c>
-      <c r="T130">
-        <v>2.75</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.875</v>
-      </c>
-      <c r="W130">
-        <v>-1</v>
-      </c>
       <c r="X130">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
         <v>-1</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811736</v>
+        <v>6811433</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N131">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P131">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
+        <v>1.85</v>
+      </c>
+      <c r="V131">
         <v>1.95</v>
       </c>
-      <c r="V131">
-        <v>1.85</v>
-      </c>
       <c r="W131">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,76 +12634,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
         <v>3.9</v>
       </c>
-      <c r="M137">
-        <v>1.8</v>
-      </c>
       <c r="N137">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O137">
         <v>3.8</v>
       </c>
       <c r="P137">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
         <v>3</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12711,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12723,76 +12723,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
+        <v>3.5</v>
+      </c>
+      <c r="L138">
+        <v>3.9</v>
+      </c>
+      <c r="M138">
         <v>1.8</v>
       </c>
-      <c r="L138">
-        <v>3.6</v>
-      </c>
-      <c r="M138">
-        <v>3.9</v>
-      </c>
       <c r="N138">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O138">
         <v>3.8</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>3</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X138">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,61 +13346,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>42</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
         <v>1.85</v>
       </c>
-      <c r="S145">
+      <c r="V145">
         <v>1.95</v>
       </c>
-      <c r="T145">
-        <v>3.25</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.875</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13409,13 +13409,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,61 +13435,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>42</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
+        <v>3.25</v>
+      </c>
+      <c r="M146">
+        <v>3.25</v>
+      </c>
+      <c r="N146">
+        <v>2.15</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
         <v>3.2</v>
-      </c>
-      <c r="M146">
-        <v>3.4</v>
-      </c>
-      <c r="N146">
-        <v>2.3</v>
-      </c>
-      <c r="O146">
-        <v>3.4</v>
-      </c>
-      <c r="P146">
-        <v>3</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13498,13 +13498,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,55 +13524,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
         <v>44</v>
       </c>
       <c r="K147">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O147">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13581,19 +13581,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,55 +13613,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>44</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M148">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13670,19 +13670,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,76 +13702,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N150">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q150">
         <v>-0.75</v>
       </c>
       <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.875</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X150">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA150">
+        <v>-0.5</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.95</v>
-      </c>
-      <c r="AB150">
-        <v>-1</v>
-      </c>
-      <c r="AC150">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811731</v>
+        <v>6811939</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>42</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N152">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811939</v>
+        <v>6811731</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,76 +14058,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>42</v>
       </c>
       <c r="K153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N153">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811443</v>
+        <v>6811442</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,73 +14503,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N158">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O158">
         <v>4.333</v>
       </c>
       <c r="P158">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB158">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6811442</v>
+        <v>6811443</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,73 +14592,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N159">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O159">
         <v>4.333</v>
       </c>
       <c r="P159">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y159">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,76 +15126,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G165" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K165">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L165">
+        <v>3.75</v>
+      </c>
+      <c r="M165">
+        <v>1.85</v>
+      </c>
+      <c r="N165">
+        <v>3.1</v>
+      </c>
+      <c r="O165">
         <v>3.6</v>
       </c>
-      <c r="M165">
-        <v>3.5</v>
-      </c>
-      <c r="N165">
-        <v>1.7</v>
-      </c>
-      <c r="O165">
-        <v>4</v>
-      </c>
       <c r="P165">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q165">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T165">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V165">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W165">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB165">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15203,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,76 +15215,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J166" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K166">
+        <v>1.909</v>
+      </c>
+      <c r="L166">
         <v>3.6</v>
       </c>
-      <c r="L166">
-        <v>3.75</v>
-      </c>
       <c r="M166">
+        <v>3.5</v>
+      </c>
+      <c r="N166">
+        <v>1.7</v>
+      </c>
+      <c r="O166">
+        <v>4</v>
+      </c>
+      <c r="P166">
+        <v>4.75</v>
+      </c>
+      <c r="Q166">
+        <v>-0.75</v>
+      </c>
+      <c r="R166">
         <v>1.85</v>
       </c>
-      <c r="N166">
-        <v>3.1</v>
-      </c>
-      <c r="O166">
-        <v>3.6</v>
-      </c>
-      <c r="P166">
-        <v>2.2</v>
-      </c>
-      <c r="Q166">
-        <v>0.25</v>
-      </c>
-      <c r="R166">
+      <c r="S166">
+        <v>1.95</v>
+      </c>
+      <c r="T166">
+        <v>2.5</v>
+      </c>
+      <c r="U166">
         <v>1.875</v>
       </c>
-      <c r="S166">
+      <c r="V166">
         <v>1.925</v>
       </c>
-      <c r="T166">
-        <v>2.75</v>
-      </c>
-      <c r="U166">
-        <v>1.975</v>
-      </c>
-      <c r="V166">
-        <v>1.825</v>
-      </c>
       <c r="W166">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X166">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA166">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB166">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC166">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6811450</v>
+        <v>6811949</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,10 +16105,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16120,43 +16120,43 @@
         <v>43</v>
       </c>
       <c r="K176">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L176">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O176">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16165,16 +16165,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6811949</v>
+        <v>6811450</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,10 +16194,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F177" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16209,61 +16209,61 @@
         <v>43</v>
       </c>
       <c r="K177">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N177">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q177">
+        <v>-1.5</v>
+      </c>
+      <c r="R177">
+        <v>1.975</v>
+      </c>
+      <c r="S177">
+        <v>1.825</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
+        <v>1.925</v>
+      </c>
+      <c r="W177">
+        <v>0.363</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
+        <v>0.825</v>
+      </c>
+      <c r="AB177">
+        <v>0.4375</v>
+      </c>
+      <c r="AC177">
         <v>-0.5</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>3</v>
-      </c>
-      <c r="U177">
-        <v>2</v>
-      </c>
-      <c r="V177">
-        <v>1.8</v>
-      </c>
-      <c r="W177">
-        <v>0.909</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>0</v>
-      </c>
-      <c r="AC177">
-        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O180">
         <v>3.6</v>
       </c>
       <c r="P180">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
         <v>3.75</v>
       </c>
-      <c r="L181">
-        <v>3.5</v>
-      </c>
       <c r="M181">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O181">
         <v>3.6</v>
       </c>
       <c r="P181">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17072,7 +17072,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17084,58 +17084,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>43</v>
       </c>
       <c r="K187">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M187">
         <v>4.5</v>
       </c>
       <c r="N187">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q187">
         <v>-1</v>
       </c>
       <c r="R187">
+        <v>2.025</v>
+      </c>
+      <c r="S187">
         <v>1.775</v>
-      </c>
-      <c r="S187">
-        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17144,16 +17144,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,58 +17173,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
         <v>4.5</v>
       </c>
       <c r="N188">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
-      </c>
-      <c r="S188">
-        <v>1.775</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,16 +17233,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,59 +17262,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
+        <v>3.2</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.1</v>
+      </c>
+      <c r="N189">
+        <v>3.6</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>2.05</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>1.8</v>
+      </c>
+      <c r="W189">
         <v>2.6</v>
       </c>
-      <c r="L189">
-        <v>3.4</v>
-      </c>
-      <c r="M189">
-        <v>2.5</v>
-      </c>
-      <c r="N189">
-        <v>2.75</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.55</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>2</v>
-      </c>
-      <c r="S189">
-        <v>1.8</v>
-      </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>1.975</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>1.75</v>
-      </c>
       <c r="X189">
         <v>-1</v>
       </c>
@@ -17322,13 +17322,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
+        <v>0.8</v>
+      </c>
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
         <v>1</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
-      <c r="AB189">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,58 +17351,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
         <v>43</v>
       </c>
       <c r="K190">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N190">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
         <v>1.8</v>
       </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17411,13 +17411,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,49 +17618,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F193" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N193">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P193">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
         <v>1.9</v>
@@ -17669,25 +17669,25 @@
         <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X193">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,49 +17707,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K194">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M194">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N194">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O194">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
         <v>1.9</v>
@@ -17758,25 +17758,25 @@
         <v>1.9</v>
       </c>
       <c r="W194">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC194">
-        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L198">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
+        <v>1.833</v>
+      </c>
+      <c r="N198">
+        <v>5.25</v>
+      </c>
+      <c r="O198">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>1.7</v>
-      </c>
-      <c r="O198">
-        <v>4.2</v>
-      </c>
       <c r="P198">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z198">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
+        <v>0.4</v>
+      </c>
+      <c r="AB198">
+        <v>0.4125</v>
+      </c>
+      <c r="AC198">
         <v>-0.5</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M199">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P199">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
+        <v>0.425</v>
+      </c>
+      <c r="AA199">
         <v>-0.5</v>
       </c>
-      <c r="AA199">
-        <v>0.4</v>
-      </c>
       <c r="AB199">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18229,7 +18229,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7617832</v>
+        <v>7617774</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18241,40 +18241,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K200">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M200">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N200">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O200">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q200">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R200">
         <v>1.775</v>
@@ -18283,34 +18283,34 @@
         <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA200">
+        <v>-0</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
         <v>1.025</v>
-      </c>
-      <c r="AB200">
-        <v>-1</v>
-      </c>
-      <c r="AC200">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7617774</v>
+        <v>7617832</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,40 +18330,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J201" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K201">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L201">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N201">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P201">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q201">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R201">
         <v>1.775</v>
@@ -18372,34 +18372,34 @@
         <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB201">
         <v>-1</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18629,7 +18629,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7617833</v>
+        <v>7617778</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18641,46 +18641,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G205" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="K205">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="L205">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M205">
+        <v>2.75</v>
+      </c>
+      <c r="N205">
+        <v>2.375</v>
+      </c>
+      <c r="O205">
+        <v>3.4</v>
+      </c>
+      <c r="P205">
+        <v>2.75</v>
+      </c>
+      <c r="Q205">
+        <v>-0.25</v>
+      </c>
+      <c r="R205">
         <v>2.05</v>
       </c>
-      <c r="N205">
-        <v>3</v>
-      </c>
-      <c r="O205">
-        <v>3.75</v>
-      </c>
-      <c r="P205">
-        <v>2.05</v>
-      </c>
-      <c r="Q205">
-        <v>0.25</v>
-      </c>
-      <c r="R205">
-        <v>1.975</v>
-      </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="T205">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18703,7 +18703,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>7617778</v>
+        <v>7617833</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18715,46 +18715,46 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F206" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G206" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="K206">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L206">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M206">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N206">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="O206">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P206">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q206">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S206">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V206">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W206">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -112,16 +112,16 @@
     <t>AC Bellinzona</t>
   </si>
   <si>
+    <t>Neuchatel Xamax</t>
+  </si>
+  <si>
     <t>Stade LausanneOuchy</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
+    <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>Yverdon Sport FC</t>
-  </si>
-  <si>
-    <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>Lausanne Sports</t>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6028075</v>
+        <v>6028076</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,37 +889,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
         <v>1.775</v>
@@ -931,31 +931,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y5">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6028076</v>
+        <v>6028075</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,37 +978,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6">
+        <v>2.375</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="M6">
-        <v>3.1</v>
-      </c>
-      <c r="N6">
-        <v>2.05</v>
-      </c>
-      <c r="O6">
-        <v>3.75</v>
-      </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1.775</v>
@@ -1020,31 +1020,31 @@
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.8</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
         <v>1.875</v>
       </c>
-      <c r="V6">
-        <v>1.925</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.75</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5177527</v>
+        <v>5177526</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1079,43 +1079,43 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L7">
+        <v>3.4</v>
+      </c>
+      <c r="M7">
+        <v>2.375</v>
+      </c>
+      <c r="N7">
+        <v>2.9</v>
+      </c>
+      <c r="O7">
         <v>3.5</v>
       </c>
-      <c r="M7">
-        <v>2.3</v>
-      </c>
-      <c r="N7">
-        <v>2.2</v>
-      </c>
-      <c r="O7">
-        <v>3.8</v>
-      </c>
       <c r="P7">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W7">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1124,7 +1124,7 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1133,7 +1133,7 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5177526</v>
+        <v>5177527</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1168,43 +1168,43 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
+        <v>2.2</v>
+      </c>
+      <c r="O8">
+        <v>3.8</v>
+      </c>
+      <c r="P8">
         <v>2.9</v>
       </c>
-      <c r="O8">
-        <v>3.5</v>
-      </c>
-      <c r="P8">
-        <v>2.375</v>
-      </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1213,7 +1213,7 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1222,7 +1222,7 @@
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>44967.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1601,7 +1601,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5177529</v>
+        <v>5177530</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,55 +1687,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>3</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1744,19 +1744,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5177530</v>
+        <v>5177529</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,55 +1776,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
+        <v>3.25</v>
+      </c>
+      <c r="N15">
         <v>2.25</v>
       </c>
-      <c r="N15">
-        <v>2.45</v>
-      </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1833,19 +1833,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5177533</v>
+        <v>5177531</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,7 +2046,7 @@
         <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2058,58 +2058,58 @@
         <v>42</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.85</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V18">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5177531</v>
+        <v>5177533</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,7 +2135,7 @@
         <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2147,58 +2147,58 @@
         <v>42</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P19">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S19">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T19">
         <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5177535</v>
+        <v>5176501</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,55 +2577,55 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
         <v>32</v>
       </c>
-      <c r="G24" t="s">
-        <v>35</v>
-      </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>44</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>1.95</v>
+      </c>
+      <c r="O24">
         <v>3.8</v>
       </c>
-      <c r="N24">
-        <v>1.909</v>
-      </c>
-      <c r="O24">
-        <v>3.75</v>
-      </c>
       <c r="P24">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q24">
         <v>-0.5</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
         <v>1.875</v>
-      </c>
-      <c r="S24">
-        <v>1.925</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V24">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2634,19 +2634,19 @@
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB24">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5176501</v>
+        <v>5176852</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,76 +2666,76 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N25">
+        <v>1.75</v>
+      </c>
+      <c r="O25">
+        <v>3.75</v>
+      </c>
+      <c r="P25">
+        <v>4.5</v>
+      </c>
+      <c r="Q25">
+        <v>-0.75</v>
+      </c>
+      <c r="R25">
         <v>1.95</v>
       </c>
-      <c r="O25">
-        <v>3.8</v>
-      </c>
-      <c r="P25">
-        <v>3.6</v>
-      </c>
-      <c r="Q25">
-        <v>-0.5</v>
-      </c>
-      <c r="R25">
-        <v>1.925</v>
-      </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5176852</v>
+        <v>5177535</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,19 +2755,19 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.727</v>
@@ -2779,22 +2779,22 @@
         <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
         <v>3.75</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.75</v>
@@ -2806,25 +2806,25 @@
         <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2933,7 +2933,7 @@
         <v>44988.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3022,7 +3022,7 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G29" t="s">
         <v>38</v>
@@ -3114,7 +3114,7 @@
         <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>44995.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3381,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5177541</v>
+        <v>5176503</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.8</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.85</v>
-      </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
+        <v>0.875</v>
+      </c>
+      <c r="AB35">
+        <v>0.4</v>
+      </c>
+      <c r="AC35">
         <v>-0.5</v>
-      </c>
-      <c r="AA35">
-        <v>0.5</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
-      <c r="AC35">
-        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5176503</v>
+        <v>5177541</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,10 +3734,10 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F37" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" t="s">
         <v>34</v>
-      </c>
-      <c r="G37" t="s">
-        <v>35</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4004,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4446,10 +4446,10 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
         <v>33</v>
-      </c>
-      <c r="G45" t="s">
-        <v>32</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4538,7 +4538,7 @@
         <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>2</v>
@@ -4713,10 +4713,10 @@
         <v>45023.63541666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4891,7 +4891,7 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G50" t="s">
         <v>30</v>
@@ -4983,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5158,10 +5158,10 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F53" t="s">
+        <v>34</v>
+      </c>
+      <c r="G53" t="s">
         <v>35</v>
-      </c>
-      <c r="G53" t="s">
-        <v>34</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5428,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>45037.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5606,7 +5606,7 @@
         <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5695,7 +5695,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -5781,7 +5781,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5959,7 +5959,7 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6051,7 +6051,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6214,7 +6214,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5310702</v>
+        <v>5317065</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6226,76 +6226,76 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>3.6</v>
+        <v>2.375</v>
       </c>
       <c r="L65">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M65">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="N65">
-        <v>4.75</v>
+        <v>2.25</v>
       </c>
       <c r="O65">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T65">
         <v>3</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V65">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y65">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z65">
         <v>-0.5</v>
       </c>
       <c r="AA65">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6303,7 +6303,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>5317065</v>
+        <v>5310702</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6315,76 +6315,76 @@
         <v>45046.38541666666</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>0</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K66">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M66">
-        <v>2.625</v>
+        <v>1.75</v>
       </c>
       <c r="N66">
-        <v>2.25</v>
+        <v>4.75</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P66">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="Q66">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S66">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T66">
         <v>3</v>
       </c>
       <c r="U66">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W66">
         <v>-1</v>
       </c>
       <c r="X66">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z66">
         <v>-0.5</v>
       </c>
       <c r="AA66">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AB66">
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6404,10 +6404,10 @@
         <v>45051.5625</v>
       </c>
       <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
         <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5385750</v>
+        <v>5176847</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6496,55 +6496,55 @@
         <v>34</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
         <v>1</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L68">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M68">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N68">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P68">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S68">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V68">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W68">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6553,16 +6553,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB68">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5176847</v>
+        <v>5385750</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6585,55 +6585,55 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M69">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N69">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O69">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P69">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R69">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S69">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V69">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W69">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6642,16 +6642,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5420248</v>
+        <v>5420246</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N72">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O72">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q72">
+        <v>0.5</v>
+      </c>
+      <c r="R72">
+        <v>2</v>
+      </c>
+      <c r="S72">
+        <v>1.8</v>
+      </c>
+      <c r="T72">
+        <v>2.75</v>
+      </c>
+      <c r="U72">
+        <v>2</v>
+      </c>
+      <c r="V72">
+        <v>1.8</v>
+      </c>
+      <c r="W72">
+        <v>3.333</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>1</v>
       </c>
-      <c r="R72">
-        <v>1.95</v>
-      </c>
-      <c r="S72">
-        <v>1.85</v>
-      </c>
-      <c r="T72">
-        <v>3</v>
-      </c>
-      <c r="U72">
-        <v>1.875</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>-1</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>0.55</v>
-      </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5420246</v>
+        <v>5420248</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K73">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N73">
+        <v>5.75</v>
+      </c>
+      <c r="O73">
         <v>4.333</v>
       </c>
-      <c r="O73">
-        <v>3.75</v>
-      </c>
       <c r="P73">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="Q73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T73">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z73">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB73">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7030,7 +7030,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G75" t="s">
         <v>38</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5461426</v>
+        <v>5461427</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L77">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N77">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S77">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T77">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
+        <v>0.4</v>
+      </c>
+      <c r="AC77">
         <v>-0.5</v>
-      </c>
-      <c r="AB77">
-        <v>0.925</v>
-      </c>
-      <c r="AC77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7386,7 +7386,7 @@
         <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7472,10 +7472,10 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>4</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461427</v>
+        <v>5461426</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,76 +7561,76 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L80">
+        <v>3.4</v>
+      </c>
+      <c r="M80">
+        <v>2.7</v>
+      </c>
+      <c r="N80">
+        <v>3.2</v>
+      </c>
+      <c r="O80">
         <v>3.6</v>
       </c>
-      <c r="M80">
-        <v>3.5</v>
-      </c>
-      <c r="N80">
-        <v>1.75</v>
-      </c>
-      <c r="O80">
-        <v>3.8</v>
-      </c>
       <c r="P80">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R80">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S80">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA80">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB80">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5499197</v>
+        <v>5499198</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,46 +7739,46 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="N82">
-        <v>1.615</v>
+        <v>3.5</v>
       </c>
       <c r="O82">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="P82">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T82">
         <v>3.25</v>
@@ -7790,25 +7790,25 @@
         <v>1.8</v>
       </c>
       <c r="W82">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>0.925</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
         <v>1</v>
       </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>-1</v>
-      </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5499198</v>
+        <v>5499197</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,46 +7828,46 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>2</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K83">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M83">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P83">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T83">
         <v>3.25</v>
@@ -7879,25 +7879,25 @@
         <v>1.8</v>
       </c>
       <c r="W83">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5499199</v>
+        <v>5505610</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7920,7 +7920,7 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7932,31 +7932,31 @@
         <v>42</v>
       </c>
       <c r="K84">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N84">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R84">
+        <v>1.975</v>
+      </c>
+      <c r="S84">
         <v>1.825</v>
-      </c>
-      <c r="S84">
-        <v>1.975</v>
       </c>
       <c r="T84">
         <v>3.25</v>
@@ -7971,16 +7971,16 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5505610</v>
+        <v>5499199</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8009,7 +8009,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H85">
         <v>1</v>
@@ -8021,31 +8021,31 @@
         <v>42</v>
       </c>
       <c r="K85">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
         <v>3.6</v>
       </c>
       <c r="M85">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q85">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
+        <v>1.825</v>
+      </c>
+      <c r="S85">
         <v>1.975</v>
-      </c>
-      <c r="S85">
-        <v>1.825</v>
       </c>
       <c r="T85">
         <v>3.25</v>
@@ -8060,16 +8060,16 @@
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA85">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
         <v>-1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5575190</v>
+        <v>5571704</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,55 +8184,55 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q87">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5571704</v>
+        <v>5575190</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,55 +8273,55 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="O88">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8330,16 +8330,16 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB88">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5571703</v>
+        <v>5569704</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,73 +8362,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>1.285</v>
       </c>
       <c r="L89">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="N89">
-        <v>2.75</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>15</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R89">
+        <v>2</v>
+      </c>
+      <c r="S89">
         <v>1.8</v>
       </c>
-      <c r="S89">
-        <v>2</v>
-      </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5569705</v>
+        <v>5571703</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L90">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M90">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N90">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P90">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T90">
         <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y90">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5569704</v>
+        <v>5569705</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>1.285</v>
+        <v>1.571</v>
       </c>
       <c r="L91">
+        <v>4.2</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.571</v>
+      </c>
+      <c r="O91">
+        <v>4.5</v>
+      </c>
+      <c r="P91">
         <v>5</v>
       </c>
-      <c r="M91">
-        <v>7</v>
-      </c>
-      <c r="N91">
-        <v>1.166</v>
-      </c>
-      <c r="O91">
-        <v>7</v>
-      </c>
-      <c r="P91">
-        <v>15</v>
-      </c>
       <c r="Q91">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,10 +8629,10 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>3</v>
@@ -9074,7 +9074,7 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9166,7 +9166,7 @@
         <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9697,7 +9697,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>37</v>
@@ -9878,7 +9878,7 @@
         <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>38</v>
@@ -10056,7 +10056,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10219,7 +10219,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10231,13 +10231,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10246,40 +10246,40 @@
         <v>44</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M110">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O110">
         <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R110">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T110">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10288,16 +10288,16 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,13 +10320,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -10335,40 +10335,40 @@
         <v>44</v>
       </c>
       <c r="K111">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O111">
         <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q111">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10498,7 +10498,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>30</v>
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6811919</v>
+        <v>6811429</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N115">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>1.8</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
         <v>1.925</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>1.875</v>
       </c>
-      <c r="T115">
-        <v>3.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6811429</v>
+        <v>6811919</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,76 +10765,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L116">
         <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11213,7 +11213,7 @@
         <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>6</v>
@@ -11299,7 +11299,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>40</v>
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11922,7 +11922,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
         <v>31</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811736</v>
+        <v>6811433</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P130">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="V130">
-        <v>1.85</v>
-      </c>
       <c r="W130">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811433</v>
+        <v>6811736</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N131">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="O131">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>10</v>
+        <v>2.4</v>
       </c>
       <c r="Q131">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
         <v>1.95</v>
       </c>
-      <c r="S131">
+      <c r="V131">
         <v>1.85</v>
       </c>
-      <c r="T131">
-        <v>3.25</v>
-      </c>
-      <c r="U131">
-        <v>1.85</v>
-      </c>
-      <c r="V131">
-        <v>1.95</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
+        <v>-1</v>
+      </c>
+      <c r="AB131">
+        <v>-1</v>
+      </c>
+      <c r="AC131">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB131">
-        <v>-0.5</v>
-      </c>
-      <c r="AC131">
-        <v>0.475</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12548,7 +12548,7 @@
         <v>41</v>
       </c>
       <c r="G136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,76 +12634,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K137">
+        <v>3.5</v>
+      </c>
+      <c r="L137">
+        <v>3.9</v>
+      </c>
+      <c r="M137">
         <v>1.8</v>
       </c>
-      <c r="L137">
-        <v>3.6</v>
-      </c>
-      <c r="M137">
-        <v>3.9</v>
-      </c>
       <c r="N137">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O137">
         <v>3.8</v>
       </c>
       <c r="P137">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q137">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
         <v>3</v>
       </c>
       <c r="U137">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V137">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X137">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12711,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12723,76 +12723,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G138" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K138">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L138">
+        <v>3.6</v>
+      </c>
+      <c r="M138">
         <v>3.9</v>
       </c>
-      <c r="M138">
-        <v>1.8</v>
-      </c>
       <c r="N138">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O138">
         <v>3.8</v>
       </c>
       <c r="P138">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q138">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T138">
         <v>3</v>
       </c>
       <c r="U138">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V138">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W138">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X138">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,61 +13346,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>42</v>
       </c>
       <c r="K145">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3.25</v>
+      </c>
+      <c r="N145">
+        <v>2.15</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
         <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>3.4</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13409,13 +13409,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,61 +13435,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>42</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L146">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13498,13 +13498,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,55 +13524,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>44</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13581,19 +13581,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,55 +13613,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
         <v>44</v>
       </c>
       <c r="K148">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13670,19 +13670,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,76 +13702,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N149">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
       </c>
       <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA149">
+        <v>-0.5</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.95</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
-      <c r="AC149">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N150">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O150">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
         <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13969,7 +13969,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -14058,7 +14058,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
         <v>39</v>
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811442</v>
+        <v>6811443</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,73 +14503,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J158" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M158">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N158">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O158">
         <v>4.333</v>
       </c>
       <c r="P158">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q158">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S158">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V158">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y158">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB158">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6811443</v>
+        <v>6811442</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,73 +14592,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F159" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I159">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J159" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K159">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L159">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M159">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N159">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O159">
         <v>4.333</v>
       </c>
       <c r="P159">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q159">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R159">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S159">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB159">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14684,7 +14684,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,73 +14859,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N162">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q162">
         <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,73 +14948,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N163">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q163">
         <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15114,7 +15114,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15126,76 +15126,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F165" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K165">
+        <v>1.909</v>
+      </c>
+      <c r="L165">
         <v>3.6</v>
       </c>
-      <c r="L165">
-        <v>3.75</v>
-      </c>
       <c r="M165">
+        <v>3.5</v>
+      </c>
+      <c r="N165">
+        <v>1.7</v>
+      </c>
+      <c r="O165">
+        <v>4</v>
+      </c>
+      <c r="P165">
+        <v>4.75</v>
+      </c>
+      <c r="Q165">
+        <v>-0.75</v>
+      </c>
+      <c r="R165">
         <v>1.85</v>
       </c>
-      <c r="N165">
-        <v>3.1</v>
-      </c>
-      <c r="O165">
-        <v>3.6</v>
-      </c>
-      <c r="P165">
-        <v>2.2</v>
-      </c>
-      <c r="Q165">
-        <v>0.25</v>
-      </c>
-      <c r="R165">
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
+        <v>2.5</v>
+      </c>
+      <c r="U165">
         <v>1.875</v>
       </c>
-      <c r="S165">
+      <c r="V165">
         <v>1.925</v>
       </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
-      <c r="U165">
-        <v>1.975</v>
-      </c>
-      <c r="V165">
-        <v>1.825</v>
-      </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X165">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y165">
         <v>-1</v>
       </c>
       <c r="Z165">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC165">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15203,7 +15203,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15215,76 +15215,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H166">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K166">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L166">
+        <v>3.75</v>
+      </c>
+      <c r="M166">
+        <v>1.85</v>
+      </c>
+      <c r="N166">
+        <v>3.1</v>
+      </c>
+      <c r="O166">
         <v>3.6</v>
       </c>
-      <c r="M166">
-        <v>3.5</v>
-      </c>
-      <c r="N166">
-        <v>1.7</v>
-      </c>
-      <c r="O166">
-        <v>4</v>
-      </c>
       <c r="P166">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R166">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S166">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T166">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U166">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V166">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W166">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X166">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y166">
         <v>-1</v>
       </c>
       <c r="Z166">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA166">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB166">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC166">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="167" spans="1:29">
@@ -15304,7 +15304,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15482,7 +15482,7 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G169" t="s">
         <v>41</v>
@@ -15752,7 +15752,7 @@
         <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -16105,7 +16105,7 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>30</v>
@@ -16197,7 +16197,7 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
         <v>3.75</v>
       </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
       <c r="M180">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O180">
         <v>3.6</v>
       </c>
       <c r="P180">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O181">
         <v>3.6</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16639,7 +16639,7 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -16820,7 +16820,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G186" t="s">
         <v>37</v>
@@ -17072,7 +17072,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17084,58 +17084,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>43</v>
       </c>
       <c r="K187">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L187">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
         <v>4.5</v>
       </c>
       <c r="N187">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q187">
         <v>-1</v>
       </c>
       <c r="R187">
+        <v>1.775</v>
+      </c>
+      <c r="S187">
         <v>2.025</v>
-      </c>
-      <c r="S187">
-        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17144,16 +17144,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,58 +17173,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
         <v>4.5</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
         <v>1.775</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,16 +17233,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,58 +17262,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
         <v>1.8</v>
       </c>
-      <c r="S189">
-        <v>2</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17322,13 +17322,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,59 +17351,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>43</v>
       </c>
       <c r="K190">
+        <v>3.2</v>
+      </c>
+      <c r="L190">
+        <v>3.5</v>
+      </c>
+      <c r="M190">
+        <v>2.1</v>
+      </c>
+      <c r="N190">
+        <v>3.6</v>
+      </c>
+      <c r="O190">
+        <v>3.5</v>
+      </c>
+      <c r="P190">
+        <v>2.05</v>
+      </c>
+      <c r="Q190">
+        <v>0.5</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>1.8</v>
+      </c>
+      <c r="W190">
         <v>2.6</v>
       </c>
-      <c r="L190">
-        <v>3.4</v>
-      </c>
-      <c r="M190">
-        <v>2.5</v>
-      </c>
-      <c r="N190">
-        <v>2.75</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
-      <c r="P190">
-        <v>2.55</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>3</v>
-      </c>
-      <c r="U190">
-        <v>1.975</v>
-      </c>
-      <c r="V190">
-        <v>1.825</v>
-      </c>
-      <c r="W190">
-        <v>1.75</v>
-      </c>
       <c r="X190">
         <v>-1</v>
       </c>
@@ -17411,13 +17411,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.8</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>1</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17529,7 +17529,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
         <v>31</v>
@@ -17707,7 +17707,7 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
         <v>38</v>
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7617831</v>
+        <v>7617770</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,58 +17796,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G195" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H195">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="s">
         <v>43</v>
       </c>
       <c r="K195">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L195">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M195">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N195">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O195">
         <v>3.6</v>
       </c>
       <c r="P195">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q195">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R195">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S195">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U195">
+        <v>2</v>
+      </c>
+      <c r="V195">
         <v>1.8</v>
       </c>
-      <c r="V195">
-        <v>2</v>
-      </c>
       <c r="W195">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17856,16 +17856,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
+        <v>-1</v>
+      </c>
+      <c r="AC195">
         <v>0.8</v>
-      </c>
-      <c r="AC195">
-        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7617770</v>
+        <v>7617831</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,58 +17885,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G196" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
         <v>43</v>
       </c>
       <c r="K196">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L196">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M196">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N196">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O196">
         <v>3.6</v>
       </c>
       <c r="P196">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q196">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R196">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S196">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T196">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U196">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V196">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W196">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17945,16 +17945,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC196">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P198">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
+        <v>0.425</v>
+      </c>
+      <c r="AA198">
         <v>-0.5</v>
       </c>
-      <c r="AA198">
-        <v>0.4</v>
-      </c>
       <c r="AB198">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
+        <v>1.833</v>
+      </c>
+      <c r="N199">
+        <v>5.25</v>
+      </c>
+      <c r="O199">
         <v>4</v>
       </c>
-      <c r="N199">
-        <v>1.7</v>
-      </c>
-      <c r="O199">
-        <v>4.2</v>
-      </c>
       <c r="P199">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z199">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
+        <v>0.4</v>
+      </c>
+      <c r="AB199">
+        <v>0.4125</v>
+      </c>
+      <c r="AC199">
         <v>-0.5</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
-      <c r="AC199">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18333,7 +18333,7 @@
         <v>41</v>
       </c>
       <c r="G201" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7617775</v>
+        <v>7617776</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,46 +18419,46 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K202">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M202">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N202">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="O202">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>1.533</v>
+        <v>2.55</v>
       </c>
       <c r="Q202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S202">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18481,7 +18481,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7617776</v>
+        <v>7617775</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18493,31 +18493,31 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K203">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L203">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M203">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N203">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="O203">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P203">
-        <v>2.55</v>
+        <v>1.533</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R203">
         <v>1.875</v>
@@ -18526,7 +18526,7 @@
         <v>1.925</v>
       </c>
       <c r="T203">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U203">
         <v>1.8</v>
@@ -18594,10 +18594,10 @@
         <v>-0.25</v>
       </c>
       <c r="R204">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S204">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T204">
         <v>2.75</v>
@@ -18742,10 +18742,10 @@
         <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
         <v>3</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -112,10 +112,10 @@
     <t>AC Bellinzona</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
+    <t>Stade LausanneOuchy</t>
   </si>
   <si>
-    <t>Stade LausanneOuchy</t>
+    <t>Neuchatel Xamax</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6028076</v>
+        <v>6028075</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,37 +889,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.375</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.05</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.775</v>
@@ -931,31 +931,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>1.875</v>
       </c>
-      <c r="V5">
-        <v>1.925</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.75</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6028075</v>
+        <v>6028076</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,37 +978,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
         <v>1.775</v>
@@ -1020,31 +1020,31 @@
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y6">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>44967.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5177530</v>
+        <v>5177529</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,55 +1687,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
         <v>2.25</v>
       </c>
-      <c r="N14">
-        <v>2.45</v>
-      </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P14">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1744,19 +1744,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5177529</v>
+        <v>5177530</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,55 +1776,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>3</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1833,19 +1833,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5176500</v>
+        <v>5177531</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,73 +1954,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N17">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P17">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q17">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R17">
+        <v>1.8</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
         <v>1.85</v>
       </c>
-      <c r="S17">
+      <c r="V17">
         <v>1.95</v>
       </c>
-      <c r="T17">
-        <v>3</v>
-      </c>
-      <c r="U17">
-        <v>2</v>
-      </c>
-      <c r="V17">
-        <v>1.8</v>
-      </c>
       <c r="W17">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5177531</v>
+        <v>5177533</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,10 +2043,10 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2058,58 +2058,58 @@
         <v>42</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R18">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
         <v>2.75</v>
       </c>
       <c r="U18">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V18">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5177533</v>
+        <v>5176500</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L19">
         <v>3.75</v>
       </c>
       <c r="M19">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
+        <v>1.65</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>5.25</v>
+      </c>
+      <c r="Q19">
+        <v>-0.75</v>
+      </c>
+      <c r="R19">
         <v>1.85</v>
       </c>
-      <c r="O19">
-        <v>3.6</v>
-      </c>
-      <c r="P19">
-        <v>4.2</v>
-      </c>
-      <c r="Q19">
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.8</v>
+      </c>
+      <c r="W19">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>-1</v>
+      </c>
+      <c r="Z19">
+        <v>0.425</v>
+      </c>
+      <c r="AA19">
         <v>-0.5</v>
       </c>
-      <c r="R19">
-        <v>1.9</v>
-      </c>
-      <c r="S19">
-        <v>1.9</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.8</v>
-      </c>
-      <c r="V19">
-        <v>2</v>
-      </c>
-      <c r="W19">
-        <v>-1</v>
-      </c>
-      <c r="X19">
-        <v>2.6</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>-1</v>
-      </c>
-      <c r="AA19">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5176852</v>
+        <v>5177535</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,19 +2666,19 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K25">
         <v>1.727</v>
@@ -2690,22 +2690,22 @@
         <v>3.8</v>
       </c>
       <c r="N25">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O25">
         <v>3.75</v>
       </c>
       <c r="P25">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q25">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
@@ -2717,25 +2717,25 @@
         <v>2.025</v>
       </c>
       <c r="W25">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X25">
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z25">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC25">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5177535</v>
+        <v>5176852</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,19 +2755,19 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
         <v>0</v>
       </c>
-      <c r="I26">
-        <v>4</v>
-      </c>
       <c r="J26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K26">
         <v>1.727</v>
@@ -2779,22 +2779,22 @@
         <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.909</v>
+        <v>1.75</v>
       </c>
       <c r="O26">
         <v>3.75</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q26">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
         <v>2.75</v>
@@ -2806,25 +2806,25 @@
         <v>2.025</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2933,7 +2933,7 @@
         <v>44988.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5177538</v>
+        <v>5176853</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,55 +3022,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="K29">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N29">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P29">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3079,19 +3079,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB29">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5176853</v>
+        <v>5177538</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,55 +3111,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N30">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O30">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S30">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3168,19 +3168,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3381,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5176503</v>
+        <v>5177541</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K35">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P35">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA35">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB35">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5177541</v>
+        <v>5176503</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N36">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P36">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R36">
+        <v>1.925</v>
+      </c>
+      <c r="S36">
+        <v>1.875</v>
+      </c>
+      <c r="T36">
+        <v>2.75</v>
+      </c>
+      <c r="U36">
         <v>1.8</v>
       </c>
-      <c r="S36">
-        <v>2</v>
-      </c>
-      <c r="T36">
-        <v>3</v>
-      </c>
-      <c r="U36">
-        <v>1.85</v>
-      </c>
       <c r="V36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y36">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z36">
+        <v>-1</v>
+      </c>
+      <c r="AA36">
+        <v>0.875</v>
+      </c>
+      <c r="AB36">
+        <v>0.4</v>
+      </c>
+      <c r="AC36">
         <v>-0.5</v>
-      </c>
-      <c r="AA36">
-        <v>0.5</v>
-      </c>
-      <c r="AB36">
-        <v>-1</v>
-      </c>
-      <c r="AC36">
-        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3912,7 +3912,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4004,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F45" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" t="s">
         <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5177552</v>
+        <v>5177550</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,55 +4802,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49">
+        <v>1.909</v>
+      </c>
+      <c r="L49">
+        <v>3.5</v>
+      </c>
+      <c r="M49">
+        <v>3.6</v>
+      </c>
+      <c r="N49">
         <v>2.2</v>
       </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>2.8</v>
-      </c>
-      <c r="N49">
-        <v>2.625</v>
-      </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P49">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q49">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V49">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4859,19 +4859,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB49">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5177550</v>
+        <v>5177552</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,55 +4891,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N50">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q50">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V50">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4948,19 +4948,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB50">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5069,7 +5069,7 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5428,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -5781,7 +5781,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5959,7 +5959,7 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6051,7 +6051,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6404,10 +6404,10 @@
         <v>45051.5625</v>
       </c>
       <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
         <v>33</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6481,7 +6481,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>5176847</v>
+        <v>5385750</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6493,58 +6493,58 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="L68">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M68">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O68">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R68">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S68">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V68">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W68">
-        <v>0.571</v>
+        <v>2.2</v>
       </c>
       <c r="X68">
         <v>-1</v>
@@ -6553,16 +6553,16 @@
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6570,7 +6570,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>5385750</v>
+        <v>5176847</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6582,58 +6582,58 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M69">
-        <v>2.45</v>
+        <v>3.75</v>
       </c>
       <c r="N69">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P69">
-        <v>2.15</v>
+        <v>5.25</v>
       </c>
       <c r="Q69">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S69">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>2.2</v>
+        <v>0.571</v>
       </c>
       <c r="X69">
         <v>-1</v>
@@ -6642,16 +6642,16 @@
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6941,7 +6941,7 @@
         <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7030,7 +7030,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5461427</v>
+        <v>5461426</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,76 +7294,76 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>3</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="L77">
+        <v>3.4</v>
+      </c>
+      <c r="M77">
+        <v>2.7</v>
+      </c>
+      <c r="N77">
+        <v>3.2</v>
+      </c>
+      <c r="O77">
         <v>3.6</v>
       </c>
-      <c r="M77">
-        <v>3.5</v>
-      </c>
-      <c r="N77">
-        <v>1.75</v>
-      </c>
-      <c r="O77">
-        <v>3.8</v>
-      </c>
       <c r="P77">
-        <v>4.333</v>
+        <v>2.15</v>
       </c>
       <c r="Q77">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R77">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T77">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U77">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V77">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W77">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X77">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB77">
-        <v>0.4</v>
+        <v>0.925</v>
       </c>
       <c r="AC77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5461923</v>
+        <v>5461428</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,58 +7383,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" t="s">
         <v>43</v>
       </c>
       <c r="K78">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L78">
+        <v>3.4</v>
+      </c>
+      <c r="M78">
+        <v>3.4</v>
+      </c>
+      <c r="N78">
+        <v>1.85</v>
+      </c>
+      <c r="O78">
+        <v>3.8</v>
+      </c>
+      <c r="P78">
         <v>4</v>
       </c>
-      <c r="M78">
-        <v>5</v>
-      </c>
-      <c r="N78">
-        <v>1.4</v>
-      </c>
-      <c r="O78">
-        <v>5</v>
-      </c>
-      <c r="P78">
-        <v>7.5</v>
-      </c>
       <c r="Q78">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W78">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7443,16 +7443,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5461428</v>
+        <v>5461923</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,58 +7472,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
+        <v>1.55</v>
+      </c>
+      <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>1.4</v>
+      </c>
+      <c r="O79">
+        <v>5</v>
+      </c>
+      <c r="P79">
+        <v>7.5</v>
+      </c>
+      <c r="Q79">
+        <v>-1.5</v>
+      </c>
+      <c r="R79">
         <v>1.95</v>
       </c>
-      <c r="L79">
-        <v>3.4</v>
-      </c>
-      <c r="M79">
-        <v>3.4</v>
-      </c>
-      <c r="N79">
+      <c r="S79">
         <v>1.85</v>
       </c>
-      <c r="O79">
-        <v>3.8</v>
-      </c>
-      <c r="P79">
-        <v>4</v>
-      </c>
-      <c r="Q79">
-        <v>-0.5</v>
-      </c>
-      <c r="R79">
-        <v>1.875</v>
-      </c>
-      <c r="S79">
-        <v>1.925</v>
-      </c>
       <c r="T79">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W79">
-        <v>0.8500000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7532,16 +7532,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461426</v>
+        <v>5461427</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,76 +7561,76 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H80">
         <v>3</v>
       </c>
       <c r="I80">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="N80">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>2.15</v>
+        <v>4.333</v>
       </c>
       <c r="Q80">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S80">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T80">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X80">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
       <c r="AA80">
+        <v>-1</v>
+      </c>
+      <c r="AB80">
+        <v>0.4</v>
+      </c>
+      <c r="AC80">
         <v>-0.5</v>
-      </c>
-      <c r="AB80">
-        <v>0.925</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7742,7 +7742,7 @@
         <v>29</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5499197</v>
+        <v>5495011</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,13 +7828,13 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -7843,43 +7843,43 @@
         <v>43</v>
       </c>
       <c r="K83">
+        <v>5.5</v>
+      </c>
+      <c r="L83">
+        <v>3.2</v>
+      </c>
+      <c r="M83">
+        <v>1.6</v>
+      </c>
+      <c r="N83">
+        <v>3.6</v>
+      </c>
+      <c r="O83">
+        <v>4</v>
+      </c>
+      <c r="P83">
         <v>1.85</v>
       </c>
-      <c r="L83">
-        <v>3.75</v>
-      </c>
-      <c r="M83">
-        <v>3.4</v>
-      </c>
-      <c r="N83">
-        <v>1.615</v>
-      </c>
-      <c r="O83">
-        <v>4.5</v>
-      </c>
-      <c r="P83">
-        <v>4.5</v>
-      </c>
       <c r="Q83">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R83">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S83">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W83">
-        <v>0.615</v>
+        <v>2.6</v>
       </c>
       <c r="X83">
         <v>-1</v>
@@ -7888,16 +7888,16 @@
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC83">
-        <v>0.8</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5505610</v>
+        <v>5499199</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,10 +7917,10 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -7932,31 +7932,31 @@
         <v>42</v>
       </c>
       <c r="K84">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L84">
         <v>3.6</v>
       </c>
       <c r="M84">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P84">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q84">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R84">
+        <v>1.825</v>
+      </c>
+      <c r="S84">
         <v>1.975</v>
-      </c>
-      <c r="S84">
-        <v>1.825</v>
       </c>
       <c r="T84">
         <v>3.25</v>
@@ -7971,16 +7971,16 @@
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA84">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB84">
         <v>-1</v>
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5499199</v>
+        <v>5499197</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5495011</v>
+        <v>5505610</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>5.5</v>
+        <v>2.15</v>
       </c>
       <c r="L86">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M86">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="N86">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q86">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S86">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V86">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>0.475</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5571704</v>
+        <v>5575190</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,55 +8184,55 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J87" t="s">
         <v>44</v>
       </c>
       <c r="K87">
-        <v>1.444</v>
+        <v>2.2</v>
       </c>
       <c r="L87">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M87">
-        <v>5</v>
+        <v>2.625</v>
       </c>
       <c r="N87">
-        <v>1.615</v>
+        <v>3.75</v>
       </c>
       <c r="O87">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="P87">
-        <v>4.333</v>
+        <v>1.8</v>
       </c>
       <c r="Q87">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T87">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V87">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W87">
         <v>-1</v>
@@ -8241,16 +8241,16 @@
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>3.333</v>
+        <v>0.8</v>
       </c>
       <c r="Z87">
         <v>-1</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB87">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5575190</v>
+        <v>5571704</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,55 +8273,55 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L88">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M88">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N88">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="O88">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P88">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q88">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R88">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T88">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V88">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
         <v>-1</v>
@@ -8330,16 +8330,16 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB88">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8362,7 +8362,7 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5571703</v>
+        <v>5569705</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,76 +8451,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K90">
-        <v>2.4</v>
+        <v>1.571</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M90">
-        <v>2.375</v>
+        <v>4.2</v>
       </c>
       <c r="N90">
-        <v>2.75</v>
+        <v>1.571</v>
       </c>
       <c r="O90">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P90">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="Q90">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T90">
         <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z90">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5569705</v>
+        <v>5571703</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,76 +8540,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K91">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N91">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O91">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P91">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q91">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T91">
         <v>3.25</v>
       </c>
       <c r="U91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y91">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8617,7 +8617,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6811909</v>
+        <v>6811743</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,40 +8629,40 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L92">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M92">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N92">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P92">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R92">
         <v>1.775</v>
@@ -8671,34 +8671,34 @@
         <v>2.025</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U92">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V92">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB92">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8706,7 +8706,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6811743</v>
+        <v>6811909</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,40 +8718,40 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M93">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N93">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O93">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q93">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R93">
         <v>1.775</v>
@@ -8760,34 +8760,34 @@
         <v>2.025</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X93">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA93">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC93">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,10 +8896,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L95">
         <v>3.5</v>
@@ -8920,31 +8920,31 @@
         <v>2.4</v>
       </c>
       <c r="N95">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O95">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8953,19 +8953,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,10 +8985,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>44</v>
       </c>
       <c r="K96">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L96">
         <v>3.5</v>
@@ -9009,31 +9009,31 @@
         <v>2.4</v>
       </c>
       <c r="N96">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V96">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9042,19 +9042,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,46 +9074,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
         <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9128,16 +9128,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,46 +9163,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
         <v>3.75</v>
       </c>
       <c r="P98">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9217,16 +9217,16 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F100" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K100">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L100">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M100">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O100">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S100">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U100">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V100">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W100">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X100">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,76 +9430,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L101">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M101">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O101">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P101">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.9</v>
+      </c>
+      <c r="T101">
+        <v>3</v>
+      </c>
+      <c r="U101">
+        <v>1.975</v>
+      </c>
+      <c r="V101">
         <v>1.825</v>
       </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>2.75</v>
-      </c>
-      <c r="U101">
-        <v>1.85</v>
-      </c>
-      <c r="V101">
-        <v>1.95</v>
-      </c>
       <c r="W101">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X101">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA101">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC101">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103">
+        <v>2.625</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>2.3</v>
+      </c>
+      <c r="N103">
+        <v>2.625</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.6</v>
+      </c>
+      <c r="Q103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103">
-        <v>1.3</v>
-      </c>
-      <c r="L103">
-        <v>5.25</v>
-      </c>
-      <c r="M103">
-        <v>7.5</v>
-      </c>
-      <c r="N103">
-        <v>1.333</v>
-      </c>
-      <c r="O103">
-        <v>5.5</v>
-      </c>
-      <c r="P103">
-        <v>8</v>
-      </c>
-      <c r="Q103">
-        <v>-1.5</v>
-      </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.875</v>
+      </c>
+      <c r="AB103">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,76 +9697,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P104">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K105">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P105">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>1.85</v>
+      </c>
+      <c r="V105">
         <v>1.95</v>
       </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
       <c r="W105">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC105">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,76 +9875,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O106">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U106">
+        <v>1.95</v>
+      </c>
+      <c r="V106">
         <v>1.85</v>
       </c>
-      <c r="V106">
-        <v>1.95</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>38</v>
@@ -10219,7 +10219,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10231,13 +10231,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -10246,40 +10246,40 @@
         <v>44</v>
       </c>
       <c r="K110">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N110">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O110">
         <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q110">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S110">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W110">
         <v>-1</v>
@@ -10288,16 +10288,16 @@
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z110">
         <v>-1</v>
       </c>
       <c r="AA110">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10308,7 +10308,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,13 +10320,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -10335,40 +10335,40 @@
         <v>44</v>
       </c>
       <c r="K111">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M111">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
         <v>3.6</v>
       </c>
       <c r="P111">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T111">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z111">
         <v>-1</v>
       </c>
       <c r="AA111">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L112">
+        <v>3.4</v>
+      </c>
+      <c r="M112">
+        <v>2.1</v>
+      </c>
+      <c r="N112">
         <v>3.6</v>
       </c>
-      <c r="M112">
-        <v>1.65</v>
-      </c>
-      <c r="N112">
-        <v>4.5</v>
-      </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y112">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K113">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N113">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6811429</v>
+        <v>6811919</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6811919</v>
+        <v>6811429</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,76 +10765,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L116">
         <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
         <v>1.925</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="T116">
-        <v>3.25</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6811431</v>
+        <v>6811923</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,76 +11299,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K122">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N122">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
+      </c>
+      <c r="K123">
+        <v>4.5</v>
+      </c>
+      <c r="L123">
         <v>4</v>
       </c>
-      <c r="J123" t="s">
-        <v>44</v>
-      </c>
-      <c r="K123">
-        <v>3.25</v>
-      </c>
-      <c r="L123">
-        <v>3.75</v>
-      </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N123">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11480,7 +11480,7 @@
         <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N129">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB129">
         <v>-0.5</v>
       </c>
-      <c r="AA129">
-        <v>0.4375</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811433</v>
+        <v>6811736</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="O130">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>10</v>
+        <v>2.4</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
         <v>1.95</v>
       </c>
-      <c r="S130">
+      <c r="V130">
         <v>1.85</v>
       </c>
-      <c r="T130">
-        <v>3.25</v>
-      </c>
-      <c r="U130">
-        <v>1.85</v>
-      </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB130">
-        <v>-0.5</v>
-      </c>
-      <c r="AC130">
-        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811736</v>
+        <v>6811927</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L131">
+        <v>3.8</v>
+      </c>
+      <c r="M131">
         <v>3.3</v>
       </c>
-      <c r="M131">
-        <v>2.375</v>
-      </c>
       <c r="N131">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6811929</v>
+        <v>6811735</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,76 +12367,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K134">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L134">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M134">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N134">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O134">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P134">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S134">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T134">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V134">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X134">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA134">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12444,7 +12444,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>6811735</v>
+        <v>6811929</v>
       </c>
       <c r="C135" t="s">
         <v>28</v>
@@ -12456,76 +12456,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>1</v>
       </c>
       <c r="I135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K135">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L135">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="M135">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N135">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O135">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P135">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q135">
         <v>0</v>
       </c>
       <c r="R135">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S135">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T135">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U135">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V135">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W135">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X135">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y135">
         <v>-1</v>
       </c>
       <c r="Z135">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA135">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB135">
         <v>-1</v>
       </c>
       <c r="AC135">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:29">
@@ -12622,7 +12622,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12634,76 +12634,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G137" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K137">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L137">
+        <v>3.6</v>
+      </c>
+      <c r="M137">
         <v>3.9</v>
       </c>
-      <c r="M137">
-        <v>1.8</v>
-      </c>
       <c r="N137">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O137">
         <v>3.8</v>
       </c>
       <c r="P137">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q137">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R137">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S137">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T137">
         <v>3</v>
       </c>
       <c r="U137">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W137">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X137">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y137">
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB137">
         <v>-1</v>
       </c>
       <c r="AC137">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12711,7 +12711,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12723,76 +12723,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>1</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K138">
+        <v>3.5</v>
+      </c>
+      <c r="L138">
+        <v>3.9</v>
+      </c>
+      <c r="M138">
         <v>1.8</v>
       </c>
-      <c r="L138">
-        <v>3.6</v>
-      </c>
-      <c r="M138">
-        <v>3.9</v>
-      </c>
       <c r="N138">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O138">
         <v>3.8</v>
       </c>
       <c r="P138">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q138">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R138">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
         <v>3</v>
       </c>
       <c r="U138">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V138">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W138">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X138">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y138">
         <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
         <v>-1</v>
       </c>
       <c r="AC138">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,61 +13346,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
         <v>42</v>
       </c>
       <c r="K145">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L145">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M145">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N145">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O145">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P145">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>1.8</v>
+      </c>
+      <c r="T145">
+        <v>2.5</v>
+      </c>
+      <c r="U145">
         <v>1.85</v>
       </c>
-      <c r="S145">
+      <c r="V145">
         <v>1.95</v>
       </c>
-      <c r="T145">
-        <v>3.25</v>
-      </c>
-      <c r="U145">
-        <v>1.925</v>
-      </c>
-      <c r="V145">
-        <v>1.875</v>
-      </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13409,13 +13409,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC145">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,61 +13435,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F146" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>42</v>
       </c>
       <c r="K146">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L146">
+        <v>3.25</v>
+      </c>
+      <c r="M146">
+        <v>3.25</v>
+      </c>
+      <c r="N146">
+        <v>2.15</v>
+      </c>
+      <c r="O146">
+        <v>3.6</v>
+      </c>
+      <c r="P146">
         <v>3.2</v>
-      </c>
-      <c r="M146">
-        <v>3.4</v>
-      </c>
-      <c r="N146">
-        <v>2.3</v>
-      </c>
-      <c r="O146">
-        <v>3.4</v>
-      </c>
-      <c r="P146">
-        <v>3</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S146">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T146">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U146">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V146">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13498,13 +13498,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB146">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC146">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,55 +13524,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
         <v>44</v>
       </c>
       <c r="K147">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O147">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13581,19 +13581,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,55 +13613,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>44</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M148">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13670,19 +13670,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,76 +13702,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N150">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q150">
         <v>-0.75</v>
       </c>
       <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.875</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X150">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA150">
+        <v>-0.5</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.95</v>
-      </c>
-      <c r="AB150">
-        <v>-1</v>
-      </c>
-      <c r="AC150">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13969,7 +13969,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,10 +14236,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14251,25 +14251,25 @@
         <v>44</v>
       </c>
       <c r="K155">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L155">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N155">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O155">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P155">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q155">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R155">
         <v>1.975</v>
@@ -14278,7 +14278,7 @@
         <v>1.825</v>
       </c>
       <c r="T155">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U155">
         <v>1.9</v>
@@ -14293,19 +14293,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA155">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB155">
+        <v>0.45</v>
+      </c>
+      <c r="AC155">
         <v>-0.5</v>
-      </c>
-      <c r="AC155">
-        <v>0.45</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14313,7 +14313,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,10 +14325,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14340,25 +14340,25 @@
         <v>44</v>
       </c>
       <c r="K156">
+        <v>1.4</v>
+      </c>
+      <c r="L156">
+        <v>4.5</v>
+      </c>
+      <c r="M156">
+        <v>7</v>
+      </c>
+      <c r="N156">
+        <v>1.533</v>
+      </c>
+      <c r="O156">
         <v>4.75</v>
       </c>
-      <c r="L156">
-        <v>3.8</v>
-      </c>
-      <c r="M156">
-        <v>1.615</v>
-      </c>
-      <c r="N156">
-        <v>6.5</v>
-      </c>
-      <c r="O156">
-        <v>4.333</v>
-      </c>
       <c r="P156">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q156">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R156">
         <v>1.975</v>
@@ -14367,7 +14367,7 @@
         <v>1.825</v>
       </c>
       <c r="T156">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U156">
         <v>1.9</v>
@@ -14382,19 +14382,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB156">
+        <v>-0.5</v>
+      </c>
+      <c r="AC156">
         <v>0.45</v>
-      </c>
-      <c r="AC156">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14595,7 +14595,7 @@
         <v>41</v>
       </c>
       <c r="G159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -14862,7 +14862,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15304,7 +15304,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15752,7 +15752,7 @@
         <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>1</v>
@@ -16105,7 +16105,7 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
         <v>30</v>
@@ -16639,7 +16639,7 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -17072,7 +17072,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17084,58 +17084,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F187" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G187" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I187">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J187" t="s">
         <v>43</v>
       </c>
       <c r="K187">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L187">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M187">
         <v>4.5</v>
       </c>
       <c r="N187">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O187">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P187">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q187">
         <v>-1</v>
       </c>
       <c r="R187">
+        <v>2.025</v>
+      </c>
+      <c r="S187">
         <v>1.775</v>
-      </c>
-      <c r="S187">
-        <v>2.025</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V187">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W187">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17144,16 +17144,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC187">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,58 +17173,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F188" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H188">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L188">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M188">
         <v>4.5</v>
       </c>
       <c r="N188">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O188">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P188">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
+        <v>1.775</v>
+      </c>
+      <c r="S188">
         <v>2.025</v>
-      </c>
-      <c r="S188">
-        <v>1.775</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V188">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W188">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,16 +17233,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC188">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,59 +17262,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F189" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H189">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I189">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
+        <v>3.2</v>
+      </c>
+      <c r="L189">
+        <v>3.5</v>
+      </c>
+      <c r="M189">
+        <v>2.1</v>
+      </c>
+      <c r="N189">
+        <v>3.6</v>
+      </c>
+      <c r="O189">
+        <v>3.5</v>
+      </c>
+      <c r="P189">
+        <v>2.05</v>
+      </c>
+      <c r="Q189">
+        <v>0.5</v>
+      </c>
+      <c r="R189">
+        <v>1.8</v>
+      </c>
+      <c r="S189">
+        <v>2</v>
+      </c>
+      <c r="T189">
+        <v>2.5</v>
+      </c>
+      <c r="U189">
+        <v>2</v>
+      </c>
+      <c r="V189">
+        <v>1.8</v>
+      </c>
+      <c r="W189">
         <v>2.6</v>
       </c>
-      <c r="L189">
-        <v>3.4</v>
-      </c>
-      <c r="M189">
-        <v>2.5</v>
-      </c>
-      <c r="N189">
-        <v>2.75</v>
-      </c>
-      <c r="O189">
-        <v>3.4</v>
-      </c>
-      <c r="P189">
-        <v>2.55</v>
-      </c>
-      <c r="Q189">
-        <v>0</v>
-      </c>
-      <c r="R189">
-        <v>2</v>
-      </c>
-      <c r="S189">
-        <v>1.8</v>
-      </c>
-      <c r="T189">
-        <v>3</v>
-      </c>
-      <c r="U189">
-        <v>1.975</v>
-      </c>
-      <c r="V189">
-        <v>1.825</v>
-      </c>
-      <c r="W189">
-        <v>1.75</v>
-      </c>
       <c r="X189">
         <v>-1</v>
       </c>
@@ -17322,13 +17322,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
+        <v>0.8</v>
+      </c>
+      <c r="AA189">
+        <v>-1</v>
+      </c>
+      <c r="AB189">
         <v>1</v>
-      </c>
-      <c r="AA189">
-        <v>-1</v>
-      </c>
-      <c r="AB189">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,58 +17351,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I190">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J190" t="s">
         <v>43</v>
       </c>
       <c r="K190">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M190">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N190">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O190">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P190">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q190">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R190">
+        <v>2</v>
+      </c>
+      <c r="S190">
         <v>1.8</v>
       </c>
-      <c r="S190">
-        <v>2</v>
-      </c>
       <c r="T190">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W190">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X190">
         <v>-1</v>
@@ -17411,13 +17411,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA190">
         <v>-1</v>
       </c>
       <c r="AB190">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17529,7 +17529,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>31</v>
@@ -17977,7 +17977,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L198">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
+        <v>1.833</v>
+      </c>
+      <c r="N198">
+        <v>5.25</v>
+      </c>
+      <c r="O198">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>1.7</v>
-      </c>
-      <c r="O198">
-        <v>4.2</v>
-      </c>
       <c r="P198">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z198">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
+        <v>0.4</v>
+      </c>
+      <c r="AB198">
+        <v>0.4125</v>
+      </c>
+      <c r="AC198">
         <v>-0.5</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M199">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P199">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
+        <v>0.425</v>
+      </c>
+      <c r="AA199">
         <v>-0.5</v>
       </c>
-      <c r="AA199">
-        <v>0.4</v>
-      </c>
       <c r="AB199">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18229,7 +18229,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7617774</v>
+        <v>7617832</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18241,40 +18241,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F200" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H200">
         <v>0</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J200" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K200">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L200">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N200">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P200">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q200">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R200">
         <v>1.775</v>
@@ -18283,34 +18283,34 @@
         <v>2.025</v>
       </c>
       <c r="T200">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB200">
         <v>-1</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18318,7 +18318,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7617832</v>
+        <v>7617774</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18330,40 +18330,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F201" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G201" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H201">
         <v>0</v>
       </c>
       <c r="I201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K201">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M201">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N201">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O201">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P201">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q201">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R201">
         <v>1.775</v>
@@ -18372,34 +18372,34 @@
         <v>2.025</v>
       </c>
       <c r="T201">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U201">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA201">
+        <v>-0</v>
+      </c>
+      <c r="AB201">
+        <v>-1</v>
+      </c>
+      <c r="AC201">
         <v>1.025</v>
-      </c>
-      <c r="AB201">
-        <v>-1</v>
-      </c>
-      <c r="AC201">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18419,7 +18419,7 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
         <v>38</v>
@@ -18434,7 +18434,7 @@
         <v>2.5</v>
       </c>
       <c r="N202">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O202">
         <v>3.5</v>
@@ -18452,13 +18452,13 @@
         <v>1.9</v>
       </c>
       <c r="T202">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V202">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
         <v>0</v>
@@ -18508,31 +18508,31 @@
         <v>1.533</v>
       </c>
       <c r="N203">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="O203">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P203">
-        <v>1.533</v>
+        <v>1.615</v>
       </c>
       <c r="Q203">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R203">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S203">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
+        <v>2</v>
+      </c>
+      <c r="V203">
         <v>1.8</v>
-      </c>
-      <c r="V203">
-        <v>2</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18582,31 +18582,31 @@
         <v>3.25</v>
       </c>
       <c r="N204">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="O204">
         <v>3.6</v>
       </c>
       <c r="P204">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R204">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S204">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T204">
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V204">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18656,13 +18656,13 @@
         <v>2.75</v>
       </c>
       <c r="N205">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="O205">
         <v>3.4</v>
       </c>
       <c r="P205">
-        <v>2.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q205">
         <v>-0.25</v>
@@ -18677,10 +18677,10 @@
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V205">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18730,22 +18730,22 @@
         <v>2.05</v>
       </c>
       <c r="N206">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P206">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Q206">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R206">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S206">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T206">
         <v>3</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>AC Bellinzona</t>
   </si>
   <si>
-    <t>Stade LausanneOuchy</t>
+    <t>Neuchatel Xamax</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
+    <t>Stade LausanneOuchy</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6028075</v>
+        <v>6028076</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,37 +889,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M5">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N5">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
         <v>1.775</v>
@@ -931,31 +931,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y5">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6028076</v>
+        <v>6028075</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,37 +978,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L6">
+        <v>3.5</v>
+      </c>
+      <c r="M6">
+        <v>2.5</v>
+      </c>
+      <c r="N6">
+        <v>2.375</v>
+      </c>
+      <c r="O6">
         <v>3.6</v>
       </c>
-      <c r="M6">
-        <v>3.1</v>
-      </c>
-      <c r="N6">
-        <v>2.05</v>
-      </c>
-      <c r="O6">
-        <v>3.75</v>
-      </c>
       <c r="P6">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>1.775</v>
@@ -1020,31 +1020,31 @@
         <v>2.75</v>
       </c>
       <c r="U6">
+        <v>1.8</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
         <v>1.875</v>
       </c>
-      <c r="V6">
-        <v>1.925</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.75</v>
-      </c>
-      <c r="Y6">
-        <v>-1</v>
-      </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>44967.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5177529</v>
+        <v>5177530</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,55 +1687,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>3</v>
-      </c>
-      <c r="I14">
-        <v>4</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P14">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T14">
         <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1744,19 +1744,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB14">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5177530</v>
+        <v>5177529</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,55 +1776,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
+        <v>3.25</v>
+      </c>
+      <c r="N15">
         <v>2.25</v>
       </c>
-      <c r="N15">
-        <v>2.45</v>
-      </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1833,19 +1833,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1942,7 +1942,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5177531</v>
+        <v>5177533</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,10 +1954,10 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1969,58 +1969,58 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R17">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB17">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC17">
         <v>-1</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5177533</v>
+        <v>5176500</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,73 +2043,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="L18">
         <v>3.75</v>
       </c>
       <c r="M18">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="N18">
+        <v>1.65</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18">
+        <v>5.25</v>
+      </c>
+      <c r="Q18">
+        <v>-0.75</v>
+      </c>
+      <c r="R18">
         <v>1.85</v>
       </c>
-      <c r="O18">
-        <v>3.6</v>
-      </c>
-      <c r="P18">
-        <v>4.2</v>
-      </c>
-      <c r="Q18">
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
+        <v>1.8</v>
+      </c>
+      <c r="W18">
+        <v>0.6499999999999999</v>
+      </c>
+      <c r="X18">
+        <v>-1</v>
+      </c>
+      <c r="Y18">
+        <v>-1</v>
+      </c>
+      <c r="Z18">
+        <v>0.425</v>
+      </c>
+      <c r="AA18">
         <v>-0.5</v>
       </c>
-      <c r="R18">
-        <v>1.9</v>
-      </c>
-      <c r="S18">
-        <v>1.9</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.8</v>
-      </c>
-      <c r="V18">
-        <v>2</v>
-      </c>
-      <c r="W18">
-        <v>-1</v>
-      </c>
-      <c r="X18">
-        <v>2.6</v>
-      </c>
-      <c r="Y18">
-        <v>-1</v>
-      </c>
-      <c r="Z18">
-        <v>-1</v>
-      </c>
-      <c r="AA18">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB18">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5176500</v>
+        <v>5177531</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
+        <v>1.8</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
         <v>1.85</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>1.8</v>
-      </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2580,7 +2580,7 @@
         <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -2666,7 +2666,7 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G25" t="s">
         <v>34</v>
@@ -2933,7 +2933,7 @@
         <v>44988.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3025,7 +3025,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3381,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3645,7 +3645,7 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G36" t="s">
         <v>35</v>
@@ -3912,7 +3912,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4004,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5176504</v>
+        <v>5177549</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,76 +4446,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M45">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O45">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S45">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5177549</v>
+        <v>5176504</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L46">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N46">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O46">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P46">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V46">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W46">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4716,7 +4716,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4802,7 +4802,7 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
         <v>30</v>
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5176506</v>
+        <v>5177555</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O52">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P52">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q52">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC52">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5177555</v>
+        <v>5176506</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,55 +5158,55 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
       <c r="K53">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L53">
         <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N53">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P53">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q53">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S53">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
         <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5215,19 +5215,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5695,7 +5695,7 @@
         <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H59">
         <v>5</v>
@@ -5781,7 +5781,7 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
         <v>38</v>
@@ -5959,7 +5959,7 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6051,7 +6051,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6404,10 +6404,10 @@
         <v>45051.5625</v>
       </c>
       <c r="F67" t="s">
+        <v>33</v>
+      </c>
+      <c r="G67" t="s">
         <v>32</v>
-      </c>
-      <c r="G67" t="s">
-        <v>33</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6837,7 +6837,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5420246</v>
+        <v>5420248</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,73 +6849,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K72">
-        <v>3.8</v>
+        <v>2.55</v>
       </c>
       <c r="L72">
         <v>3.6</v>
       </c>
       <c r="M72">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="N72">
+        <v>5.75</v>
+      </c>
+      <c r="O72">
         <v>4.333</v>
       </c>
-      <c r="O72">
-        <v>3.75</v>
-      </c>
       <c r="P72">
-        <v>1.833</v>
+        <v>1.55</v>
       </c>
       <c r="Q72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="R72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z72">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB72">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6926,7 +6926,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>5420248</v>
+        <v>5420246</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,73 +6938,73 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>2.55</v>
+        <v>3.8</v>
       </c>
       <c r="L73">
         <v>3.6</v>
       </c>
       <c r="M73">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="N73">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O73">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>1.55</v>
+        <v>1.833</v>
       </c>
       <c r="Q73">
+        <v>0.5</v>
+      </c>
+      <c r="R73">
+        <v>2</v>
+      </c>
+      <c r="S73">
+        <v>1.8</v>
+      </c>
+      <c r="T73">
+        <v>2.75</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>1.8</v>
+      </c>
+      <c r="W73">
+        <v>3.333</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>1</v>
       </c>
-      <c r="R73">
-        <v>1.95</v>
-      </c>
-      <c r="S73">
-        <v>1.85</v>
-      </c>
-      <c r="T73">
-        <v>3</v>
-      </c>
-      <c r="U73">
-        <v>1.875</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
-      <c r="W73">
-        <v>-1</v>
-      </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>0.55</v>
-      </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7030,7 +7030,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5461428</v>
+        <v>5461427</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7386,46 +7386,46 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
         <v>43</v>
       </c>
       <c r="K78">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N78">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O78">
         <v>3.8</v>
       </c>
       <c r="P78">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S78">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T78">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
         <v>1.8</v>
@@ -7434,7 +7434,7 @@
         <v>2</v>
       </c>
       <c r="W78">
-        <v>0.8500000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7443,16 +7443,16 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="AA78">
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AC78">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5461923</v>
+        <v>5461428</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,58 +7472,58 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L79">
+        <v>3.4</v>
+      </c>
+      <c r="M79">
+        <v>3.4</v>
+      </c>
+      <c r="N79">
+        <v>1.85</v>
+      </c>
+      <c r="O79">
+        <v>3.8</v>
+      </c>
+      <c r="P79">
         <v>4</v>
       </c>
-      <c r="M79">
-        <v>5</v>
-      </c>
-      <c r="N79">
-        <v>1.4</v>
-      </c>
-      <c r="O79">
-        <v>5</v>
-      </c>
-      <c r="P79">
-        <v>7.5</v>
-      </c>
       <c r="Q79">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.3999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7532,16 +7532,16 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461427</v>
+        <v>5461923</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,13 +7561,13 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7576,25 +7576,25 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M80">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N80">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O80">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P80">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R80">
         <v>1.95</v>
@@ -7603,16 +7603,16 @@
         <v>1.85</v>
       </c>
       <c r="T80">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U80">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W80">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7627,10 +7627,10 @@
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC80">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5499198</v>
+        <v>5499197</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,46 +7739,46 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K82">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L82">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M82">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>3.5</v>
+        <v>1.615</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="P82">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="Q82">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R82">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
         <v>3.25</v>
@@ -7790,25 +7790,25 @@
         <v>1.8</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5495011</v>
+        <v>5499198</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,76 +7828,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H83">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K83">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="L83">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M83">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N83">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O83">
         <v>4</v>
       </c>
       <c r="P83">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q83">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R83">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S83">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V83">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W83">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X83">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA83">
         <v>-1</v>
       </c>
       <c r="AB83">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC83">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5499199</v>
+        <v>5495011</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="L84">
+        <v>3.2</v>
+      </c>
+      <c r="M84">
+        <v>1.6</v>
+      </c>
+      <c r="N84">
         <v>3.6</v>
       </c>
-      <c r="M84">
-        <v>2.55</v>
-      </c>
-      <c r="N84">
-        <v>2.9</v>
-      </c>
       <c r="O84">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R84">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S84">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X84">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.4125</v>
+        <v>0.8</v>
       </c>
       <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
         <v>-0.5</v>
       </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
       <c r="AC84">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5499197</v>
+        <v>5499199</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K85">
-        <v>1.85</v>
+        <v>2.3</v>
       </c>
       <c r="L85">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M85">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
-        <v>1.615</v>
+        <v>2.9</v>
       </c>
       <c r="O85">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P85">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q85">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V85">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W85">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8098,7 +8098,7 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5575190</v>
+        <v>5569704</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8187,70 +8187,70 @@
         <v>33</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I87">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K87">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="L87">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M87">
-        <v>2.625</v>
+        <v>7</v>
       </c>
       <c r="N87">
-        <v>3.75</v>
+        <v>1.166</v>
       </c>
       <c r="O87">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="P87">
+        <v>15</v>
+      </c>
+      <c r="Q87">
+        <v>-2.25</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
         <v>1.8</v>
-      </c>
-      <c r="Q87">
-        <v>0.75</v>
-      </c>
-      <c r="R87">
-        <v>1.8</v>
-      </c>
-      <c r="S87">
-        <v>2</v>
       </c>
       <c r="T87">
         <v>3.5</v>
       </c>
       <c r="U87">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V87">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W87">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5571704</v>
+        <v>5569705</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,49 +8273,49 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>44</v>
       </c>
       <c r="K88">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L88">
+        <v>4.2</v>
+      </c>
+      <c r="M88">
+        <v>4.2</v>
+      </c>
+      <c r="N88">
+        <v>1.571</v>
+      </c>
+      <c r="O88">
         <v>4.5</v>
       </c>
-      <c r="M88">
+      <c r="P88">
         <v>5</v>
       </c>
-      <c r="N88">
-        <v>1.615</v>
-      </c>
-      <c r="O88">
-        <v>4.75</v>
-      </c>
-      <c r="P88">
-        <v>4.333</v>
-      </c>
       <c r="Q88">
         <v>-1</v>
       </c>
       <c r="R88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U88">
         <v>1.975</v>
@@ -8330,19 +8330,19 @@
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z88">
         <v>-1</v>
       </c>
       <c r="AA88">
+        <v>0.875</v>
+      </c>
+      <c r="AB88">
+        <v>-1</v>
+      </c>
+      <c r="AC88">
         <v>0.825</v>
-      </c>
-      <c r="AB88">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC88">
-        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5569704</v>
+        <v>5571703</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,73 +8362,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>1.285</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M89">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="N89">
-        <v>1.166</v>
+        <v>2.75</v>
       </c>
       <c r="O89">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>15</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S89">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W89">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5569705</v>
+        <v>5575190</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,56 +8451,56 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L90">
+        <v>3.6</v>
+      </c>
+      <c r="M90">
+        <v>2.625</v>
+      </c>
+      <c r="N90">
+        <v>3.75</v>
+      </c>
+      <c r="O90">
         <v>4.2</v>
       </c>
-      <c r="M90">
-        <v>4.2</v>
-      </c>
-      <c r="N90">
-        <v>1.571</v>
-      </c>
-      <c r="O90">
-        <v>4.5</v>
-      </c>
       <c r="P90">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
+        <v>1.8</v>
+      </c>
+      <c r="S90">
+        <v>2</v>
+      </c>
+      <c r="T90">
+        <v>3.5</v>
+      </c>
+      <c r="U90">
         <v>1.925</v>
       </c>
-      <c r="S90">
+      <c r="V90">
         <v>1.875</v>
       </c>
-      <c r="T90">
-        <v>3.25</v>
-      </c>
-      <c r="U90">
-        <v>1.975</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
         <v>-1</v>
       </c>
@@ -8508,19 +8508,19 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5571703</v>
+        <v>5571704</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,73 +8540,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>2</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K91">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>2.375</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="O91">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P91">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="U91">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V91">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z91">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8718,7 +8718,7 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,46 +9074,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K97">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L97">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M97">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N97">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O97">
         <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q97">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9128,16 +9128,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z97">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,46 +9163,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M98">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N98">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O98">
         <v>3.75</v>
       </c>
       <c r="P98">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S98">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9217,16 +9217,16 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L103">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M103">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N103">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P103">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q103">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,76 +9697,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104" t="s">
+        <v>44</v>
+      </c>
+      <c r="K104">
+        <v>2.625</v>
+      </c>
+      <c r="L104">
+        <v>3.6</v>
+      </c>
+      <c r="M104">
+        <v>2.3</v>
+      </c>
+      <c r="N104">
+        <v>2.625</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>2.6</v>
+      </c>
+      <c r="Q104">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K104">
-        <v>1.3</v>
-      </c>
-      <c r="L104">
-        <v>5.25</v>
-      </c>
-      <c r="M104">
-        <v>7.5</v>
-      </c>
-      <c r="N104">
-        <v>1.333</v>
-      </c>
-      <c r="O104">
-        <v>5.5</v>
-      </c>
-      <c r="P104">
-        <v>8</v>
-      </c>
-      <c r="Q104">
-        <v>-1.5</v>
-      </c>
       <c r="R104">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V104">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
+        <v>0.875</v>
+      </c>
+      <c r="AB104">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
         <v>38</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K112">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>2.1</v>
+      </c>
+      <c r="N113">
         <v>3.6</v>
       </c>
-      <c r="M113">
-        <v>1.65</v>
-      </c>
-      <c r="N113">
-        <v>4.5</v>
-      </c>
       <c r="O113">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y113">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6811919</v>
+        <v>6811429</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K115">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N115">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q115">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R115">
+        <v>2</v>
+      </c>
+      <c r="S115">
+        <v>1.8</v>
+      </c>
+      <c r="T115">
+        <v>3</v>
+      </c>
+      <c r="U115">
         <v>1.925</v>
       </c>
-      <c r="S115">
+      <c r="V115">
         <v>1.875</v>
       </c>
-      <c r="T115">
-        <v>3.25</v>
-      </c>
-      <c r="U115">
-        <v>1.975</v>
-      </c>
-      <c r="V115">
-        <v>1.825</v>
-      </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6811429</v>
+        <v>6811919</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,76 +10765,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L116">
         <v>3.6</v>
       </c>
       <c r="M116">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O116">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q116">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y116">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC116">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6811430</v>
+        <v>6811738</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,40 +10943,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L118">
+        <v>3.5</v>
+      </c>
+      <c r="M118">
+        <v>4</v>
+      </c>
+      <c r="N118">
+        <v>1.55</v>
+      </c>
+      <c r="O118">
         <v>4.5</v>
       </c>
-      <c r="M118">
-        <v>8</v>
-      </c>
-      <c r="N118">
-        <v>1.222</v>
-      </c>
-      <c r="O118">
-        <v>6</v>
-      </c>
       <c r="P118">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="Q118">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R118">
         <v>1.825</v>
@@ -10985,22 +10985,22 @@
         <v>1.975</v>
       </c>
       <c r="T118">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z118">
         <v>-1</v>
@@ -11012,7 +11012,7 @@
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6811738</v>
+        <v>6811430</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,40 +11032,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L119">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M119">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N119">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O119">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P119">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q119">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R119">
         <v>1.825</v>
@@ -11074,22 +11074,22 @@
         <v>1.975</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y119">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
         <v>-1</v>
@@ -11101,7 +11101,7 @@
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,76 +11299,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>42</v>
+      </c>
+      <c r="K122">
+        <v>4.5</v>
+      </c>
+      <c r="L122">
         <v>4</v>
       </c>
-      <c r="J122" t="s">
-        <v>44</v>
-      </c>
-      <c r="K122">
-        <v>3.25</v>
-      </c>
-      <c r="L122">
-        <v>3.75</v>
-      </c>
       <c r="M122">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N122">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O122">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P122">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q122">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T122">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y122">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA122">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811431</v>
+        <v>6811924</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,46 +11388,46 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K123">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N123">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O123">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P123">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R123">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S123">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T123">
         <v>2.75</v>
@@ -11439,16 +11439,16 @@
         <v>1.975</v>
       </c>
       <c r="W123">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X123">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y123">
         <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA123">
         <v>-1</v>
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6811924</v>
+        <v>6811923</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
+        <v>1.909</v>
+      </c>
+      <c r="N124">
         <v>2.9</v>
       </c>
-      <c r="N124">
-        <v>2.375</v>
-      </c>
       <c r="O124">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P124">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q124">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R124">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V124">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W124">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z124">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC124">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811433</v>
+        <v>6811927</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M129">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N129">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O129">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P129">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q129">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R129">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y129">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA129">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811736</v>
+        <v>6811433</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K130">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N130">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P130">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="Q130">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="V130">
-        <v>1.85</v>
-      </c>
       <c r="W130">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC130">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811927</v>
+        <v>6811736</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L131">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O131">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
+        <v>3</v>
+      </c>
+      <c r="U131">
+        <v>1.95</v>
+      </c>
+      <c r="V131">
+        <v>1.85</v>
+      </c>
+      <c r="W131">
         <v>1.875</v>
       </c>
-      <c r="T131">
-        <v>2.75</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.875</v>
-      </c>
-      <c r="W131">
-        <v>-1</v>
-      </c>
       <c r="X131">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12355,7 +12355,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12367,76 +12367,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H134">
         <v>1</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K134">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L134">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N134">
         <v>2.7</v>
       </c>
       <c r="O134">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P134">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q134">
         <v>0</v>
       </c>
       <c r="R134">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S134">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T134">
         <v>2.75</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V134">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W134">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA134">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12533,7 +12533,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12545,76 +12545,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F136" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L136">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M136">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N136">
         <v>2.7</v>
       </c>
       <c r="O136">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P136">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q136">
         <v>0</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T136">
         <v>2.75</v>
       </c>
       <c r="U136">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X136">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y136">
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA136">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB136">
         <v>-1</v>
       </c>
       <c r="AC136">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12904,7 +12904,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13334,7 +13334,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13346,61 +13346,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F145" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G145" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>42</v>
       </c>
       <c r="K145">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L145">
+        <v>3.25</v>
+      </c>
+      <c r="M145">
+        <v>3.25</v>
+      </c>
+      <c r="N145">
+        <v>2.15</v>
+      </c>
+      <c r="O145">
+        <v>3.6</v>
+      </c>
+      <c r="P145">
         <v>3.2</v>
-      </c>
-      <c r="M145">
-        <v>3.4</v>
-      </c>
-      <c r="N145">
-        <v>2.3</v>
-      </c>
-      <c r="O145">
-        <v>3.4</v>
-      </c>
-      <c r="P145">
-        <v>3</v>
       </c>
       <c r="Q145">
         <v>-0.25</v>
       </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S145">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T145">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U145">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
         <v>-1</v>
       </c>
       <c r="X145">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y145">
         <v>-1</v>
@@ -13409,13 +13409,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA145">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -13423,7 +13423,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -13435,61 +13435,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J146" t="s">
         <v>42</v>
       </c>
       <c r="K146">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L146">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M146">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N146">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O146">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P146">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q146">
         <v>-0.25</v>
       </c>
       <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>1.8</v>
+      </c>
+      <c r="T146">
+        <v>2.5</v>
+      </c>
+      <c r="U146">
         <v>1.85</v>
       </c>
-      <c r="S146">
+      <c r="V146">
         <v>1.95</v>
       </c>
-      <c r="T146">
-        <v>3.25</v>
-      </c>
-      <c r="U146">
-        <v>1.925</v>
-      </c>
-      <c r="V146">
-        <v>1.875</v>
-      </c>
       <c r="W146">
         <v>-1</v>
       </c>
       <c r="X146">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y146">
         <v>-1</v>
@@ -13498,13 +13498,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA146">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB146">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC146">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="147" spans="1:29">
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,55 +13524,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J147" t="s">
         <v>44</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M147">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N147">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O147">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P147">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R147">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U147">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13581,19 +13581,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,55 +13613,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G148" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
         <v>44</v>
       </c>
       <c r="K148">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L148">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M148">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N148">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O148">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q148">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V148">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13670,19 +13670,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,76 +13702,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K149">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M149">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N149">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O149">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
       </c>
       <c r="R149">
+        <v>1.925</v>
+      </c>
+      <c r="S149">
+        <v>1.875</v>
+      </c>
+      <c r="T149">
+        <v>2.75</v>
+      </c>
+      <c r="U149">
         <v>1.85</v>
       </c>
-      <c r="S149">
+      <c r="V149">
         <v>1.95</v>
       </c>
-      <c r="T149">
-        <v>3</v>
-      </c>
-      <c r="U149">
-        <v>1.825</v>
-      </c>
-      <c r="V149">
-        <v>1.975</v>
-      </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X149">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA149">
+        <v>-0.5</v>
+      </c>
+      <c r="AB149">
+        <v>-1</v>
+      </c>
+      <c r="AC149">
         <v>0.95</v>
-      </c>
-      <c r="AB149">
-        <v>-1</v>
-      </c>
-      <c r="AC149">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K150">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L150">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M150">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N150">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O150">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P150">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q150">
         <v>-0.75</v>
       </c>
       <c r="R150">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T150">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U150">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W150">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811939</v>
+        <v>6811731</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G152" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J152" t="s">
         <v>42</v>
       </c>
       <c r="K152">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L152">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M152">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N152">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O152">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P152">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q152">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R152">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S152">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V152">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA152">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB152">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811731</v>
+        <v>6811939</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,76 +14058,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>42</v>
       </c>
       <c r="K153">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L153">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N153">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O153">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P153">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q153">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R153">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S153">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V153">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC153">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14224,7 +14224,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14236,10 +14236,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F155" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14251,25 +14251,25 @@
         <v>44</v>
       </c>
       <c r="K155">
+        <v>1.4</v>
+      </c>
+      <c r="L155">
+        <v>4.5</v>
+      </c>
+      <c r="M155">
+        <v>7</v>
+      </c>
+      <c r="N155">
+        <v>1.533</v>
+      </c>
+      <c r="O155">
         <v>4.75</v>
       </c>
-      <c r="L155">
-        <v>3.8</v>
-      </c>
-      <c r="M155">
-        <v>1.615</v>
-      </c>
-      <c r="N155">
-        <v>6.5</v>
-      </c>
-      <c r="O155">
-        <v>4.333</v>
-      </c>
       <c r="P155">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q155">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R155">
         <v>1.975</v>
@@ -14278,7 +14278,7 @@
         <v>1.825</v>
       </c>
       <c r="T155">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U155">
         <v>1.9</v>
@@ -14293,19 +14293,19 @@
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z155">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB155">
+        <v>-0.5</v>
+      </c>
+      <c r="AC155">
         <v>0.45</v>
-      </c>
-      <c r="AC155">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14313,7 +14313,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,10 +14325,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F156" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H156">
         <v>1</v>
@@ -14340,25 +14340,25 @@
         <v>44</v>
       </c>
       <c r="K156">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L156">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N156">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O156">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P156">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q156">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R156">
         <v>1.975</v>
@@ -14367,7 +14367,7 @@
         <v>1.825</v>
       </c>
       <c r="T156">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U156">
         <v>1.9</v>
@@ -14382,19 +14382,19 @@
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA156">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB156">
+        <v>0.45</v>
+      </c>
+      <c r="AC156">
         <v>-0.5</v>
-      </c>
-      <c r="AC156">
-        <v>0.45</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14491,7 +14491,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6811443</v>
+        <v>6811442</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14503,73 +14503,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J158" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K158">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L158">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M158">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N158">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O158">
         <v>4.333</v>
       </c>
       <c r="P158">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q158">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R158">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S158">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T158">
         <v>3</v>
       </c>
       <c r="U158">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V158">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W158">
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z158">
         <v>-1</v>
       </c>
       <c r="AA158">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB158">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC158">
         <v>-1</v>
@@ -14580,7 +14580,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6811442</v>
+        <v>6811443</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14592,73 +14592,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I159">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K159">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M159">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N159">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O159">
         <v>4.333</v>
       </c>
       <c r="P159">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q159">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R159">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T159">
         <v>3</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V159">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y159">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z159">
         <v>-1</v>
       </c>
       <c r="AA159">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC159">
         <v>-1</v>
@@ -14862,7 +14862,7 @@
         <v>34</v>
       </c>
       <c r="G162" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H162">
         <v>2</v>
@@ -15304,7 +15304,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6811727</v>
+        <v>6811447</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,13 +15393,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15408,43 +15408,43 @@
         <v>43</v>
       </c>
       <c r="K168">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L168">
         <v>3.6</v>
       </c>
       <c r="M168">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N168">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O168">
         <v>3.8</v>
       </c>
       <c r="P168">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q168">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R168">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S168">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W168">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15453,7 +15453,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6811447</v>
+        <v>6811727</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,13 +15482,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G169" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15497,43 +15497,43 @@
         <v>43</v>
       </c>
       <c r="K169">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L169">
         <v>3.6</v>
       </c>
       <c r="M169">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N169">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O169">
         <v>3.8</v>
       </c>
       <c r="P169">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q169">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R169">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S169">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T169">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U169">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V169">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W169">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15542,7 +15542,7 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15551,7 +15551,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F171" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G171" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K171">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L171">
         <v>3.5</v>
       </c>
       <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3.4</v>
+      </c>
+      <c r="O171">
         <v>3.3</v>
       </c>
-      <c r="N171">
+      <c r="P171">
+        <v>2.15</v>
+      </c>
+      <c r="Q171">
+        <v>0.25</v>
+      </c>
+      <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
         <v>1.85</v>
       </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>4</v>
-      </c>
-      <c r="Q171">
-        <v>-0.5</v>
-      </c>
-      <c r="R171">
-        <v>1.9</v>
-      </c>
-      <c r="S171">
-        <v>1.9</v>
-      </c>
       <c r="T171">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U171">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V171">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X171">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA171">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,76 +15749,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G172" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J172" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K172">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N172">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O172">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P172">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q172">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R172">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S172">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T172">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U172">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V172">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W172">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X172">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA172">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16105,7 +16105,7 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F176" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>30</v>
@@ -16639,7 +16639,7 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -17354,7 +17354,7 @@
         <v>29</v>
       </c>
       <c r="G190" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H190">
         <v>5</v>
@@ -17529,7 +17529,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G192" t="s">
         <v>31</v>
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,49 +17618,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L193">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N193">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O193">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
         <v>1.9</v>
@@ -17669,25 +17669,25 @@
         <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,49 +17707,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M194">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N194">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P194">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q194">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
         <v>1.9</v>
@@ -17758,25 +17758,25 @@
         <v>1.9</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X194">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P198">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
+        <v>0.425</v>
+      </c>
+      <c r="AA198">
         <v>-0.5</v>
       </c>
-      <c r="AA198">
-        <v>0.4</v>
-      </c>
       <c r="AB198">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
+        <v>1.833</v>
+      </c>
+      <c r="N199">
+        <v>5.25</v>
+      </c>
+      <c r="O199">
         <v>4</v>
       </c>
-      <c r="N199">
-        <v>1.7</v>
-      </c>
-      <c r="O199">
-        <v>4.2</v>
-      </c>
       <c r="P199">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z199">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
+        <v>0.4</v>
+      </c>
+      <c r="AB199">
+        <v>0.4125</v>
+      </c>
+      <c r="AC199">
         <v>-0.5</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
-      <c r="AC199">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7617776</v>
+        <v>7617775</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,61 +18419,76 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>4</v>
+      </c>
+      <c r="J202" t="s">
+        <v>44</v>
       </c>
       <c r="K202">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="L202">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M202">
-        <v>2.5</v>
+        <v>1.533</v>
       </c>
       <c r="N202">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="O202">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P202">
-        <v>2.55</v>
+        <v>1.615</v>
       </c>
       <c r="Q202">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R202">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S202">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T202">
         <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V202">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>0.615</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB202">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC202">
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18481,7 +18496,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7617775</v>
+        <v>7617776</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18493,40 +18508,49 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F203" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="H203">
+        <v>4</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+      <c r="J203" t="s">
+        <v>43</v>
       </c>
       <c r="K203">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M203">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N203">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q203">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R203">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S203">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T203">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U203">
         <v>2</v>
@@ -18535,19 +18559,25 @@
         <v>1.8</v>
       </c>
       <c r="W203">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y203">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z203">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA203">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB203">
+        <v>1</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18572,6 +18602,15 @@
       <c r="G204" t="s">
         <v>30</v>
       </c>
+      <c r="H204">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>1</v>
+      </c>
+      <c r="J204" t="s">
+        <v>42</v>
+      </c>
       <c r="K204">
         <v>2</v>
       </c>
@@ -18582,22 +18621,22 @@
         <v>3.25</v>
       </c>
       <c r="N204">
-        <v>2.6</v>
+        <v>2.375</v>
       </c>
       <c r="O204">
         <v>3.6</v>
       </c>
       <c r="P204">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="Q204">
         <v>0</v>
       </c>
       <c r="R204">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="S204">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T204">
         <v>2.75</v>
@@ -18609,19 +18648,25 @@
         <v>1.9</v>
       </c>
       <c r="W204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X204">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y204">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z204">
         <v>0</v>
       </c>
       <c r="AA204">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="205" spans="1:29">
@@ -18662,16 +18707,16 @@
         <v>3.4</v>
       </c>
       <c r="P205">
-        <v>2.875</v>
+        <v>2.8</v>
       </c>
       <c r="Q205">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R205">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S205">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="T205">
         <v>2.75</v>
@@ -18730,22 +18775,22 @@
         <v>2.05</v>
       </c>
       <c r="N206">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="O206">
         <v>4</v>
       </c>
       <c r="P206">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="Q206">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R206">
+        <v>1.975</v>
+      </c>
+      <c r="S206">
         <v>1.825</v>
-      </c>
-      <c r="S206">
-        <v>1.975</v>
       </c>
       <c r="T206">
         <v>3</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -1675,7 +1675,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5177530</v>
+        <v>5477714</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1687,55 +1687,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="L14">
         <v>3.4</v>
       </c>
       <c r="M14">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="N14">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="O14">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W14">
         <v>-1</v>
@@ -1744,19 +1744,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.875</v>
+        <v>2.3</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB14">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5177529</v>
+        <v>5177530</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,55 +1776,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>3</v>
-      </c>
-      <c r="I15">
-        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S15">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1833,19 +1833,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB15">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5477714</v>
+        <v>5177529</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,37 +1865,37 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>3.4</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="N16">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="O16">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="Q16">
         <v>-0.25</v>
@@ -1907,13 +1907,13 @@
         <v>1.875</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V16">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1922,7 +1922,7 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="Z16">
         <v>-1</v>
@@ -1931,10 +1931,10 @@
         <v>0.875</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC16">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5176500</v>
+        <v>5177531</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,73 +2043,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N18">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q18">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>2</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
         <v>1.85</v>
       </c>
-      <c r="S18">
+      <c r="V18">
         <v>1.95</v>
       </c>
-      <c r="T18">
-        <v>3</v>
-      </c>
-      <c r="U18">
-        <v>2</v>
-      </c>
-      <c r="V18">
-        <v>1.8</v>
-      </c>
       <c r="W18">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5177531</v>
+        <v>5176500</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M19">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
+        <v>1.95</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
         <v>1.8</v>
       </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
-      <c r="U19">
-        <v>1.85</v>
-      </c>
-      <c r="V19">
-        <v>1.95</v>
-      </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X19">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA19">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB19">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5499197</v>
+        <v>5505610</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,76 +7739,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M82">
+        <v>2.8</v>
+      </c>
+      <c r="N82">
+        <v>2</v>
+      </c>
+      <c r="O82">
+        <v>4</v>
+      </c>
+      <c r="P82">
         <v>3.4</v>
       </c>
-      <c r="N82">
-        <v>1.615</v>
-      </c>
-      <c r="O82">
-        <v>4.5</v>
-      </c>
-      <c r="P82">
-        <v>4.5</v>
-      </c>
       <c r="Q82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S82">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T82">
         <v>3.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V82">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W82">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5499198</v>
+        <v>5499199</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7828,76 +7828,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>42</v>
       </c>
       <c r="K83">
-        <v>2.875</v>
+        <v>2.3</v>
       </c>
       <c r="L83">
         <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="N83">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O83">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P83">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="Q83">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S83">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T83">
         <v>3.25</v>
       </c>
       <c r="U83">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V83">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W83">
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB83">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC83">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:29">
@@ -7905,7 +7905,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>5495011</v>
+        <v>5499198</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,76 +7917,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>5.5</v>
+        <v>2.875</v>
       </c>
       <c r="L84">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M84">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="N84">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O84">
         <v>4</v>
       </c>
       <c r="P84">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q84">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R84">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T84">
         <v>3.25</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA84">
         <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC84">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7994,7 +7994,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>5499199</v>
+        <v>5499197</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,76 +8006,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L85">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="N85">
-        <v>2.9</v>
+        <v>1.615</v>
       </c>
       <c r="O85">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="P85">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T85">
         <v>3.25</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V85">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X85">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8083,7 +8083,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>5505610</v>
+        <v>5495011</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,76 +8095,76 @@
         <v>45069.63541666666</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="L86">
+        <v>3.2</v>
+      </c>
+      <c r="M86">
+        <v>1.6</v>
+      </c>
+      <c r="N86">
         <v>3.6</v>
-      </c>
-      <c r="M86">
-        <v>2.8</v>
-      </c>
-      <c r="N86">
-        <v>2</v>
       </c>
       <c r="O86">
         <v>4</v>
       </c>
       <c r="P86">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q86">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T86">
         <v>3.25</v>
       </c>
       <c r="U86">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X86">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>0.9750000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5569705</v>
+        <v>5571703</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,76 +8273,76 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K88">
-        <v>1.571</v>
+        <v>2.4</v>
       </c>
       <c r="L88">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M88">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="N88">
-        <v>1.571</v>
+        <v>2.75</v>
       </c>
       <c r="O88">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="P88">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="Q88">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R88">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S88">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T88">
         <v>3.25</v>
       </c>
       <c r="U88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W88">
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y88">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z88">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA88">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5571703</v>
+        <v>5575190</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,40 +8362,40 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K89">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N89">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O89">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P89">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q89">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R89">
         <v>1.8</v>
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="T89">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U89">
         <v>1.925</v>
@@ -8416,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z89">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB89">
         <v>0.925</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5575190</v>
+        <v>5571704</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,55 +8451,55 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
         <v>44</v>
       </c>
       <c r="K90">
-        <v>2.2</v>
+        <v>1.444</v>
       </c>
       <c r="L90">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>2.625</v>
+        <v>5</v>
       </c>
       <c r="N90">
-        <v>3.75</v>
+        <v>1.615</v>
       </c>
       <c r="O90">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="P90">
-        <v>1.8</v>
+        <v>4.333</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="R90">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T90">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V90">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8508,16 +8508,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.8</v>
+        <v>3.333</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5571704</v>
+        <v>5569705</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,49 +8540,49 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>44</v>
       </c>
       <c r="K91">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="L91">
+        <v>4.2</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.571</v>
+      </c>
+      <c r="O91">
         <v>4.5</v>
       </c>
-      <c r="M91">
+      <c r="P91">
         <v>5</v>
       </c>
-      <c r="N91">
-        <v>1.615</v>
-      </c>
-      <c r="O91">
-        <v>4.75</v>
-      </c>
-      <c r="P91">
-        <v>4.333</v>
-      </c>
       <c r="Q91">
         <v>-1</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
         <v>1.975</v>
@@ -8597,19 +8597,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>3.333</v>
+        <v>4</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
+        <v>0.875</v>
+      </c>
+      <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.825</v>
-      </c>
-      <c r="AB91">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9596,7 +9596,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9608,76 +9608,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103" t="s">
+        <v>44</v>
+      </c>
+      <c r="K103">
+        <v>2.625</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>2.3</v>
+      </c>
+      <c r="N103">
+        <v>2.625</v>
+      </c>
+      <c r="O103">
+        <v>3.5</v>
+      </c>
+      <c r="P103">
+        <v>2.6</v>
+      </c>
+      <c r="Q103">
         <v>0</v>
       </c>
-      <c r="J103" t="s">
-        <v>43</v>
-      </c>
-      <c r="K103">
-        <v>1.3</v>
-      </c>
-      <c r="L103">
-        <v>5.25</v>
-      </c>
-      <c r="M103">
-        <v>7.5</v>
-      </c>
-      <c r="N103">
-        <v>1.333</v>
-      </c>
-      <c r="O103">
-        <v>5.5</v>
-      </c>
-      <c r="P103">
-        <v>8</v>
-      </c>
-      <c r="Q103">
-        <v>-1.5</v>
-      </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S103">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T103">
         <v>3</v>
       </c>
       <c r="U103">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
+        <v>0.875</v>
+      </c>
+      <c r="AB103">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB103">
-        <v>-1</v>
-      </c>
       <c r="AC103">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,76 +9697,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L104">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M104">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N104">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P104">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q104">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T104">
         <v>3</v>
       </c>
       <c r="U104">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V104">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K112">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L112">
+        <v>3.4</v>
+      </c>
+      <c r="M112">
+        <v>2.1</v>
+      </c>
+      <c r="N112">
         <v>3.6</v>
       </c>
-      <c r="M112">
-        <v>1.65</v>
-      </c>
-      <c r="N112">
-        <v>4.5</v>
-      </c>
       <c r="O112">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P112">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y112">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA112">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K113">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M113">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N113">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q113">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z113">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10931,7 +10931,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6811738</v>
+        <v>6811430</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10943,40 +10943,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K118">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L118">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M118">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N118">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O118">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P118">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q118">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R118">
         <v>1.825</v>
@@ -10985,22 +10985,22 @@
         <v>1.975</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y118">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
         <v>-1</v>
@@ -11012,7 +11012,7 @@
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11020,7 +11020,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6811430</v>
+        <v>6811738</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11032,40 +11032,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K119">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L119">
+        <v>3.5</v>
+      </c>
+      <c r="M119">
+        <v>4</v>
+      </c>
+      <c r="N119">
+        <v>1.55</v>
+      </c>
+      <c r="O119">
         <v>4.5</v>
       </c>
-      <c r="M119">
-        <v>8</v>
-      </c>
-      <c r="N119">
-        <v>1.222</v>
-      </c>
-      <c r="O119">
-        <v>6</v>
-      </c>
       <c r="P119">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="Q119">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R119">
         <v>1.825</v>
@@ -11074,22 +11074,22 @@
         <v>1.975</v>
       </c>
       <c r="T119">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z119">
         <v>-1</v>
@@ -11101,7 +11101,7 @@
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6811431</v>
+        <v>6811924</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,46 +11299,46 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K122">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M122">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P122">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S122">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
         <v>2.75</v>
@@ -11350,16 +11350,16 @@
         <v>1.975</v>
       </c>
       <c r="W122">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X122">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA122">
         <v>-1</v>
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811924</v>
+        <v>6811923</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J123" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K123">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L123">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M123">
+        <v>1.909</v>
+      </c>
+      <c r="N123">
         <v>2.9</v>
       </c>
-      <c r="N123">
-        <v>2.375</v>
-      </c>
       <c r="O123">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P123">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q123">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R123">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S123">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T123">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U123">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V123">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W123">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X123">
         <v>-1</v>
       </c>
       <c r="Y123">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z123">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA123">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB123">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC123">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>42</v>
+      </c>
+      <c r="K124">
+        <v>4.5</v>
+      </c>
+      <c r="L124">
         <v>4</v>
       </c>
-      <c r="J124" t="s">
-        <v>44</v>
-      </c>
-      <c r="K124">
-        <v>3.25</v>
-      </c>
-      <c r="L124">
-        <v>3.75</v>
-      </c>
       <c r="M124">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N124">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O124">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q124">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U124">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y124">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -13957,7 +13957,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>6811731</v>
+        <v>6811939</v>
       </c>
       <c r="C152" t="s">
         <v>28</v>
@@ -13969,76 +13969,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>42</v>
       </c>
       <c r="K152">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M152">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N152">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O152">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P152">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q152">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S152">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T152">
         <v>2.75</v>
       </c>
       <c r="U152">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V152">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W152">
         <v>-1</v>
       </c>
       <c r="X152">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y152">
         <v>-1</v>
       </c>
       <c r="Z152">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB152">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:29">
@@ -14046,7 +14046,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>6811939</v>
+        <v>6811731</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14058,76 +14058,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G153" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>42</v>
       </c>
       <c r="K153">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N153">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O153">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P153">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q153">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R153">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S153">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T153">
         <v>2.75</v>
       </c>
       <c r="U153">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y153">
         <v>-1</v>
       </c>
       <c r="Z153">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA153">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB153">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,73 +14859,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G162" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N162">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O162">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P162">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q162">
         <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T162">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U162">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X162">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,73 +14948,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G163" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H163">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K163">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N163">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O163">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P163">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q163">
         <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T163">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U163">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V163">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W163">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6811949</v>
+        <v>6811450</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,10 +16105,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F176" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16120,61 +16120,61 @@
         <v>43</v>
       </c>
       <c r="K176">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L176">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M176">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N176">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O176">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P176">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q176">
+        <v>-1.5</v>
+      </c>
+      <c r="R176">
+        <v>1.975</v>
+      </c>
+      <c r="S176">
+        <v>1.825</v>
+      </c>
+      <c r="T176">
+        <v>2.75</v>
+      </c>
+      <c r="U176">
+        <v>1.875</v>
+      </c>
+      <c r="V176">
+        <v>1.925</v>
+      </c>
+      <c r="W176">
+        <v>0.363</v>
+      </c>
+      <c r="X176">
+        <v>-1</v>
+      </c>
+      <c r="Y176">
+        <v>-1</v>
+      </c>
+      <c r="Z176">
+        <v>-1</v>
+      </c>
+      <c r="AA176">
+        <v>0.825</v>
+      </c>
+      <c r="AB176">
+        <v>0.4375</v>
+      </c>
+      <c r="AC176">
         <v>-0.5</v>
-      </c>
-      <c r="R176">
-        <v>1.9</v>
-      </c>
-      <c r="S176">
-        <v>1.9</v>
-      </c>
-      <c r="T176">
-        <v>3</v>
-      </c>
-      <c r="U176">
-        <v>2</v>
-      </c>
-      <c r="V176">
-        <v>1.8</v>
-      </c>
-      <c r="W176">
-        <v>0.909</v>
-      </c>
-      <c r="X176">
-        <v>-1</v>
-      </c>
-      <c r="Y176">
-        <v>-1</v>
-      </c>
-      <c r="Z176">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA176">
-        <v>-1</v>
-      </c>
-      <c r="AB176">
-        <v>0</v>
-      </c>
-      <c r="AC176">
-        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6811450</v>
+        <v>6811949</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,10 +16194,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F177" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G177" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16209,43 +16209,43 @@
         <v>43</v>
       </c>
       <c r="K177">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L177">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M177">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N177">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O177">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P177">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q177">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R177">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S177">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T177">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U177">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V177">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16254,16 +16254,16 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA177">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC177">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G180" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K180">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L180">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M180">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N180">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O180">
         <v>3.6</v>
       </c>
       <c r="P180">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q180">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R180">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S180">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U180">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W180">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z180">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA180">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB180">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC180">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G181" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
         <v>3.75</v>
       </c>
-      <c r="L181">
-        <v>3.5</v>
-      </c>
       <c r="M181">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N181">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O181">
         <v>3.6</v>
       </c>
       <c r="P181">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q181">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R181">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U181">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V181">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W181">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA181">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB181">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,49 +17618,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F193" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M193">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N193">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O193">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P193">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q193">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
         <v>1.9</v>
@@ -17669,25 +17669,25 @@
         <v>1.9</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X193">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA193">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,49 +17707,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F194" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G194" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H194">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K194">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L194">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M194">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N194">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O194">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P194">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q194">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R194">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S194">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
         <v>1.9</v>
@@ -17758,25 +17758,25 @@
         <v>1.9</v>
       </c>
       <c r="W194">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA194">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB194">
+        <v>-1</v>
+      </c>
+      <c r="AC194">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC194">
-        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -18701,31 +18701,31 @@
         <v>2.75</v>
       </c>
       <c r="N205">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="O205">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P205">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="Q205">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R205">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S205">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V205">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18778,7 +18778,7 @@
         <v>3.1</v>
       </c>
       <c r="O206">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P206">
         <v>2.15</v>
@@ -18787,19 +18787,19 @@
         <v>0.25</v>
       </c>
       <c r="R206">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S206">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T206">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W206">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -112,16 +112,16 @@
     <t>AC Bellinzona</t>
   </si>
   <si>
+    <t>Stade LausanneOuchy</t>
+  </si>
+  <si>
     <t>Neuchatel Xamax</t>
   </si>
   <si>
-    <t>Stade LausanneOuchy</t>
+    <t>Yverdon Sport FC</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
-  </si>
-  <si>
-    <t>Yverdon Sport FC</t>
   </si>
   <si>
     <t>Lausanne Sports</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -800,7 +800,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6028076</v>
+        <v>6028075</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -889,37 +889,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K5">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
+        <v>3.5</v>
+      </c>
+      <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
+        <v>2.375</v>
+      </c>
+      <c r="O5">
         <v>3.6</v>
       </c>
-      <c r="M5">
-        <v>3.1</v>
-      </c>
-      <c r="N5">
-        <v>2.05</v>
-      </c>
-      <c r="O5">
-        <v>3.75</v>
-      </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>2.875</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>1.775</v>
@@ -931,31 +931,31 @@
         <v>2.75</v>
       </c>
       <c r="U5">
+        <v>1.8</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>-1</v>
+      </c>
+      <c r="Y5">
         <v>1.875</v>
       </c>
-      <c r="V5">
-        <v>1.925</v>
-      </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>2.75</v>
-      </c>
-      <c r="Y5">
-        <v>-1</v>
-      </c>
       <c r="Z5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -963,7 +963,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6028075</v>
+        <v>6028076</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,37 +978,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="L6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N6">
-        <v>2.375</v>
+        <v>2.05</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>2.875</v>
+        <v>3.4</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
         <v>1.775</v>
@@ -1020,31 +1020,31 @@
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W6">
         <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y6">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AB6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5177526</v>
+        <v>5177527</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1079,43 +1079,43 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>2.625</v>
+        <v>2.6</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.375</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
+        <v>2.2</v>
+      </c>
+      <c r="O7">
+        <v>3.8</v>
+      </c>
+      <c r="P7">
         <v>2.9</v>
       </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>2.375</v>
-      </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1124,7 +1124,7 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.7749999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>-1</v>
@@ -1133,7 +1133,7 @@
         <v>-1</v>
       </c>
       <c r="AC7">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5177527</v>
+        <v>5177526</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,7 +1156,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1168,43 +1168,43 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>2.6</v>
+        <v>2.625</v>
       </c>
       <c r="L8">
+        <v>3.4</v>
+      </c>
+      <c r="M8">
+        <v>2.375</v>
+      </c>
+      <c r="N8">
+        <v>2.9</v>
+      </c>
+      <c r="O8">
         <v>3.5</v>
       </c>
-      <c r="M8">
-        <v>2.3</v>
-      </c>
-      <c r="N8">
-        <v>2.2</v>
-      </c>
-      <c r="O8">
-        <v>3.8</v>
-      </c>
       <c r="P8">
-        <v>2.9</v>
+        <v>2.375</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W8">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1213,7 +1213,7 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA8">
         <v>-1</v>
@@ -1222,7 +1222,7 @@
         <v>-1</v>
       </c>
       <c r="AC8">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1423,7 +1423,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1509,7 +1509,7 @@
         <v>44967.64583333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -1601,7 +1601,7 @@
         <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1690,7 +1690,7 @@
         <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5177530</v>
+        <v>5177529</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1776,55 +1776,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J15" t="s">
         <v>44</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>3.4</v>
       </c>
       <c r="M15">
+        <v>3.25</v>
+      </c>
+      <c r="N15">
         <v>2.25</v>
       </c>
-      <c r="N15">
-        <v>2.45</v>
-      </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S15">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W15">
         <v>-1</v>
@@ -1833,19 +1833,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AB15">
-        <v>0.4125</v>
+        <v>0.95</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1853,7 +1853,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5177529</v>
+        <v>5177530</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1865,55 +1865,55 @@
         <v>44969.42708333334</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>3</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
       </c>
       <c r="J16" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
         <v>3.4</v>
       </c>
       <c r="M16">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="N16">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O16">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P16">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S16">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T16">
         <v>2.75</v>
       </c>
       <c r="U16">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V16">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W16">
         <v>-1</v>
@@ -1922,19 +1922,19 @@
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="Z16">
         <v>-1</v>
       </c>
       <c r="AA16">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AB16">
-        <v>0.95</v>
+        <v>0.4125</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
         <v>29</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5177531</v>
+        <v>5176500</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2043,73 +2043,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M18">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="O18">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R18">
+        <v>1.85</v>
+      </c>
+      <c r="S18">
+        <v>1.95</v>
+      </c>
+      <c r="T18">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>2</v>
+      </c>
+      <c r="V18">
         <v>1.8</v>
       </c>
-      <c r="S18">
-        <v>2</v>
-      </c>
-      <c r="T18">
-        <v>2.75</v>
-      </c>
-      <c r="U18">
-        <v>1.85</v>
-      </c>
-      <c r="V18">
-        <v>1.95</v>
-      </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X18">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA18">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC18">
         <v>-1</v>
@@ -2120,7 +2120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5176500</v>
+        <v>5177531</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>44974.64583333334</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L19">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="N19">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P19">
-        <v>5.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q19">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R19">
+        <v>1.8</v>
+      </c>
+      <c r="S19">
+        <v>2</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
         <v>1.85</v>
       </c>
-      <c r="S19">
+      <c r="V19">
         <v>1.95</v>
       </c>
-      <c r="T19">
-        <v>3</v>
-      </c>
-      <c r="U19">
-        <v>2</v>
-      </c>
-      <c r="V19">
-        <v>1.8</v>
-      </c>
       <c r="W19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2224,7 +2224,7 @@
         <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2402,7 +2402,7 @@
         <v>38</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H22">
         <v>3</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5176501</v>
+        <v>5176852</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,76 +2577,76 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
         <v>3.6</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
+        <v>1.75</v>
+      </c>
+      <c r="O24">
+        <v>3.75</v>
+      </c>
+      <c r="P24">
+        <v>4.5</v>
+      </c>
+      <c r="Q24">
+        <v>-0.75</v>
+      </c>
+      <c r="R24">
         <v>1.95</v>
       </c>
-      <c r="O24">
-        <v>3.8</v>
-      </c>
-      <c r="P24">
-        <v>3.6</v>
-      </c>
-      <c r="Q24">
-        <v>-0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.925</v>
-      </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T24">
         <v>2.75</v>
       </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="V24">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2654,7 +2654,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5177535</v>
+        <v>5176501</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,55 +2666,55 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
         <v>33</v>
       </c>
-      <c r="G25" t="s">
-        <v>34</v>
-      </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>44</v>
       </c>
       <c r="K25">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>1.95</v>
+      </c>
+      <c r="O25">
         <v>3.8</v>
       </c>
-      <c r="N25">
-        <v>1.909</v>
-      </c>
-      <c r="O25">
-        <v>3.75</v>
-      </c>
       <c r="P25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q25">
         <v>-0.5</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
         <v>1.875</v>
-      </c>
-      <c r="S25">
-        <v>1.925</v>
       </c>
       <c r="T25">
         <v>2.75</v>
       </c>
       <c r="U25">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
         <v>-1</v>
@@ -2723,19 +2723,19 @@
         <v>-1</v>
       </c>
       <c r="Y25">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Z25">
         <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
-        <v>0.7749999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2743,7 +2743,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>5176852</v>
+        <v>5177535</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2755,19 +2755,19 @@
         <v>44983.42708333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K26">
         <v>1.727</v>
@@ -2779,22 +2779,22 @@
         <v>3.8</v>
       </c>
       <c r="N26">
-        <v>1.75</v>
+        <v>1.909</v>
       </c>
       <c r="O26">
         <v>3.75</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
         <v>2.75</v>
@@ -2806,25 +2806,25 @@
         <v>2.025</v>
       </c>
       <c r="W26">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC26">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>44988.64583333334</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>37</v>
@@ -2933,7 +2933,7 @@
         <v>44988.67708333334</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
         <v>30</v>
@@ -3010,7 +3010,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>5176853</v>
+        <v>5177538</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,55 +3022,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J29" t="s">
         <v>44</v>
       </c>
       <c r="K29">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="L29">
         <v>3.4</v>
       </c>
       <c r="M29">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="N29">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O29">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q29">
         <v>0.25</v>
       </c>
       <c r="R29">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
         <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -3079,19 +3079,19 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>1.375</v>
+        <v>1.2</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3099,7 +3099,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>5177538</v>
+        <v>5176853</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,55 +3111,55 @@
         <v>44990.42708333334</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>44</v>
       </c>
       <c r="K30">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L30">
         <v>3.4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N30">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P30">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q30">
         <v>0.25</v>
       </c>
       <c r="R30">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T30">
         <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3168,19 +3168,19 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>1.2</v>
+        <v>1.375</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>44995.67708333334</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3381,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5177541</v>
+        <v>5176503</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,76 +3556,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N35">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="O35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P35">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
+        <v>1.925</v>
+      </c>
+      <c r="S35">
+        <v>1.875</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
         <v>1.8</v>
       </c>
-      <c r="S35">
-        <v>2</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.85</v>
-      </c>
       <c r="V35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z35">
+        <v>-1</v>
+      </c>
+      <c r="AA35">
+        <v>0.875</v>
+      </c>
+      <c r="AB35">
+        <v>0.4</v>
+      </c>
+      <c r="AC35">
         <v>-0.5</v>
-      </c>
-      <c r="AA35">
-        <v>0.5</v>
-      </c>
-      <c r="AB35">
-        <v>-1</v>
-      </c>
-      <c r="AC35">
-        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5176503</v>
+        <v>5177541</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,76 +3645,76 @@
         <v>44997.52083333334</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K36">
-        <v>2.55</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="O36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.55</v>
+        <v>3.3</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S36">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T36">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA36">
-        <v>0.875</v>
+        <v>0.5</v>
       </c>
       <c r="AB36">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -3734,10 +3734,10 @@
         <v>45002.64583333334</v>
       </c>
       <c r="F37" t="s">
+        <v>34</v>
+      </c>
+      <c r="G37" t="s">
         <v>35</v>
-      </c>
-      <c r="G37" t="s">
-        <v>34</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3912,7 +3912,7 @@
         <v>45003.58333333334</v>
       </c>
       <c r="F39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
         <v>29</v>
@@ -4004,7 +4004,7 @@
         <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4179,7 +4179,7 @@
         <v>45016.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>37</v>
@@ -4434,7 +4434,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5177549</v>
+        <v>5176504</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,76 +4446,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="L45">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>2.875</v>
       </c>
       <c r="O45">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P45">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="S45">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T45">
         <v>3</v>
       </c>
       <c r="U45">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V45">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.925</v>
+        <v>0.375</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4523,7 +4523,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5176504</v>
+        <v>5177549</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,76 +4535,76 @@
         <v>45018.47916666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>2.55</v>
+        <v>1.65</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="M46">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N46">
-        <v>2.875</v>
+        <v>1.727</v>
       </c>
       <c r="O46">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S46">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
         <v>3</v>
       </c>
       <c r="U46">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X46">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.375</v>
+        <v>0.925</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4713,10 +4713,10 @@
         <v>45023.63541666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4790,7 +4790,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5177550</v>
+        <v>5177552</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,55 +4802,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G49" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>44</v>
       </c>
       <c r="K49">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="L49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N49">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O49">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="Q49">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S49">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V49">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W49">
         <v>-1</v>
@@ -4859,19 +4859,19 @@
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4879,7 +4879,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5177552</v>
+        <v>5177550</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,55 +4891,55 @@
         <v>45024.54166666666</v>
       </c>
       <c r="F50" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J50" t="s">
         <v>44</v>
       </c>
       <c r="K50">
+        <v>1.909</v>
+      </c>
+      <c r="L50">
+        <v>3.5</v>
+      </c>
+      <c r="M50">
+        <v>3.6</v>
+      </c>
+      <c r="N50">
         <v>2.2</v>
       </c>
-      <c r="L50">
-        <v>3.4</v>
-      </c>
-      <c r="M50">
-        <v>2.8</v>
-      </c>
-      <c r="N50">
-        <v>2.625</v>
-      </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="Q50">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R50">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T50">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W50">
         <v>-1</v>
@@ -4948,19 +4948,19 @@
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Z50">
         <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB50">
-        <v>0.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4983,7 +4983,7 @@
         <v>29</v>
       </c>
       <c r="G51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5057,7 +5057,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>5177555</v>
+        <v>5176506</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,55 +5069,55 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J52" t="s">
         <v>44</v>
       </c>
       <c r="K52">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="N52">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="O52">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P52">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q52">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
         <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5126,19 +5126,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB52">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5146,7 +5146,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>5176506</v>
+        <v>5177555</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5158,55 +5158,55 @@
         <v>45030.60416666666</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J53" t="s">
         <v>44</v>
       </c>
       <c r="K53">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="L53">
         <v>3.4</v>
       </c>
       <c r="M53">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="O53">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P53">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T53">
         <v>2.75</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5215,19 +5215,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC53">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5428,7 +5428,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5514,7 +5514,7 @@
         <v>45037.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5606,7 +5606,7 @@
         <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5680,7 +5680,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>5177556</v>
+        <v>5177557</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5692,73 +5692,73 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I59">
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L59">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N59">
-        <v>1.571</v>
+        <v>2.8</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P59">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="T59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB59">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AC59">
         <v>-1</v>
@@ -5769,7 +5769,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>5177557</v>
+        <v>5177556</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5781,73 +5781,73 @@
         <v>45038.54166666666</v>
       </c>
       <c r="F60" t="s">
+        <v>30</v>
+      </c>
+      <c r="G60" t="s">
         <v>33</v>
       </c>
-      <c r="G60" t="s">
-        <v>38</v>
-      </c>
       <c r="H60">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I60">
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L60">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M60">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N60">
-        <v>2.8</v>
+        <v>1.571</v>
       </c>
       <c r="O60">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R60">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S60">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X60">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA60">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC60">
         <v>-1</v>
@@ -5947,7 +5947,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5316506</v>
+        <v>5317066</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5959,76 +5959,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F62" t="s">
+        <v>37</v>
+      </c>
+      <c r="G62" t="s">
         <v>32</v>
-      </c>
-      <c r="G62" t="s">
-        <v>38</v>
       </c>
       <c r="H62">
         <v>1</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K62">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="L62">
+        <v>3.6</v>
+      </c>
+      <c r="M62">
         <v>3.5</v>
       </c>
-      <c r="M62">
+      <c r="N62">
+        <v>2.1</v>
+      </c>
+      <c r="O62">
+        <v>3.5</v>
+      </c>
+      <c r="P62">
+        <v>3.3</v>
+      </c>
+      <c r="Q62">
+        <v>-0.25</v>
+      </c>
+      <c r="R62">
+        <v>1.825</v>
+      </c>
+      <c r="S62">
+        <v>1.975</v>
+      </c>
+      <c r="T62">
+        <v>2.75</v>
+      </c>
+      <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>1.95</v>
       </c>
-      <c r="N62">
-        <v>4.2</v>
-      </c>
-      <c r="O62">
-        <v>4</v>
-      </c>
-      <c r="P62">
-        <v>1.8</v>
-      </c>
-      <c r="Q62">
-        <v>0.75</v>
-      </c>
-      <c r="R62">
-        <v>1.8</v>
-      </c>
-      <c r="S62">
-        <v>2</v>
-      </c>
-      <c r="T62">
-        <v>3</v>
-      </c>
-      <c r="U62">
-        <v>1.975</v>
-      </c>
-      <c r="V62">
-        <v>1.825</v>
-      </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z62">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC62">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6036,7 +6036,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5317066</v>
+        <v>5316506</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6048,76 +6048,76 @@
         <v>45044.60416666666</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="N63">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P63">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R63">
+        <v>1.8</v>
+      </c>
+      <c r="S63">
+        <v>2</v>
+      </c>
+      <c r="T63">
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <v>1.975</v>
+      </c>
+      <c r="V63">
         <v>1.825</v>
       </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>1.85</v>
-      </c>
-      <c r="V63">
-        <v>1.95</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y63">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6140,7 +6140,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6229,7 +6229,7 @@
         <v>29</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6404,10 +6404,10 @@
         <v>45051.5625</v>
       </c>
       <c r="F67" t="s">
+        <v>32</v>
+      </c>
+      <c r="G67" t="s">
         <v>33</v>
-      </c>
-      <c r="G67" t="s">
-        <v>32</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6493,7 +6493,7 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G68" t="s">
         <v>36</v>
@@ -6582,7 +6582,7 @@
         <v>45051.60416666666</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
         <v>31</v>
@@ -6849,10 +6849,10 @@
         <v>45058.60416666666</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -7030,7 +7030,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7116,7 +7116,7 @@
         <v>45059.54166666666</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G75" t="s">
         <v>38</v>
@@ -7282,7 +7282,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>5461426</v>
+        <v>5461428</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7294,73 +7294,73 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K77">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="L77">
         <v>3.4</v>
       </c>
       <c r="M77">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N77">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O77">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="P77">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q77">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R77">
+        <v>1.875</v>
+      </c>
+      <c r="S77">
         <v>1.925</v>
-      </c>
-      <c r="S77">
-        <v>1.875</v>
       </c>
       <c r="T77">
         <v>3</v>
       </c>
       <c r="U77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V77">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X77">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA77">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -7371,7 +7371,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>5461427</v>
+        <v>5461923</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7383,13 +7383,13 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7398,25 +7398,25 @@
         <v>43</v>
       </c>
       <c r="K78">
-        <v>1.909</v>
+        <v>1.55</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N78">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="O78">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P78">
-        <v>4.333</v>
+        <v>7.5</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R78">
         <v>1.95</v>
@@ -7425,16 +7425,16 @@
         <v>1.85</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W78">
-        <v>0.75</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7449,10 +7449,10 @@
         <v>-1</v>
       </c>
       <c r="AB78">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC78">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7460,7 +7460,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>5461428</v>
+        <v>5461426</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7472,73 +7472,73 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L79">
         <v>3.4</v>
       </c>
       <c r="M79">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="N79">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O79">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
+        <v>1.925</v>
+      </c>
+      <c r="S79">
         <v>1.875</v>
-      </c>
-      <c r="S79">
-        <v>1.925</v>
       </c>
       <c r="T79">
         <v>3</v>
       </c>
       <c r="U79">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA79">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB79">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7549,7 +7549,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>5461923</v>
+        <v>5461427</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7561,13 +7561,13 @@
         <v>45065.63541666666</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -7576,25 +7576,25 @@
         <v>43</v>
       </c>
       <c r="K80">
-        <v>1.55</v>
+        <v>1.909</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N80">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="O80">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="P80">
-        <v>7.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q80">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
         <v>1.95</v>
@@ -7603,16 +7603,16 @@
         <v>1.85</v>
       </c>
       <c r="T80">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V80">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W80">
-        <v>0.3999999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7627,10 +7627,10 @@
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC80">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5505610</v>
+        <v>5499199</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7742,7 +7742,7 @@
         <v>34</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7754,31 +7754,31 @@
         <v>42</v>
       </c>
       <c r="K82">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L82">
         <v>3.6</v>
       </c>
       <c r="M82">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="N82">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O82">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P82">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q82">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
         <v>1.975</v>
-      </c>
-      <c r="S82">
-        <v>1.825</v>
       </c>
       <c r="T82">
         <v>3.25</v>
@@ -7793,16 +7793,16 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA82">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
         <v>-1</v>
@@ -7816,7 +7816,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>5499199</v>
+        <v>5505610</v>
       </c>
       <c r="C83" t="s">
         <v>28</v>
@@ -7831,7 +7831,7 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7843,31 +7843,31 @@
         <v>42</v>
       </c>
       <c r="K83">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="L83">
         <v>3.6</v>
       </c>
       <c r="M83">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="N83">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O83">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P83">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q83">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R83">
+        <v>1.975</v>
+      </c>
+      <c r="S83">
         <v>1.825</v>
-      </c>
-      <c r="S83">
-        <v>1.975</v>
       </c>
       <c r="T83">
         <v>3.25</v>
@@ -7882,16 +7882,16 @@
         <v>-1</v>
       </c>
       <c r="X83">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Y83">
         <v>-1</v>
       </c>
       <c r="Z83">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB83">
         <v>-1</v>
@@ -7920,7 +7920,7 @@
         <v>29</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -8172,7 +8172,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>5569704</v>
+        <v>5571704</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8184,73 +8184,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K87">
-        <v>1.285</v>
+        <v>1.444</v>
       </c>
       <c r="L87">
+        <v>4.5</v>
+      </c>
+      <c r="M87">
         <v>5</v>
       </c>
-      <c r="M87">
-        <v>7</v>
-      </c>
       <c r="N87">
-        <v>1.166</v>
+        <v>1.615</v>
       </c>
       <c r="O87">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="Q87">
-        <v>-2.25</v>
+        <v>-1</v>
       </c>
       <c r="R87">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S87">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T87">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U87">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V87">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W87">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X87">
         <v>-1</v>
       </c>
       <c r="Y87">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Z87">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA87">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB87">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC87">
         <v>-1</v>
@@ -8261,7 +8261,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>5571703</v>
+        <v>5575190</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8273,40 +8273,40 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F88" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K88">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="L88">
         <v>3.6</v>
       </c>
       <c r="M88">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="N88">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="O88">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P88">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q88">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R88">
         <v>1.8</v>
@@ -8315,7 +8315,7 @@
         <v>2</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U88">
         <v>1.925</v>
@@ -8327,16 +8327,16 @@
         <v>-1</v>
       </c>
       <c r="X88">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z88">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA88">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB88">
         <v>0.925</v>
@@ -8350,7 +8350,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>5575190</v>
+        <v>5571703</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8362,40 +8362,40 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K89">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="L89">
         <v>3.6</v>
       </c>
       <c r="M89">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="N89">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="O89">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P89">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="Q89">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R89">
         <v>1.8</v>
@@ -8404,7 +8404,7 @@
         <v>2</v>
       </c>
       <c r="T89">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
         <v>1.925</v>
@@ -8416,16 +8416,16 @@
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y89">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA89">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
         <v>0.925</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5571704</v>
+        <v>5569704</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,73 +8451,73 @@
         <v>45073.54166666666</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>1.285</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N90">
-        <v>1.615</v>
+        <v>1.166</v>
       </c>
       <c r="O90">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="P90">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>-2.25</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S90">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="U90">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA90">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8543,7 +8543,7 @@
         <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -8718,10 +8718,10 @@
         <v>45128.60416666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8884,7 +8884,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8896,10 +8896,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -8911,7 +8911,7 @@
         <v>44</v>
       </c>
       <c r="K95">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L95">
         <v>3.5</v>
@@ -8920,31 +8920,31 @@
         <v>2.4</v>
       </c>
       <c r="N95">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V95">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
@@ -8953,19 +8953,19 @@
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z95">
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
         <v>-1</v>
       </c>
       <c r="AC95">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8973,7 +8973,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,10 +8985,10 @@
         <v>45130.38541666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>44</v>
       </c>
       <c r="K96">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L96">
         <v>3.5</v>
@@ -9009,31 +9009,31 @@
         <v>2.4</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9042,19 +9042,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
         <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9062,7 +9062,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9074,46 +9074,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M97">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N97">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O97">
         <v>3.75</v>
       </c>
       <c r="P97">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S97">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T97">
         <v>3</v>
@@ -9128,16 +9128,16 @@
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA97">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB97">
         <v>-1</v>
@@ -9151,7 +9151,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9163,46 +9163,46 @@
         <v>45135.60416666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K98">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L98">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N98">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O98">
         <v>3.75</v>
       </c>
       <c r="P98">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T98">
         <v>3</v>
@@ -9217,16 +9217,16 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB98">
         <v>-1</v>
@@ -9329,7 +9329,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9341,76 +9341,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M100">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N100">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P100">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q100">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.9</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
         <v>1.825</v>
       </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>2.75</v>
-      </c>
-      <c r="U100">
-        <v>1.85</v>
-      </c>
-      <c r="V100">
-        <v>1.95</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X100">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y100">
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9418,7 +9418,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9430,76 +9430,76 @@
         <v>45137.38541666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M101">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P101">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V101">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W101">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X101">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y101">
         <v>-1</v>
       </c>
       <c r="Z101">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9608,7 +9608,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>37</v>
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,76 +9786,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
+        <v>1.95</v>
+      </c>
+      <c r="V105">
         <v>1.85</v>
       </c>
-      <c r="V105">
-        <v>1.95</v>
-      </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9863,7 +9863,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9875,76 +9875,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>2</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K106">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N106">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U106">
+        <v>1.85</v>
+      </c>
+      <c r="V106">
         <v>1.95</v>
       </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB106">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC106">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
         <v>38</v>
@@ -10056,7 +10056,7 @@
         <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
@@ -10397,7 +10397,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10409,76 +10409,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K112">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L112">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M112">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N112">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P112">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T112">
         <v>3</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z112">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10486,7 +10486,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10498,76 +10498,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L113">
+        <v>3.4</v>
+      </c>
+      <c r="M113">
+        <v>2.1</v>
+      </c>
+      <c r="N113">
         <v>3.6</v>
       </c>
-      <c r="M113">
-        <v>1.65</v>
-      </c>
-      <c r="N113">
-        <v>4.5</v>
-      </c>
       <c r="O113">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P113">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R113">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S113">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T113">
         <v>3</v>
       </c>
       <c r="U113">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y113">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA113">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10664,7 +10664,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6811429</v>
+        <v>6811919</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,76 +10676,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L115">
         <v>3.6</v>
       </c>
       <c r="M115">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N115">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P115">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q115">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R115">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y115">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10753,7 +10753,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6811919</v>
+        <v>6811429</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10765,76 +10765,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F116" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K116">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L116">
         <v>3.6</v>
       </c>
       <c r="M116">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N116">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O116">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P116">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R116">
+        <v>2</v>
+      </c>
+      <c r="S116">
+        <v>1.8</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
         <v>1.925</v>
       </c>
-      <c r="S116">
+      <c r="V116">
         <v>1.875</v>
       </c>
-      <c r="T116">
-        <v>3.25</v>
-      </c>
-      <c r="U116">
-        <v>1.975</v>
-      </c>
-      <c r="V116">
-        <v>1.825</v>
-      </c>
       <c r="W116">
         <v>-1</v>
       </c>
       <c r="X116">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G117" t="s">
         <v>31</v>
@@ -11213,7 +11213,7 @@
         <v>29</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>6</v>
@@ -11287,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6811924</v>
+        <v>6811923</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11299,76 +11299,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G122" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K122">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L122">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
+        <v>1.909</v>
+      </c>
+      <c r="N122">
         <v>2.9</v>
       </c>
-      <c r="N122">
-        <v>2.375</v>
-      </c>
       <c r="O122">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P122">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U122">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V122">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC122">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11376,7 +11376,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11388,76 +11388,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G123" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123" t="s">
+        <v>42</v>
+      </c>
+      <c r="K123">
+        <v>4.5</v>
+      </c>
+      <c r="L123">
         <v>4</v>
       </c>
-      <c r="J123" t="s">
-        <v>44</v>
-      </c>
-      <c r="K123">
-        <v>3.25</v>
-      </c>
-      <c r="L123">
-        <v>3.75</v>
-      </c>
       <c r="M123">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N123">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O123">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P123">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q123">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U123">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
         <v>-1</v>
       </c>
       <c r="X123">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y123">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB123">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC123">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6811431</v>
+        <v>6811924</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,46 +11477,46 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N124">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O124">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P124">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>2.75</v>
@@ -11528,16 +11528,16 @@
         <v>1.975</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X124">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
@@ -11910,7 +11910,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11922,76 +11922,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K129">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N129">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P129">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q129">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R129">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S129">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W129">
         <v>-1</v>
       </c>
       <c r="X129">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z129">
+        <v>-1</v>
+      </c>
+      <c r="AA129">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB129">
         <v>-0.5</v>
       </c>
-      <c r="AA129">
-        <v>0.4375</v>
-      </c>
-      <c r="AB129">
-        <v>-1</v>
-      </c>
       <c r="AC129">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6811433</v>
+        <v>6811736</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F130" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="N130">
-        <v>1.3</v>
+        <v>2.875</v>
       </c>
       <c r="O130">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>10</v>
+        <v>2.4</v>
       </c>
       <c r="Q130">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
+        <v>3</v>
+      </c>
+      <c r="U130">
         <v>1.95</v>
       </c>
-      <c r="S130">
+      <c r="V130">
         <v>1.85</v>
       </c>
-      <c r="T130">
-        <v>3.25</v>
-      </c>
-      <c r="U130">
-        <v>1.85</v>
-      </c>
-      <c r="V130">
-        <v>1.95</v>
-      </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
+        <v>-1</v>
+      </c>
+      <c r="AB130">
+        <v>-1</v>
+      </c>
+      <c r="AC130">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB130">
-        <v>-0.5</v>
-      </c>
-      <c r="AC130">
-        <v>0.475</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6811736</v>
+        <v>6811927</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F131" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L131">
+        <v>3.8</v>
+      </c>
+      <c r="M131">
         <v>3.3</v>
       </c>
-      <c r="M131">
-        <v>2.375</v>
-      </c>
       <c r="N131">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12278,7 +12278,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
         <v>40</v>
@@ -12370,7 +12370,7 @@
         <v>41</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12723,7 +12723,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G138" t="s">
         <v>29</v>
@@ -12904,7 +12904,7 @@
         <v>38</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H140">
         <v>1</v>
@@ -13079,7 +13079,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G142" t="s">
         <v>39</v>
@@ -13438,7 +13438,7 @@
         <v>31</v>
       </c>
       <c r="G146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -13512,7 +13512,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13524,55 +13524,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J147" t="s">
         <v>44</v>
       </c>
       <c r="K147">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L147">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M147">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N147">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O147">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P147">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q147">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T147">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V147">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W147">
         <v>-1</v>
@@ -13581,19 +13581,19 @@
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13601,7 +13601,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13613,55 +13613,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G148" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J148" t="s">
         <v>44</v>
       </c>
       <c r="K148">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L148">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M148">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O148">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P148">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U148">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W148">
         <v>-1</v>
@@ -13670,19 +13670,19 @@
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB148">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13690,7 +13690,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13702,76 +13702,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H149">
         <v>1</v>
       </c>
       <c r="I149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K149">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L149">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M149">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N149">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O149">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P149">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q149">
         <v>-0.75</v>
       </c>
       <c r="R149">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S149">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U149">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V149">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W149">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X149">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA149">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB149">
         <v>-1</v>
       </c>
       <c r="AC149">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="150" spans="1:29">
@@ -13779,7 +13779,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13791,76 +13791,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H150">
         <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M150">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N150">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O150">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P150">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q150">
         <v>-0.75</v>
       </c>
       <c r="R150">
+        <v>1.925</v>
+      </c>
+      <c r="S150">
+        <v>1.875</v>
+      </c>
+      <c r="T150">
+        <v>2.75</v>
+      </c>
+      <c r="U150">
         <v>1.85</v>
       </c>
-      <c r="S150">
+      <c r="V150">
         <v>1.95</v>
       </c>
-      <c r="T150">
-        <v>3</v>
-      </c>
-      <c r="U150">
-        <v>1.825</v>
-      </c>
-      <c r="V150">
-        <v>1.975</v>
-      </c>
       <c r="W150">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X150">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y150">
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA150">
+        <v>-0.5</v>
+      </c>
+      <c r="AB150">
+        <v>-1</v>
+      </c>
+      <c r="AC150">
         <v>0.95</v>
-      </c>
-      <c r="AB150">
-        <v>-1</v>
-      </c>
-      <c r="AC150">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13969,7 +13969,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G152" t="s">
         <v>37</v>
@@ -14058,7 +14058,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G153" t="s">
         <v>39</v>
@@ -14506,7 +14506,7 @@
         <v>41</v>
       </c>
       <c r="G158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -14684,7 +14684,7 @@
         <v>38</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14847,7 +14847,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14859,73 +14859,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I162">
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K162">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
         <v>3.5</v>
       </c>
       <c r="M162">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N162">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O162">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P162">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q162">
         <v>0.5</v>
       </c>
       <c r="R162">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T162">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V162">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W162">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X162">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -14936,7 +14936,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14948,73 +14948,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G163" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I163">
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L163">
         <v>3.5</v>
       </c>
       <c r="M163">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N163">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O163">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P163">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q163">
         <v>0.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X163">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC163">
         <v>-1</v>
@@ -15304,7 +15304,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G167" t="s">
         <v>29</v>
@@ -15381,7 +15381,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6811447</v>
+        <v>6811727</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15393,13 +15393,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G168" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -15408,43 +15408,43 @@
         <v>43</v>
       </c>
       <c r="K168">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L168">
         <v>3.6</v>
       </c>
       <c r="M168">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N168">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O168">
         <v>3.8</v>
       </c>
       <c r="P168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S168">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T168">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U168">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X168">
         <v>-1</v>
@@ -15453,7 +15453,7 @@
         <v>-1</v>
       </c>
       <c r="Z168">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA168">
         <v>-1</v>
@@ -15462,7 +15462,7 @@
         <v>-1</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15470,7 +15470,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>6811727</v>
+        <v>6811447</v>
       </c>
       <c r="C169" t="s">
         <v>28</v>
@@ -15482,13 +15482,13 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F169" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -15497,43 +15497,43 @@
         <v>43</v>
       </c>
       <c r="K169">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L169">
         <v>3.6</v>
       </c>
       <c r="M169">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N169">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O169">
         <v>3.8</v>
       </c>
       <c r="P169">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q169">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R169">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S169">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T169">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U169">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V169">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W169">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X169">
         <v>-1</v>
@@ -15542,7 +15542,7 @@
         <v>-1</v>
       </c>
       <c r="Z169">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA169">
         <v>-1</v>
@@ -15551,7 +15551,7 @@
         <v>-1</v>
       </c>
       <c r="AC169">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="170" spans="1:29">
@@ -15648,7 +15648,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C171" t="s">
         <v>28</v>
@@ -15660,76 +15660,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H171">
         <v>1</v>
       </c>
       <c r="I171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J171" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K171">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L171">
         <v>3.5</v>
       </c>
       <c r="M171">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N171">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O171">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P171">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q171">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R171">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S171">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T171">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U171">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V171">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W171">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X171">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y171">
         <v>-1</v>
       </c>
       <c r="Z171">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB171">
         <v>-1</v>
       </c>
       <c r="AC171">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="172" spans="1:29">
@@ -15737,7 +15737,7 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C172" t="s">
         <v>28</v>
@@ -15749,76 +15749,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F172" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H172">
         <v>1</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K172">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L172">
         <v>3.5</v>
       </c>
       <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>3.4</v>
+      </c>
+      <c r="O172">
         <v>3.3</v>
       </c>
-      <c r="N172">
+      <c r="P172">
+        <v>2.15</v>
+      </c>
+      <c r="Q172">
+        <v>0.25</v>
+      </c>
+      <c r="R172">
+        <v>1.95</v>
+      </c>
+      <c r="S172">
         <v>1.85</v>
       </c>
-      <c r="O172">
-        <v>3.75</v>
-      </c>
-      <c r="P172">
-        <v>4</v>
-      </c>
-      <c r="Q172">
-        <v>-0.5</v>
-      </c>
-      <c r="R172">
-        <v>1.9</v>
-      </c>
-      <c r="S172">
-        <v>1.9</v>
-      </c>
       <c r="T172">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U172">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V172">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W172">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X172">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y172">
         <v>-1</v>
       </c>
       <c r="Z172">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA172">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB172">
         <v>-1</v>
       </c>
       <c r="AC172">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:29">
@@ -16093,7 +16093,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6811450</v>
+        <v>6811949</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16105,10 +16105,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G176" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H176">
         <v>2</v>
@@ -16120,43 +16120,43 @@
         <v>43</v>
       </c>
       <c r="K176">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L176">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M176">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N176">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O176">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P176">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q176">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R176">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U176">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W176">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X176">
         <v>-1</v>
@@ -16165,16 +16165,16 @@
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC176">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16182,7 +16182,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6811949</v>
+        <v>6811450</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16194,10 +16194,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H177">
         <v>2</v>
@@ -16209,61 +16209,61 @@
         <v>43</v>
       </c>
       <c r="K177">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L177">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M177">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N177">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O177">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P177">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q177">
+        <v>-1.5</v>
+      </c>
+      <c r="R177">
+        <v>1.975</v>
+      </c>
+      <c r="S177">
+        <v>1.825</v>
+      </c>
+      <c r="T177">
+        <v>2.75</v>
+      </c>
+      <c r="U177">
+        <v>1.875</v>
+      </c>
+      <c r="V177">
+        <v>1.925</v>
+      </c>
+      <c r="W177">
+        <v>0.363</v>
+      </c>
+      <c r="X177">
+        <v>-1</v>
+      </c>
+      <c r="Y177">
+        <v>-1</v>
+      </c>
+      <c r="Z177">
+        <v>-1</v>
+      </c>
+      <c r="AA177">
+        <v>0.825</v>
+      </c>
+      <c r="AB177">
+        <v>0.4375</v>
+      </c>
+      <c r="AC177">
         <v>-0.5</v>
-      </c>
-      <c r="R177">
-        <v>1.9</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>3</v>
-      </c>
-      <c r="U177">
-        <v>2</v>
-      </c>
-      <c r="V177">
-        <v>1.8</v>
-      </c>
-      <c r="W177">
-        <v>0.909</v>
-      </c>
-      <c r="X177">
-        <v>-1</v>
-      </c>
-      <c r="Y177">
-        <v>-1</v>
-      </c>
-      <c r="Z177">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>0</v>
-      </c>
-      <c r="AC177">
-        <v>-0</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -16639,7 +16639,7 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G182" t="s">
         <v>41</v>
@@ -16820,7 +16820,7 @@
         <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H184">
         <v>2</v>
@@ -16995,7 +16995,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G186" t="s">
         <v>37</v>
@@ -17072,7 +17072,7 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C187" t="s">
         <v>28</v>
@@ -17084,58 +17084,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H187">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J187" t="s">
         <v>43</v>
       </c>
       <c r="K187">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L187">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M187">
         <v>4.5</v>
       </c>
       <c r="N187">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O187">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P187">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q187">
         <v>-1</v>
       </c>
       <c r="R187">
+        <v>1.775</v>
+      </c>
+      <c r="S187">
         <v>2.025</v>
-      </c>
-      <c r="S187">
-        <v>1.775</v>
       </c>
       <c r="T187">
         <v>2.75</v>
       </c>
       <c r="U187">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V187">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W187">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X187">
         <v>-1</v>
@@ -17144,16 +17144,16 @@
         <v>-1</v>
       </c>
       <c r="Z187">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA187">
         <v>-1</v>
       </c>
       <c r="AB187">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC187">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:29">
@@ -17161,7 +17161,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17173,58 +17173,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F188" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G188" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J188" t="s">
         <v>43</v>
       </c>
       <c r="K188">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L188">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M188">
         <v>4.5</v>
       </c>
       <c r="N188">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O188">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P188">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q188">
         <v>-1</v>
       </c>
       <c r="R188">
+        <v>2.025</v>
+      </c>
+      <c r="S188">
         <v>1.775</v>
-      </c>
-      <c r="S188">
-        <v>2.025</v>
       </c>
       <c r="T188">
         <v>2.75</v>
       </c>
       <c r="U188">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V188">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W188">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X188">
         <v>-1</v>
@@ -17233,16 +17233,16 @@
         <v>-1</v>
       </c>
       <c r="Z188">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA188">
         <v>-1</v>
       </c>
       <c r="AB188">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC188">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17250,7 +17250,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17262,58 +17262,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G189" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M189">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N189">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O189">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P189">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q189">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R189">
+        <v>2</v>
+      </c>
+      <c r="S189">
         <v>1.8</v>
       </c>
-      <c r="S189">
-        <v>2</v>
-      </c>
       <c r="T189">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W189">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X189">
         <v>-1</v>
@@ -17322,13 +17322,13 @@
         <v>-1</v>
       </c>
       <c r="Z189">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA189">
         <v>-1</v>
       </c>
       <c r="AB189">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC189">
         <v>-1</v>
@@ -17339,7 +17339,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17351,59 +17351,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G190" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H190">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I190">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J190" t="s">
         <v>43</v>
       </c>
       <c r="K190">
+        <v>3.2</v>
+      </c>
+      <c r="L190">
+        <v>3.5</v>
+      </c>
+      <c r="M190">
+        <v>2.1</v>
+      </c>
+      <c r="N190">
+        <v>3.6</v>
+      </c>
+      <c r="O190">
+        <v>3.5</v>
+      </c>
+      <c r="P190">
+        <v>2.05</v>
+      </c>
+      <c r="Q190">
+        <v>0.5</v>
+      </c>
+      <c r="R190">
+        <v>1.8</v>
+      </c>
+      <c r="S190">
+        <v>2</v>
+      </c>
+      <c r="T190">
+        <v>2.5</v>
+      </c>
+      <c r="U190">
+        <v>2</v>
+      </c>
+      <c r="V190">
+        <v>1.8</v>
+      </c>
+      <c r="W190">
         <v>2.6</v>
       </c>
-      <c r="L190">
-        <v>3.4</v>
-      </c>
-      <c r="M190">
-        <v>2.5</v>
-      </c>
-      <c r="N190">
-        <v>2.75</v>
-      </c>
-      <c r="O190">
-        <v>3.4</v>
-      </c>
-      <c r="P190">
-        <v>2.55</v>
-      </c>
-      <c r="Q190">
-        <v>0</v>
-      </c>
-      <c r="R190">
-        <v>2</v>
-      </c>
-      <c r="S190">
-        <v>1.8</v>
-      </c>
-      <c r="T190">
-        <v>3</v>
-      </c>
-      <c r="U190">
-        <v>1.975</v>
-      </c>
-      <c r="V190">
-        <v>1.825</v>
-      </c>
-      <c r="W190">
-        <v>1.75</v>
-      </c>
       <c r="X190">
         <v>-1</v>
       </c>
@@ -17411,13 +17411,13 @@
         <v>-1</v>
       </c>
       <c r="Z190">
+        <v>0.8</v>
+      </c>
+      <c r="AA190">
+        <v>-1</v>
+      </c>
+      <c r="AB190">
         <v>1</v>
-      </c>
-      <c r="AA190">
-        <v>-1</v>
-      </c>
-      <c r="AB190">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC190">
         <v>-1</v>
@@ -17443,7 +17443,7 @@
         <v>39</v>
       </c>
       <c r="G191" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -17529,7 +17529,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G192" t="s">
         <v>31</v>
@@ -17606,7 +17606,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17618,49 +17618,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F193" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H193">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I193">
         <v>1</v>
       </c>
       <c r="J193" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L193">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M193">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N193">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O193">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P193">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q193">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
         <v>1.9</v>
@@ -17669,25 +17669,25 @@
         <v>1.9</v>
       </c>
       <c r="W193">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y193">
         <v>-1</v>
       </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB193">
+        <v>-1</v>
+      </c>
+      <c r="AC193">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC193">
-        <v>-1</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17695,7 +17695,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17707,49 +17707,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I194">
         <v>1</v>
       </c>
       <c r="J194" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K194">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M194">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N194">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O194">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P194">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q194">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R194">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S194">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T194">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U194">
         <v>1.9</v>
@@ -17758,25 +17758,25 @@
         <v>1.9</v>
       </c>
       <c r="W194">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X194">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y194">
         <v>-1</v>
       </c>
       <c r="Z194">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA194">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC194">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17784,7 +17784,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>7617770</v>
+        <v>7617831</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17796,58 +17796,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F195" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G195" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I195">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>43</v>
       </c>
       <c r="K195">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L195">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M195">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N195">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O195">
         <v>3.6</v>
       </c>
       <c r="P195">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q195">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R195">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S195">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T195">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V195">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W195">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X195">
         <v>-1</v>
@@ -17856,16 +17856,16 @@
         <v>-1</v>
       </c>
       <c r="Z195">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA195">
         <v>-1</v>
       </c>
       <c r="AB195">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC195">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17873,7 +17873,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>7617831</v>
+        <v>7617770</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17885,58 +17885,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F196" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G196" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H196">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J196" t="s">
         <v>43</v>
       </c>
       <c r="K196">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L196">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M196">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N196">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O196">
         <v>3.6</v>
       </c>
       <c r="P196">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q196">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R196">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S196">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T196">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U196">
+        <v>2</v>
+      </c>
+      <c r="V196">
         <v>1.8</v>
       </c>
-      <c r="V196">
-        <v>2</v>
-      </c>
       <c r="W196">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X196">
         <v>-1</v>
@@ -17945,16 +17945,16 @@
         <v>-1</v>
       </c>
       <c r="Z196">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA196">
         <v>-1</v>
       </c>
       <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
         <v>0.8</v>
-      </c>
-      <c r="AC196">
-        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -17977,7 +17977,7 @@
         <v>39</v>
       </c>
       <c r="G197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G198" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K198">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L198">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M198">
+        <v>1.833</v>
+      </c>
+      <c r="N198">
+        <v>5.25</v>
+      </c>
+      <c r="O198">
         <v>4</v>
       </c>
-      <c r="N198">
-        <v>1.7</v>
-      </c>
-      <c r="O198">
-        <v>4.2</v>
-      </c>
       <c r="P198">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q198">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R198">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S198">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T198">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U198">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V198">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W198">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z198">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA198">
+        <v>0.4</v>
+      </c>
+      <c r="AB198">
+        <v>0.4125</v>
+      </c>
+      <c r="AC198">
         <v>-0.5</v>
-      </c>
-      <c r="AB198">
-        <v>-1</v>
-      </c>
-      <c r="AC198">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G199" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J199" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K199">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L199">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M199">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N199">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O199">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P199">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q199">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R199">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S199">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T199">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U199">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V199">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W199">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z199">
+        <v>0.425</v>
+      </c>
+      <c r="AA199">
         <v>-0.5</v>
       </c>
-      <c r="AA199">
-        <v>0.4</v>
-      </c>
       <c r="AB199">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC199">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">
@@ -18244,7 +18244,7 @@
         <v>41</v>
       </c>
       <c r="G200" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -18407,7 +18407,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7617775</v>
+        <v>7617776</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18419,73 +18419,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F202" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G202" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H202">
+        <v>4</v>
+      </c>
+      <c r="I202">
         <v>0</v>
       </c>
-      <c r="I202">
-        <v>4</v>
-      </c>
       <c r="J202" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K202">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M202">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N202">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O202">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P202">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q202">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R202">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S202">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T202">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U202">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V202">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W202">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X202">
         <v>-1</v>
       </c>
       <c r="Y202">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA202">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB202">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC202">
         <v>-1</v>
@@ -18496,7 +18496,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7617776</v>
+        <v>7617775</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18508,73 +18508,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H203">
+        <v>0</v>
+      </c>
+      <c r="I203">
         <v>4</v>
       </c>
-      <c r="I203">
-        <v>0</v>
-      </c>
       <c r="J203" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K203">
+        <v>5.5</v>
+      </c>
+      <c r="L203">
+        <v>4</v>
+      </c>
+      <c r="M203">
+        <v>1.533</v>
+      </c>
+      <c r="N203">
+        <v>5.5</v>
+      </c>
+      <c r="O203">
+        <v>3.8</v>
+      </c>
+      <c r="P203">
+        <v>1.615</v>
+      </c>
+      <c r="Q203">
+        <v>0.75</v>
+      </c>
+      <c r="R203">
+        <v>2.025</v>
+      </c>
+      <c r="S203">
+        <v>1.775</v>
+      </c>
+      <c r="T203">
         <v>2.5</v>
       </c>
-      <c r="L203">
-        <v>3.5</v>
-      </c>
-      <c r="M203">
-        <v>2.5</v>
-      </c>
-      <c r="N203">
-        <v>2.4</v>
-      </c>
-      <c r="O203">
-        <v>3.5</v>
-      </c>
-      <c r="P203">
-        <v>2.75</v>
-      </c>
-      <c r="Q203">
-        <v>0</v>
-      </c>
-      <c r="R203">
-        <v>1.825</v>
-      </c>
-      <c r="S203">
-        <v>1.975</v>
-      </c>
-      <c r="T203">
-        <v>2.75</v>
-      </c>
       <c r="U203">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X203">
         <v>-1</v>
       </c>
       <c r="Y203">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z203">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA203">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB203">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC203">
         <v>-1</v>
@@ -18674,7 +18674,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>7617778</v>
+        <v>7617833</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18686,135 +18686,76 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F205" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G205" t="s">
-        <v>29</v>
+        <v>39</v>
+      </c>
+      <c r="H205">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>3</v>
+      </c>
+      <c r="J205" t="s">
+        <v>44</v>
       </c>
       <c r="K205">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="L205">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="N205">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>3.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q205">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R205">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:29">
-      <c r="A206" s="1">
-        <v>204</v>
-      </c>
-      <c r="B206">
-        <v>7617833</v>
-      </c>
-      <c r="C206" t="s">
-        <v>28</v>
-      </c>
-      <c r="D206" t="s">
-        <v>28</v>
-      </c>
-      <c r="E206" s="2">
-        <v>45346.58333333334</v>
-      </c>
-      <c r="F206" t="s">
-        <v>41</v>
-      </c>
-      <c r="G206" t="s">
-        <v>39</v>
-      </c>
-      <c r="K206">
-        <v>3</v>
-      </c>
-      <c r="L206">
-        <v>3.75</v>
-      </c>
-      <c r="M206">
-        <v>2.05</v>
-      </c>
-      <c r="N206">
-        <v>3.1</v>
-      </c>
-      <c r="O206">
-        <v>3.8</v>
-      </c>
-      <c r="P206">
-        <v>2.15</v>
-      </c>
-      <c r="Q206">
-        <v>0.25</v>
-      </c>
-      <c r="R206">
-        <v>1.95</v>
-      </c>
-      <c r="S206">
-        <v>1.85</v>
-      </c>
-      <c r="T206">
-        <v>2.75</v>
-      </c>
-      <c r="U206">
-        <v>1.775</v>
-      </c>
-      <c r="V206">
-        <v>2.025</v>
-      </c>
-      <c r="W206">
-        <v>0</v>
-      </c>
-      <c r="X206">
-        <v>0</v>
-      </c>
-      <c r="Y206">
-        <v>0</v>
-      </c>
-      <c r="Z206">
-        <v>0</v>
-      </c>
-      <c r="AA206">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AB205">
+        <v>1</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -16449,7 +16449,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16461,76 +16461,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F180" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G180" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H180">
         <v>1</v>
       </c>
       <c r="I180">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J180" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K180">
+        <v>2</v>
+      </c>
+      <c r="L180">
         <v>3.75</v>
       </c>
-      <c r="L180">
-        <v>3.5</v>
-      </c>
       <c r="M180">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N180">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O180">
         <v>3.6</v>
       </c>
       <c r="P180">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q180">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R180">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S180">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V180">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA180">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB180">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC180">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16538,7 +16538,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16550,76 +16550,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J181" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K181">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L181">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M181">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N181">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O181">
         <v>3.6</v>
       </c>
       <c r="P181">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q181">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R181">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S181">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U181">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V181">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W181">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X181">
         <v>-1</v>
       </c>
       <c r="Y181">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z181">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA181">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB181">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -18051,7 +18051,7 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C198" t="s">
         <v>28</v>
@@ -18063,76 +18063,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G198" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H198">
         <v>1</v>
       </c>
       <c r="I198">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J198" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K198">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L198">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M198">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N198">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O198">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P198">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q198">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R198">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S198">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T198">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U198">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V198">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W198">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X198">
         <v>-1</v>
       </c>
       <c r="Y198">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z198">
+        <v>0.425</v>
+      </c>
+      <c r="AA198">
         <v>-0.5</v>
       </c>
-      <c r="AA198">
-        <v>0.4</v>
-      </c>
       <c r="AB198">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC198">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="199" spans="1:29">
@@ -18140,7 +18140,7 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C199" t="s">
         <v>28</v>
@@ -18152,76 +18152,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F199" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G199" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>1</v>
       </c>
       <c r="I199">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K199">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L199">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M199">
+        <v>1.833</v>
+      </c>
+      <c r="N199">
+        <v>5.25</v>
+      </c>
+      <c r="O199">
         <v>4</v>
       </c>
-      <c r="N199">
-        <v>1.7</v>
-      </c>
-      <c r="O199">
-        <v>4.2</v>
-      </c>
       <c r="P199">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q199">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R199">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S199">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T199">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U199">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V199">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W199">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X199">
         <v>-1</v>
       </c>
       <c r="Y199">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z199">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA199">
+        <v>0.4</v>
+      </c>
+      <c r="AB199">
+        <v>0.4125</v>
+      </c>
+      <c r="AC199">
         <v>-0.5</v>
-      </c>
-      <c r="AB199">
-        <v>-1</v>
-      </c>
-      <c r="AC199">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="200" spans="1:29">

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -103,19 +103,19 @@
     <t>Switzerland Challenge League</t>
   </si>
   <si>
-    <t>FC Thun</t>
+    <t>Neuchatel Xamax</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
+    <t>FC Thun</t>
   </si>
   <si>
     <t>Aarau</t>
   </si>
   <si>
-    <t>AC Bellinzona</t>
+    <t>FC Vaduz</t>
   </si>
   <si>
-    <t>FC Vaduz</t>
+    <t>AC Bellinzona</t>
   </si>
   <si>
     <t>Stade Nyonnais</t>
@@ -127,16 +127,16 @@
     <t>FC Sion</t>
   </si>
   <si>
+    <t>Wil 1900</t>
+  </si>
+  <si>
     <t>FC Baden</t>
   </si>
   <si>
-    <t>Wil 1900</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6811743</v>
+        <v>6811909</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,37 +613,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
         <v>1.775</v>
@@ -652,34 +652,34 @@
         <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X2">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6811909</v>
+        <v>6811743</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,37 +702,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
         <v>1.775</v>
@@ -741,34 +741,34 @@
         <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1.55</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
         <v>3.5</v>
@@ -901,31 +901,31 @@
         <v>2.4</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -934,19 +934,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="K6">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
         <v>3.5</v>
@@ -990,31 +990,31 @@
         <v>2.4</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1023,19 +1023,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>1.75</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,70 +1328,70 @@
         <v>32</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>39</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1.975</v>
+      </c>
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,70 +1417,70 @@
         <v>33</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" t="s">
         <v>40</v>
       </c>
       <c r="K11">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,10 +1500,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.615</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,76 +1589,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>1.3</v>
+        <v>2.625</v>
       </c>
       <c r="L13">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M13">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N13">
-        <v>1.333</v>
+        <v>2.625</v>
       </c>
       <c r="O13">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>8</v>
+        <v>2.6</v>
       </c>
       <c r="Q13">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
+        <v>0.875</v>
+      </c>
+      <c r="AB13">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,76 +1678,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N14">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1770,7 +1770,7 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
         <v>34</v>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -2034,10 +2034,10 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
       </c>
       <c r="H18">
         <v>4</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>3.1</v>
@@ -2123,7 +2123,7 @@
         <v>45149.63541666666</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>2.8</v>
@@ -2212,10 +2212,10 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>2.1</v>
+      </c>
+      <c r="N22">
         <v>3.6</v>
       </c>
-      <c r="M22">
-        <v>1.65</v>
-      </c>
-      <c r="N22">
-        <v>4.5</v>
-      </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P22">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y22">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2479,76 +2479,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N23">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,10 +2568,10 @@
         <v>45163.63541666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2657,10 +2657,10 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
         <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.833</v>
@@ -2835,10 +2835,10 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>1.571</v>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6811738</v>
+        <v>6811430</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,40 +2924,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N28">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R28">
         <v>1.825</v>
@@ -2966,22 +2966,22 @@
         <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y28">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
@@ -2993,7 +2993,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6811430</v>
+        <v>6811738</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,40 +3013,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
+        <v>3.5</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>1.55</v>
+      </c>
+      <c r="O29">
         <v>4.5</v>
       </c>
-      <c r="M29">
-        <v>8</v>
-      </c>
-      <c r="N29">
-        <v>1.222</v>
-      </c>
-      <c r="O29">
-        <v>6</v>
-      </c>
       <c r="P29">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3055,22 +3055,22 @@
         <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z29">
         <v>-1</v>
@@ -3082,7 +3082,7 @@
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3102,10 +3102,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3191,7 +3191,7 @@
         <v>45172.38541666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>1.75</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6811923</v>
+        <v>6811924</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,76 +3280,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K32">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="L32">
+        <v>3.5</v>
+      </c>
+      <c r="M32">
+        <v>2.9</v>
+      </c>
+      <c r="N32">
+        <v>2.375</v>
+      </c>
+      <c r="O32">
         <v>3.75</v>
       </c>
-      <c r="M32">
-        <v>1.909</v>
-      </c>
-      <c r="N32">
-        <v>2.9</v>
-      </c>
-      <c r="O32">
-        <v>3.8</v>
-      </c>
       <c r="P32">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811924</v>
+        <v>6811923</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L33">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
+        <v>1.909</v>
+      </c>
+      <c r="N33">
         <v>2.9</v>
       </c>
-      <c r="N33">
-        <v>2.375</v>
-      </c>
       <c r="O33">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z33">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>4.5</v>
@@ -3547,7 +3547,7 @@
         <v>45191.63541666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3636,7 +3636,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3728,7 +3728,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>1.833</v>
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6811433</v>
+        <v>6811736</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
         <v>37</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>39</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>3.3</v>
+      </c>
+      <c r="M39">
+        <v>2.375</v>
+      </c>
+      <c r="N39">
+        <v>2.875</v>
+      </c>
+      <c r="O39">
+        <v>3.4</v>
+      </c>
+      <c r="P39">
+        <v>2.4</v>
+      </c>
+      <c r="Q39">
+        <v>0.25</v>
+      </c>
+      <c r="R39">
+        <v>1.8</v>
+      </c>
+      <c r="S39">
         <v>2</v>
       </c>
-      <c r="J39" t="s">
-        <v>41</v>
-      </c>
-      <c r="K39">
-        <v>1.4</v>
-      </c>
-      <c r="L39">
-        <v>4.75</v>
-      </c>
-      <c r="M39">
-        <v>7.5</v>
-      </c>
-      <c r="N39">
-        <v>1.3</v>
-      </c>
-      <c r="O39">
-        <v>5.5</v>
-      </c>
-      <c r="P39">
-        <v>10</v>
-      </c>
-      <c r="Q39">
-        <v>-1.75</v>
-      </c>
-      <c r="R39">
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
         <v>1.95</v>
       </c>
-      <c r="S39">
+      <c r="V39">
         <v>1.85</v>
       </c>
-      <c r="T39">
-        <v>3.25</v>
-      </c>
-      <c r="U39">
-        <v>1.85</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB39">
-        <v>-0.5</v>
-      </c>
-      <c r="AC39">
-        <v>0.475</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6811736</v>
+        <v>6811927</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,13 +3992,13 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -4007,61 +4007,61 @@
         <v>40</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
+        <v>3.8</v>
+      </c>
+      <c r="M40">
         <v>3.3</v>
       </c>
-      <c r="M40">
-        <v>2.375</v>
-      </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,76 +4081,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L41">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M41">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N41">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O41">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P41">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q41">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R41">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
         <v>-1</v>
       </c>
       <c r="X41">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB41">
         <v>-0.5</v>
       </c>
-      <c r="AA41">
-        <v>0.4375</v>
-      </c>
-      <c r="AB41">
-        <v>-1</v>
-      </c>
       <c r="AC41">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811735</v>
+        <v>6811929</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4351,73 +4351,73 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>40</v>
       </c>
       <c r="K44">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="M44">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N44">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O44">
+        <v>3.8</v>
+      </c>
+      <c r="P44">
+        <v>2.55</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>1.9</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
         <v>3.25</v>
       </c>
-      <c r="P44">
-        <v>2.625</v>
-      </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>1.975</v>
-      </c>
-      <c r="S44">
-        <v>1.825</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811929</v>
+        <v>6811435</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,10 +4437,10 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4449,49 +4449,49 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4506,7 +4506,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4514,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4526,76 +4526,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>39</v>
       </c>
       <c r="K46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
         <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4618,7 +4618,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4707,7 +4707,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
         <v>3.5</v>
@@ -4796,7 +4796,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K49">
         <v>1.615</v>
@@ -4882,10 +4882,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
         <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>2.35</v>
@@ -4974,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5060,7 +5060,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5149,10 +5149,10 @@
         <v>45219.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,58 +5330,58 @@
         <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.8</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>3.25</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.875</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,58 +5419,58 @@
         <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>3.25</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
+        <v>3.6</v>
+      </c>
+      <c r="P56">
         <v>3.2</v>
-      </c>
-      <c r="M56">
-        <v>3.4</v>
-      </c>
-      <c r="N56">
-        <v>2.3</v>
-      </c>
-      <c r="O56">
-        <v>3.4</v>
-      </c>
-      <c r="P56">
-        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,55 +5505,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5562,19 +5562,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5582,7 +5582,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5594,55 +5594,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5651,19 +5651,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5686,7 +5686,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>1.75</v>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K60">
         <v>1.615</v>
@@ -5861,10 +5861,10 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6811731</v>
+        <v>6811939</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6811939</v>
+        <v>6811731</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N63">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6217,7 +6217,7 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>36</v>
@@ -6306,10 +6306,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67">
         <v>1.7</v>
@@ -6487,7 +6487,7 @@
         <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6496,7 +6496,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>1.571</v>
@@ -6573,10 +6573,10 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -6662,7 +6662,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
         <v>1.4</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K71">
         <v>2.625</v>
@@ -6843,7 +6843,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6852,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>3.4</v>
@@ -6932,7 +6932,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>3.5</v>
@@ -7018,10 +7018,10 @@
         <v>45254.67708333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7030,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
         <v>2.15</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
         <v>39</v>
       </c>
       <c r="K75">
+        <v>1.909</v>
+      </c>
+      <c r="L75">
         <v>3.6</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
       <c r="M75">
+        <v>3.5</v>
+      </c>
+      <c r="N75">
+        <v>1.7</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>4.75</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
         <v>1.85</v>
       </c>
-      <c r="N75">
-        <v>3.1</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.925</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
         <v>40</v>
       </c>
       <c r="K76">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
+        <v>3.75</v>
+      </c>
+      <c r="M76">
+        <v>1.85</v>
+      </c>
+      <c r="N76">
+        <v>3.1</v>
+      </c>
+      <c r="O76">
         <v>3.6</v>
       </c>
-      <c r="M76">
-        <v>3.5</v>
-      </c>
-      <c r="N76">
-        <v>1.7</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
       <c r="P76">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7285,10 +7285,10 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
         <v>1.727</v>
@@ -7377,7 +7377,7 @@
         <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>2.4</v>
@@ -7466,7 +7466,7 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>2</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K79">
         <v>1.666</v>
@@ -7552,7 +7552,7 @@
         <v>45268.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7641,10 +7641,10 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>3.5</v>
@@ -7733,7 +7733,7 @@
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>2.05</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>1.5</v>
@@ -7908,10 +7908,10 @@
         <v>45273.625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>1.55</v>
@@ -7997,7 +7997,7 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8009,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>1.95</v>
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6811450</v>
+        <v>6811949</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,10 +8086,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8098,46 +8098,46 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K86">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N86">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8146,16 +8146,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6811949</v>
+        <v>6811450</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,10 +8175,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8187,64 +8187,64 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M87">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q87">
+        <v>-1.5</v>
+      </c>
+      <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.875</v>
+      </c>
+      <c r="V87">
+        <v>1.925</v>
+      </c>
+      <c r="W87">
+        <v>0.363</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.825</v>
+      </c>
+      <c r="AB87">
+        <v>0.4375</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.9</v>
-      </c>
-      <c r="S87">
-        <v>1.9</v>
-      </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>2</v>
-      </c>
-      <c r="V87">
-        <v>1.8</v>
-      </c>
-      <c r="W87">
-        <v>0.909</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87">
-        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8264,10 +8264,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8353,10 +8353,10 @@
         <v>45277.42708333334</v>
       </c>
       <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
         <v>33</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>36</v>
@@ -8534,7 +8534,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>2</v>
@@ -8620,10 +8620,10 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>1.333</v>
@@ -8709,10 +8709,10 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K93">
         <v>3.75</v>
@@ -8798,7 +8798,7 @@
         <v>45321.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
         <v>35</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8887,7 +8887,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -8979,7 +8979,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -8988,7 +8988,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>2.55</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,58 +9065,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M97">
         <v>4.5</v>
       </c>
       <c r="N97">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
         <v>-1</v>
       </c>
       <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
         <v>1.775</v>
-      </c>
-      <c r="S97">
-        <v>2.025</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9125,16 +9125,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,58 +9154,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
         <v>4.5</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q98">
         <v>-1</v>
       </c>
       <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
         <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9214,16 +9214,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9243,10 +9243,10 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H99">
         <v>2</v>
@@ -9255,7 +9255,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99">
         <v>3.2</v>
@@ -9332,10 +9332,10 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>5</v>
@@ -9344,7 +9344,7 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K100">
         <v>2.6</v>
@@ -9510,10 +9510,10 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9602,7 +9602,7 @@
         <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H103">
         <v>1</v>
@@ -9611,7 +9611,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K103">
         <v>4.333</v>
@@ -9691,7 +9691,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9700,7 +9700,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>1.222</v>
@@ -9789,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9866,10 +9866,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>2.15</v>
@@ -9958,7 +9958,7 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10056,7 +10056,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108">
         <v>1.727</v>
@@ -10133,7 +10133,7 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
         <v>36</v>
@@ -10222,10 +10222,10 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10311,7 +10311,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10400,10 +10400,10 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
         <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10578,7 +10578,7 @@
         <v>45345.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10667,7 +10667,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10759,7 +10759,7 @@
         <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K116">
         <v>2.5</v>
@@ -10771,7 +10771,7 @@
         <v>2.5</v>
       </c>
       <c r="N116">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="O116">
         <v>3.4</v>
@@ -10783,10 +10783,10 @@
         <v>0</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T116">
         <v>2.75</v>
@@ -10833,7 +10833,7 @@
         <v>31</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K117">
         <v>2.375</v>
@@ -10904,10 +10904,10 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K118">
         <v>1.285</v>
@@ -10919,31 +10919,31 @@
         <v>7.5</v>
       </c>
       <c r="N118">
-        <v>1.285</v>
+        <v>1.333</v>
       </c>
       <c r="O118">
         <v>5.25</v>
       </c>
       <c r="P118">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q118">
         <v>-1.5</v>
       </c>
       <c r="R118">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
         <v>3.25</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
         <v>0</v>
@@ -10981,7 +10981,7 @@
         <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K119">
         <v>1.363</v>
@@ -11005,10 +11005,10 @@
         <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T119">
         <v>3.25</v>
@@ -11052,7 +11052,7 @@
         <v>45354.42708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
         <v>35</v>
@@ -11067,31 +11067,31 @@
         <v>3.5</v>
       </c>
       <c r="N120">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
       </c>
       <c r="R120">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S120">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T120">
         <v>3</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W120">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Switzerland Challenge League</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
+    <t>FC Thun</t>
   </si>
   <si>
-    <t>FC Thun</t>
+    <t>Neuchatel Xamax</t>
   </si>
   <si>
     <t>Aarau</t>
@@ -133,10 +133,10 @@
     <t>FC Baden</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC120"/>
+  <dimension ref="A1:AC121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6811909</v>
+        <v>6811743</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,37 +613,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
         <v>1.775</v>
@@ -652,34 +652,34 @@
         <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6811743</v>
+        <v>6811909</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,37 +702,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
         <v>1.775</v>
@@ -741,34 +741,34 @@
         <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X3">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>1.55</v>
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>1.75</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>1.727</v>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1500,7 +1500,7 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.615</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.3</v>
@@ -1770,7 +1770,7 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6811740</v>
+        <v>6811915</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,58 +1945,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2005,16 +2005,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6811915</v>
+        <v>6811740</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,58 +2034,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2094,16 +2094,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>2.8</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,13 +2212,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -2227,40 +2227,40 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2269,16 +2269,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,13 +2301,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -2316,40 +2316,40 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2358,16 +2358,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>3.1</v>
@@ -2571,7 +2571,7 @@
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6811429</v>
+        <v>6811919</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q25">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R25">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S25">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y25">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB25">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6811919</v>
+        <v>6811429</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L26">
         <v>3.6</v>
       </c>
       <c r="M26">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N26">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P26">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q26">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R26">
+        <v>2</v>
+      </c>
+      <c r="S26">
+        <v>1.8</v>
+      </c>
+      <c r="T26">
+        <v>3</v>
+      </c>
+      <c r="U26">
         <v>1.925</v>
       </c>
-      <c r="S26">
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="T26">
-        <v>3.25</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.825</v>
-      </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA26">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC26">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.571</v>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
         <v>1.3</v>
@@ -3102,7 +3102,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>1.75</v>
@@ -3283,7 +3283,7 @@
         <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32">
         <v>2.15</v>
@@ -3470,7 +3470,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
         <v>4.5</v>
@@ -3547,7 +3547,7 @@
         <v>45191.63541666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>1.833</v>
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6811736</v>
+        <v>6811927</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,13 +3903,13 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3918,61 +3918,61 @@
         <v>39</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
         <v>3.3</v>
       </c>
-      <c r="M39">
-        <v>2.375</v>
-      </c>
       <c r="N39">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L40">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z40">
+        <v>-1</v>
+      </c>
+      <c r="AA40">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB40">
         <v>-0.5</v>
       </c>
-      <c r="AA40">
-        <v>0.4375</v>
-      </c>
-      <c r="AB40">
-        <v>-1</v>
-      </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6811433</v>
+        <v>6811736</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,76 +4081,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>3.3</v>
+      </c>
+      <c r="M41">
+        <v>2.375</v>
+      </c>
+      <c r="N41">
+        <v>2.875</v>
+      </c>
+      <c r="O41">
+        <v>3.4</v>
+      </c>
+      <c r="P41">
+        <v>2.4</v>
+      </c>
+      <c r="Q41">
+        <v>0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41">
-        <v>1.4</v>
-      </c>
-      <c r="L41">
-        <v>4.75</v>
-      </c>
-      <c r="M41">
-        <v>7.5</v>
-      </c>
-      <c r="N41">
-        <v>1.3</v>
-      </c>
-      <c r="O41">
-        <v>5.5</v>
-      </c>
-      <c r="P41">
-        <v>10</v>
-      </c>
-      <c r="Q41">
-        <v>-1.75</v>
-      </c>
-      <c r="R41">
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
         <v>1.95</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.85</v>
       </c>
-      <c r="T41">
-        <v>3.25</v>
-      </c>
-      <c r="U41">
-        <v>1.85</v>
-      </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB41">
-        <v>-0.5</v>
-      </c>
-      <c r="AC41">
-        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4259,7 +4259,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -4351,7 +4351,7 @@
         <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>2.45</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K45">
         <v>2.5</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
         <v>2.75</v>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>1.8</v>
@@ -4716,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>3.5</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K49">
         <v>1.615</v>
@@ -4882,10 +4882,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
         <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>2.35</v>
@@ -5060,7 +5060,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5152,7 +5152,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,61 +5327,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
+        <v>3.25</v>
+      </c>
+      <c r="M55">
+        <v>3.25</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
+        <v>3.6</v>
+      </c>
+      <c r="P55">
         <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>3.4</v>
-      </c>
-      <c r="N55">
-        <v>2.3</v>
-      </c>
-      <c r="O55">
-        <v>3.4</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,61 +5416,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.8</v>
+      </c>
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>3.25</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,55 +5505,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P57">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5562,19 +5562,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5582,7 +5582,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5594,55 +5594,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5651,19 +5651,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5686,7 +5686,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
         <v>1.75</v>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60">
         <v>1.615</v>
@@ -5861,7 +5861,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6811939</v>
+        <v>6811731</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M62">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N62">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O62">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P62">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6811731</v>
+        <v>6811939</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N63">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P63">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q63">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,10 +6217,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6232,25 +6232,25 @@
         <v>41</v>
       </c>
       <c r="K65">
+        <v>1.4</v>
+      </c>
+      <c r="L65">
+        <v>4.5</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>1.533</v>
+      </c>
+      <c r="O65">
         <v>4.75</v>
       </c>
-      <c r="L65">
-        <v>3.8</v>
-      </c>
-      <c r="M65">
-        <v>1.615</v>
-      </c>
-      <c r="N65">
-        <v>6.5</v>
-      </c>
-      <c r="O65">
-        <v>4.333</v>
-      </c>
       <c r="P65">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6259,7 +6259,7 @@
         <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6274,19 +6274,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
+        <v>-0.5</v>
+      </c>
+      <c r="AC65">
         <v>0.45</v>
-      </c>
-      <c r="AC65">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6306,10 +6306,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6321,25 +6321,25 @@
         <v>41</v>
       </c>
       <c r="K66">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L66">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N66">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6348,7 +6348,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.9</v>
@@ -6363,19 +6363,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
+        <v>0.45</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="AC66">
-        <v>0.45</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.7</v>
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6811443</v>
+        <v>6811442</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,73 +6484,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O68">
         <v>4.333</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6811442</v>
+        <v>6811443</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,73 +6573,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K69">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N69">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
         <v>4.333</v>
       </c>
       <c r="P69">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y69">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6662,7 +6662,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>1.4</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K71">
         <v>2.625</v>
@@ -6843,7 +6843,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6852,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>3.4</v>
@@ -6932,7 +6932,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
         <v>3.5</v>
@@ -7030,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2.15</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
         <v>39</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.85</v>
+      </c>
+      <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
         <v>3.6</v>
       </c>
-      <c r="M75">
-        <v>3.5</v>
-      </c>
-      <c r="N75">
-        <v>1.7</v>
-      </c>
-      <c r="O75">
-        <v>4</v>
-      </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
         <v>40</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
         <v>3.6</v>
       </c>
-      <c r="L76">
-        <v>3.75</v>
-      </c>
       <c r="M76">
+        <v>3.5</v>
+      </c>
+      <c r="N76">
+        <v>1.7</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>4.75</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
         <v>1.85</v>
       </c>
-      <c r="N76">
-        <v>3.1</v>
-      </c>
-      <c r="O76">
-        <v>3.6</v>
-      </c>
-      <c r="P76">
-        <v>2.2</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
+      <c r="S76">
+        <v>1.95</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7285,7 +7285,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>1.727</v>
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6811727</v>
+        <v>6811447</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,58 +7374,58 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O78">
         <v>3.8</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7434,7 +7434,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7443,7 +7443,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6811447</v>
+        <v>6811727</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7463,58 +7463,58 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K79">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O79">
         <v>3.8</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7523,7 +7523,7 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7532,7 +7532,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>45268.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7644,7 +7644,7 @@
         <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>3.5</v>
@@ -7742,7 +7742,7 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
         <v>2.05</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>1.5</v>
@@ -7908,7 +7908,7 @@
         <v>45273.625</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>1.55</v>
@@ -8009,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>1.95</v>
@@ -8086,7 +8086,7 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K86">
         <v>1.95</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.363</v>
@@ -8267,7 +8267,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
         <v>3.75</v>
       </c>
-      <c r="L90">
-        <v>3.5</v>
-      </c>
       <c r="M90">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
         <v>3.6</v>
       </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>1.333</v>
@@ -8712,7 +8712,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93">
         <v>3.75</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8988,7 +8988,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>2.55</v>
@@ -9065,7 +9065,7 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>1.615</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>1.7</v>
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,73 +9243,73 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H99">
+        <v>5</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99" t="s">
+        <v>40</v>
+      </c>
+      <c r="K99">
+        <v>2.6</v>
+      </c>
+      <c r="L99">
+        <v>3.4</v>
+      </c>
+      <c r="M99">
+        <v>2.5</v>
+      </c>
+      <c r="N99">
+        <v>2.75</v>
+      </c>
+      <c r="O99">
+        <v>3.4</v>
+      </c>
+      <c r="P99">
+        <v>2.55</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="R99">
         <v>2</v>
       </c>
-      <c r="I99">
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.975</v>
+      </c>
+      <c r="V99">
+        <v>1.825</v>
+      </c>
+      <c r="W99">
+        <v>1.75</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
         <v>1</v>
       </c>
-      <c r="J99" t="s">
-        <v>39</v>
-      </c>
-      <c r="K99">
-        <v>3.2</v>
-      </c>
-      <c r="L99">
-        <v>3.5</v>
-      </c>
-      <c r="M99">
-        <v>2.1</v>
-      </c>
-      <c r="N99">
-        <v>3.6</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>2.05</v>
-      </c>
-      <c r="Q99">
-        <v>0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.8</v>
-      </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-      <c r="V99">
-        <v>1.8</v>
-      </c>
-      <c r="W99">
-        <v>2.6</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8</v>
-      </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,59 +9332,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
+        <v>3.2</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.1</v>
+      </c>
+      <c r="N100">
+        <v>3.6</v>
+      </c>
+      <c r="O100">
+        <v>3.5</v>
+      </c>
+      <c r="P100">
+        <v>2.05</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>1.8</v>
+      </c>
+      <c r="W100">
         <v>2.6</v>
       </c>
-      <c r="L100">
-        <v>3.4</v>
-      </c>
-      <c r="M100">
-        <v>2.5</v>
-      </c>
-      <c r="N100">
-        <v>2.75</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>1.75</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
@@ -9392,13 +9392,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.8</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>1</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9510,7 +9510,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>33</v>
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,13 +9599,13 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -9614,34 +9614,34 @@
         <v>40</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M103">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N103">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P103">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
         <v>1.9</v>
@@ -9650,25 +9650,25 @@
         <v>1.9</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -9703,34 +9703,34 @@
         <v>39</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O104">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
         <v>1.9</v>
@@ -9739,25 +9739,25 @@
         <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>2.15</v>
@@ -9958,7 +9958,7 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,76 +10044,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
+        <v>1.833</v>
+      </c>
+      <c r="N108">
+        <v>5.25</v>
+      </c>
+      <c r="O108">
         <v>4</v>
       </c>
-      <c r="N108">
-        <v>1.7</v>
-      </c>
-      <c r="O108">
-        <v>4.2</v>
-      </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z108">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
+        <v>0.4</v>
+      </c>
+      <c r="AB108">
+        <v>0.4125</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,76 +10133,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M109">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.425</v>
+      </c>
+      <c r="AA109">
         <v>-0.5</v>
       </c>
-      <c r="AA109">
-        <v>0.4</v>
-      </c>
       <c r="AB109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10400,10 +10400,10 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F112" t="s">
+        <v>30</v>
+      </c>
+      <c r="G112" t="s">
         <v>29</v>
-      </c>
-      <c r="G112" t="s">
-        <v>30</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10744,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7617779</v>
+        <v>7884733</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10753,34 +10753,43 @@
         <v>28</v>
       </c>
       <c r="E116" s="2">
-        <v>45352.64583333334</v>
+        <v>45350.60416666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G116" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="H116">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116" t="s">
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L116">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="N116">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q116">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
         <v>1.925</v>
@@ -10792,25 +10801,31 @@
         <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>0.8</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10818,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7617780</v>
+        <v>7617779</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10827,49 +10842,49 @@
         <v>28</v>
       </c>
       <c r="E117" s="2">
-        <v>45352.67708333334</v>
+        <v>45352.64583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="K117">
-        <v>2.375</v>
+        <v>2.5</v>
       </c>
       <c r="L117">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
+        <v>2.5</v>
+      </c>
+      <c r="N117">
+        <v>2.7</v>
+      </c>
+      <c r="O117">
+        <v>3.4</v>
+      </c>
+      <c r="P117">
         <v>2.6</v>
       </c>
-      <c r="N117">
-        <v>2.375</v>
-      </c>
-      <c r="O117">
-        <v>3.5</v>
-      </c>
-      <c r="P117">
-        <v>2.625</v>
-      </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S117">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
         <v>0</v>
@@ -10892,7 +10907,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7617781</v>
+        <v>7617780</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10901,49 +10916,49 @@
         <v>28</v>
       </c>
       <c r="E118" s="2">
-        <v>45353.58333333334</v>
+        <v>45352.67708333334</v>
       </c>
       <c r="F118" t="s">
+        <v>31</v>
+      </c>
+      <c r="G118" t="s">
         <v>30</v>
       </c>
-      <c r="G118" t="s">
-        <v>38</v>
-      </c>
       <c r="K118">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="L118">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M118">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="O118">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P118">
-        <v>7</v>
+        <v>2.8</v>
       </c>
       <c r="Q118">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
         <v>0</v>
@@ -10966,7 +10981,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7617783</v>
+        <v>7617781</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -10975,31 +10990,31 @@
         <v>28</v>
       </c>
       <c r="E119" s="2">
-        <v>45354.42708333334</v>
+        <v>45353.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K119">
-        <v>1.363</v>
+        <v>1.285</v>
       </c>
       <c r="L119">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="M119">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="N119">
         <v>1.333</v>
       </c>
       <c r="O119">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="P119">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="Q119">
         <v>-1.5</v>
@@ -11014,10 +11029,10 @@
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -11067,31 +11082,31 @@
         <v>3.5</v>
       </c>
       <c r="N120">
+        <v>2.05</v>
+      </c>
+      <c r="O120">
+        <v>3.6</v>
+      </c>
+      <c r="P120">
+        <v>3.5</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2</v>
-      </c>
-      <c r="O120">
-        <v>3.5</v>
-      </c>
-      <c r="P120">
-        <v>3.3</v>
-      </c>
-      <c r="Q120">
-        <v>-0.5</v>
-      </c>
-      <c r="R120">
-        <v>2.025</v>
-      </c>
-      <c r="S120">
-        <v>1.775</v>
       </c>
       <c r="T120">
         <v>3</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -11106,6 +11121,80 @@
         <v>0</v>
       </c>
       <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7617783</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45354.42708333334</v>
+      </c>
+      <c r="F121" t="s">
+        <v>36</v>
+      </c>
+      <c r="G121" t="s">
+        <v>33</v>
+      </c>
+      <c r="K121">
+        <v>1.363</v>
+      </c>
+      <c r="L121">
+        <v>4.75</v>
+      </c>
+      <c r="M121">
+        <v>6.5</v>
+      </c>
+      <c r="N121">
+        <v>1.363</v>
+      </c>
+      <c r="O121">
+        <v>5</v>
+      </c>
+      <c r="P121">
+        <v>8.5</v>
+      </c>
+      <c r="Q121">
+        <v>-1.5</v>
+      </c>
+      <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
+        <v>1.825</v>
+      </c>
+      <c r="T121">
+        <v>3</v>
+      </c>
+      <c r="U121">
+        <v>1.9</v>
+      </c>
+      <c r="V121">
+        <v>1.9</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Switzerland Challenge League</t>
   </si>
   <si>
-    <t>FC Thun</t>
+    <t>Neuchatel Xamax</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
+    <t>FC Thun</t>
   </si>
   <si>
     <t>Aarau</t>
@@ -127,16 +127,16 @@
     <t>FC Sion</t>
   </si>
   <si>
+    <t>FC Baden</t>
+  </si>
+  <si>
     <t>Wil 1900</t>
   </si>
   <si>
-    <t>FC Baden</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6811743</v>
+        <v>6811909</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,37 +613,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N2">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O2">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q2">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
         <v>1.775</v>
@@ -652,34 +652,34 @@
         <v>2.025</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X2">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC2">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6811909</v>
+        <v>6811743</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,37 +702,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P3">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R3">
         <v>1.775</v>
@@ -741,34 +741,34 @@
         <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V3">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K4">
         <v>1.55</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>1.75</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,73 +1325,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,73 +1414,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>39</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1.975</v>
+      </c>
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.85</v>
-      </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,10 +1500,10 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.615</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,76 +1589,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K13">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M13">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N13">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P13">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,76 +1678,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>2.625</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>2.3</v>
+      </c>
+      <c r="N14">
+        <v>2.625</v>
+      </c>
+      <c r="O14">
+        <v>3.5</v>
+      </c>
+      <c r="P14">
+        <v>2.6</v>
+      </c>
+      <c r="Q14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>1.3</v>
-      </c>
-      <c r="L14">
-        <v>5.25</v>
-      </c>
-      <c r="M14">
-        <v>7.5</v>
-      </c>
-      <c r="N14">
-        <v>1.333</v>
-      </c>
-      <c r="O14">
-        <v>5.5</v>
-      </c>
-      <c r="P14">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>-1.5</v>
-      </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.875</v>
+      </c>
+      <c r="AB14">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,76 +1856,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N16">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,10 +1945,10 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
         <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>29</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K17">
         <v>3.1</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>45149.63541666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>2.8</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,13 +2212,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -2227,40 +2227,40 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2269,16 +2269,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,13 +2301,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -2316,40 +2316,40 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2358,16 +2358,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2402,7 +2402,7 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
         <v>3.1</v>
@@ -2571,7 +2571,7 @@
         <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6811919</v>
+        <v>6811429</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="L25">
         <v>3.6</v>
       </c>
       <c r="M25">
-        <v>3.6</v>
+        <v>1.75</v>
       </c>
       <c r="N25">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P25">
-        <v>2.9</v>
+        <v>1.65</v>
       </c>
       <c r="Q25">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1.8</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
         <v>1.925</v>
       </c>
-      <c r="S25">
+      <c r="V25">
         <v>1.875</v>
       </c>
-      <c r="T25">
-        <v>3.25</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.825</v>
-      </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA25">
-        <v>0.4375</v>
+        <v>0.8</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC25">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6811429</v>
+        <v>6811919</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1.833</v>
       </c>
       <c r="L26">
         <v>3.6</v>
       </c>
       <c r="M26">
-        <v>1.75</v>
+        <v>3.6</v>
       </c>
       <c r="N26">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="O26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>1.65</v>
+        <v>2.9</v>
       </c>
       <c r="Q26">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T26">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y26">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>0.8</v>
+        <v>0.4375</v>
       </c>
       <c r="AB26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2835,7 +2835,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K27">
         <v>1.571</v>
@@ -2927,7 +2927,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -2936,7 +2936,7 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
         <v>1.3</v>
@@ -3102,10 +3102,10 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
         <v>1.75</v>
@@ -3280,10 +3280,10 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3292,7 +3292,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32">
         <v>2.15</v>
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33">
+        <v>4.5</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33">
-        <v>3.25</v>
-      </c>
-      <c r="L33">
-        <v>3.75</v>
-      </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6811431</v>
+        <v>6811923</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,76 +3458,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N34">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z34">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3547,7 +3547,7 @@
         <v>45191.63541666666</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3636,7 +3636,7 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>34</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>1.833</v>
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
         <v>2.05</v>
@@ -3992,10 +3992,10 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
         <v>3</v>
@@ -4170,7 +4170,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4259,7 +4259,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811929</v>
+        <v>6811435</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,10 +4348,10 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4360,49 +4360,49 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="L44">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O44">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.55</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V44">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4417,7 +4417,7 @@
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,76 +4437,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>39</v>
       </c>
       <c r="K45">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
         <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4514,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6811735</v>
+        <v>6811929</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4526,76 +4526,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>40</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>2.45</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N46">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4615,76 +4615,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>39</v>
       </c>
       <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>3.9</v>
+      </c>
+      <c r="M47">
         <v>1.8</v>
       </c>
-      <c r="L47">
-        <v>3.6</v>
-      </c>
-      <c r="M47">
-        <v>3.9</v>
-      </c>
       <c r="N47">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>3</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,76 +4704,76 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>40</v>
       </c>
       <c r="K48">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
+        <v>3.6</v>
+      </c>
+      <c r="M48">
         <v>3.9</v>
       </c>
-      <c r="M48">
-        <v>1.8</v>
-      </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O48">
         <v>3.8</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4796,7 +4796,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K49">
         <v>1.615</v>
@@ -4882,10 +4882,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50" t="s">
         <v>29</v>
-      </c>
-      <c r="G50" t="s">
-        <v>30</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>2.35</v>
@@ -5060,7 +5060,7 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5149,10 +5149,10 @@
         <v>45219.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5238,7 +5238,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5339,7 +5339,7 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>2.1</v>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>2.05</v>
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,55 +5505,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5562,19 +5562,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5582,7 +5582,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5594,55 +5594,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5651,19 +5651,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5686,7 +5686,7 @@
         <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -5695,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
         <v>1.75</v>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K60">
         <v>1.615</v>
@@ -5861,7 +5861,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -5962,7 +5962,7 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K62">
         <v>2.25</v>
@@ -6039,10 +6039,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6051,7 +6051,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K63">
         <v>2</v>
@@ -6131,7 +6131,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,10 +6217,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6232,25 +6232,25 @@
         <v>41</v>
       </c>
       <c r="K65">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M65">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N65">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6259,7 +6259,7 @@
         <v>1.825</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6274,19 +6274,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
+        <v>0.45</v>
+      </c>
+      <c r="AC65">
         <v>-0.5</v>
-      </c>
-      <c r="AC65">
-        <v>0.45</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6306,10 +6306,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6321,25 +6321,25 @@
         <v>41</v>
       </c>
       <c r="K66">
+        <v>1.4</v>
+      </c>
+      <c r="L66">
+        <v>4.5</v>
+      </c>
+      <c r="M66">
+        <v>7</v>
+      </c>
+      <c r="N66">
+        <v>1.533</v>
+      </c>
+      <c r="O66">
         <v>4.75</v>
       </c>
-      <c r="L66">
-        <v>3.8</v>
-      </c>
-      <c r="M66">
-        <v>1.615</v>
-      </c>
-      <c r="N66">
-        <v>6.5</v>
-      </c>
-      <c r="O66">
-        <v>4.333</v>
-      </c>
       <c r="P66">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6348,7 +6348,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
         <v>1.9</v>
@@ -6363,19 +6363,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
+        <v>-0.5</v>
+      </c>
+      <c r="AC66">
         <v>0.45</v>
-      </c>
-      <c r="AC66">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K67">
         <v>1.7</v>
@@ -6484,10 +6484,10 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -6662,7 +6662,7 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
         <v>35</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K70">
         <v>1.4</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K71">
         <v>2.625</v>
@@ -6843,7 +6843,7 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>3</v>
@@ -6852,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>3.4</v>
@@ -6932,7 +6932,7 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -6941,7 +6941,7 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
         <v>3.5</v>
@@ -7021,7 +7021,7 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7030,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
         <v>2.15</v>
@@ -7119,7 +7119,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>3.6</v>
@@ -7199,7 +7199,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H76">
         <v>3</v>
@@ -7208,7 +7208,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>1.909</v>
@@ -7285,7 +7285,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
         <v>32</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K77">
         <v>1.727</v>
@@ -7377,7 +7377,7 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K78">
         <v>1.666</v>
@@ -7475,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K79">
         <v>2.4</v>
@@ -7552,7 +7552,7 @@
         <v>45268.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,76 +7641,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
         <v>40</v>
       </c>
       <c r="K81">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
         <v>3.5</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N81">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,76 +7730,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>39</v>
       </c>
       <c r="K82">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L82">
         <v>3.5</v>
       </c>
       <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3.4</v>
+      </c>
+      <c r="O82">
         <v>3.3</v>
       </c>
-      <c r="N82">
+      <c r="P82">
+        <v>2.15</v>
+      </c>
+      <c r="Q82">
+        <v>0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
         <v>1.85</v>
       </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>4</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>1.9</v>
-      </c>
-      <c r="S82">
-        <v>1.9</v>
-      </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>1.5</v>
@@ -7908,7 +7908,7 @@
         <v>45273.625</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G84" t="s">
         <v>33</v>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K84">
         <v>1.55</v>
@@ -7997,7 +7997,7 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>34</v>
@@ -8009,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K85">
         <v>1.95</v>
@@ -8086,7 +8086,7 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
@@ -8098,7 +8098,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K86">
         <v>1.95</v>
@@ -8187,7 +8187,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>1.363</v>
@@ -8264,10 +8264,10 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8454,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K90">
         <v>2</v>
@@ -8531,7 +8531,7 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G91" t="s">
         <v>36</v>
@@ -8620,10 +8620,10 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K92">
         <v>1.333</v>
@@ -8712,7 +8712,7 @@
         <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K93">
         <v>3.75</v>
@@ -8798,7 +8798,7 @@
         <v>45321.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
         <v>35</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8887,7 +8887,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -8979,7 +8979,7 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -8988,7 +8988,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>2.55</v>
@@ -9065,7 +9065,7 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K97">
         <v>1.615</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>1.7</v>
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,59 +9243,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K99">
+        <v>3.2</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.1</v>
+      </c>
+      <c r="N99">
+        <v>3.6</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
+        <v>2.05</v>
+      </c>
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
         <v>2.6</v>
       </c>
-      <c r="L99">
-        <v>3.4</v>
-      </c>
-      <c r="M99">
-        <v>2.5</v>
-      </c>
-      <c r="N99">
-        <v>2.75</v>
-      </c>
-      <c r="O99">
-        <v>3.4</v>
-      </c>
-      <c r="P99">
-        <v>2.55</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>2</v>
-      </c>
-      <c r="S99">
-        <v>1.8</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>1.75</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
@@ -9303,13 +9303,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.8</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>1</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,73 +9332,73 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>39</v>
+      </c>
+      <c r="K100">
+        <v>2.6</v>
+      </c>
+      <c r="L100">
+        <v>3.4</v>
+      </c>
+      <c r="M100">
+        <v>2.5</v>
+      </c>
+      <c r="N100">
+        <v>2.75</v>
+      </c>
+      <c r="O100">
+        <v>3.4</v>
+      </c>
+      <c r="P100">
+        <v>2.55</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="I100">
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
+        <v>1.825</v>
+      </c>
+      <c r="W100">
+        <v>1.75</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>40</v>
-      </c>
-      <c r="K100">
-        <v>3.2</v>
-      </c>
-      <c r="L100">
-        <v>3.5</v>
-      </c>
-      <c r="M100">
-        <v>2.1</v>
-      </c>
-      <c r="N100">
-        <v>3.6</v>
-      </c>
-      <c r="O100">
-        <v>3.5</v>
-      </c>
-      <c r="P100">
-        <v>2.05</v>
-      </c>
-      <c r="Q100">
-        <v>0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2</v>
-      </c>
-      <c r="V100">
-        <v>1.8</v>
-      </c>
-      <c r="W100">
-        <v>2.6</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0.8</v>
-      </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9510,7 +9510,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>33</v>
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,13 +9599,13 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -9614,34 +9614,34 @@
         <v>40</v>
       </c>
       <c r="K103">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N103">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O103">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
         <v>1.9</v>
@@ -9650,25 +9650,25 @@
         <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -9703,34 +9703,34 @@
         <v>39</v>
       </c>
       <c r="K104">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N104">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P104">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
         <v>1.9</v>
@@ -9739,25 +9739,25 @@
         <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
         <v>1.727</v>
@@ -9866,7 +9866,7 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K106">
         <v>2.15</v>
@@ -9958,7 +9958,7 @@
         <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,76 +10044,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M108">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N108">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
+        <v>0.425</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="AA108">
-        <v>0.4</v>
-      </c>
       <c r="AB108">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,76 +10133,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K109">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
+        <v>1.833</v>
+      </c>
+      <c r="N109">
+        <v>5.25</v>
+      </c>
+      <c r="O109">
         <v>4</v>
       </c>
-      <c r="N109">
-        <v>1.7</v>
-      </c>
-      <c r="O109">
-        <v>4.2</v>
-      </c>
       <c r="P109">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z109">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
+        <v>0.4</v>
+      </c>
+      <c r="AB109">
+        <v>0.4125</v>
+      </c>
+      <c r="AC109">
         <v>-0.5</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10225,7 +10225,7 @@
         <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10234,7 +10234,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>2.45</v>
@@ -10311,7 +10311,7 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -10400,10 +10400,10 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F112" t="s">
+        <v>29</v>
+      </c>
+      <c r="G112" t="s">
         <v>30</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
       </c>
       <c r="H112">
         <v>4</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K112">
         <v>2.5</v>
@@ -10578,7 +10578,7 @@
         <v>45345.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10667,7 +10667,7 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
         <v>34</v>
@@ -10848,7 +10848,16 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117" t="s">
+        <v>40</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10860,46 +10869,52 @@
         <v>2.5</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="O117">
         <v>3.4</v>
       </c>
       <c r="P117">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q117">
         <v>0</v>
       </c>
       <c r="R117">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T117">
         <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V117">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
         <v>0</v>
       </c>
       <c r="AA117">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10922,7 +10937,16 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>39</v>
       </c>
       <c r="K118">
         <v>2.375</v>
@@ -10934,46 +10958,52 @@
         <v>2.6</v>
       </c>
       <c r="N118">
-        <v>2.45</v>
+        <v>2.625</v>
       </c>
       <c r="O118">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P118">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="Q118">
         <v>0</v>
       </c>
       <c r="R118">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>1.625</v>
       </c>
       <c r="X118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>-1</v>
+      </c>
+      <c r="AC118">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -10993,10 +11023,10 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K119">
         <v>1.285</v>
@@ -11008,31 +11038,31 @@
         <v>7.5</v>
       </c>
       <c r="N119">
-        <v>1.333</v>
+        <v>1.363</v>
       </c>
       <c r="O119">
         <v>5.5</v>
       </c>
       <c r="P119">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Q119">
         <v>-1.5</v>
       </c>
       <c r="R119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S119">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
         <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W119">
         <v>0</v>
@@ -11091,22 +11121,22 @@
         <v>3.5</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
-      </c>
-      <c r="S120">
-        <v>2</v>
       </c>
       <c r="T120">
         <v>3</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -11168,19 +11198,19 @@
         <v>-1.5</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T121">
         <v>3</v>
       </c>
       <c r="U121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W121">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Aarau</t>
   </si>
   <si>
+    <t>AC Bellinzona</t>
+  </si>
+  <si>
     <t>FC Vaduz</t>
   </si>
   <si>
-    <t>AC Bellinzona</t>
+    <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>Stade Nyonnais</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
-  </si>
-  <si>
     <t>FC Sion</t>
   </si>
   <si>
-    <t>FC Baden</t>
+    <t>Wil 1900</t>
   </si>
   <si>
-    <t>Wil 1900</t>
+    <t>FC Baden</t>
   </si>
   <si>
     <t>H</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
         <v>3.5</v>
@@ -901,31 +901,31 @@
         <v>2.4</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -934,19 +934,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L6">
         <v>3.5</v>
@@ -990,31 +990,31 @@
         <v>2.4</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1023,19 +1023,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,43 +1058,43 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
         <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -1109,16 +1109,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,43 +1147,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
         <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,70 +1328,70 @@
         <v>33</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1.975</v>
+      </c>
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,70 +1417,70 @@
         <v>32</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11">
-        <v>1.727</v>
-      </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,76 +1589,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
+        <v>3</v>
+      </c>
+      <c r="J13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13">
+        <v>2.625</v>
+      </c>
+      <c r="L13">
+        <v>3.6</v>
+      </c>
+      <c r="M13">
+        <v>2.3</v>
+      </c>
+      <c r="N13">
+        <v>2.625</v>
+      </c>
+      <c r="O13">
+        <v>3.5</v>
+      </c>
+      <c r="P13">
+        <v>2.6</v>
+      </c>
+      <c r="Q13">
         <v>0</v>
       </c>
-      <c r="J13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13">
-        <v>1.3</v>
-      </c>
-      <c r="L13">
-        <v>5.25</v>
-      </c>
-      <c r="M13">
-        <v>7.5</v>
-      </c>
-      <c r="N13">
-        <v>1.333</v>
-      </c>
-      <c r="O13">
-        <v>5.5</v>
-      </c>
-      <c r="P13">
-        <v>8</v>
-      </c>
-      <c r="Q13">
-        <v>-1.5</v>
-      </c>
       <c r="R13">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W13">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
+        <v>0.875</v>
+      </c>
+      <c r="AB13">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
       <c r="AC13">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,76 +1678,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L14">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N14">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P14">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S14">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V14">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1767,10 +1767,10 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6811915</v>
+        <v>6811740</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,58 +1945,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M17">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N17">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O17">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W17">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2005,16 +2005,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6811740</v>
+        <v>6811915</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,58 +2034,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L18">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q18">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S18">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2094,16 +2094,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC18">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>45149.63541666666</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,13 +2212,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -2227,40 +2227,40 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L20">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M20">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N20">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2269,16 +2269,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB20">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,13 +2301,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -2316,40 +2316,40 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M21">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N21">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q21">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2358,16 +2358,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2390,7 +2390,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2479,7 +2479,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2568,7 +2568,7 @@
         <v>45163.63541666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -2657,10 +2657,10 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
         <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2838,7 +2838,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2927,7 +2927,7 @@
         <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -3016,7 +3016,7 @@
         <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3191,10 +3191,10 @@
         <v>45172.38541666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3280,7 +3280,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
         <v>29</v>
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811431</v>
+        <v>6811923</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,76 +3458,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>40</v>
+      </c>
+      <c r="K34">
+        <v>4.5</v>
+      </c>
+      <c r="L34">
         <v>4</v>
       </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34">
-        <v>3.25</v>
-      </c>
-      <c r="L34">
-        <v>3.75</v>
-      </c>
       <c r="M34">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N34">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O34">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P34">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R34">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y34">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3636,10 +3636,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3728,7 +3728,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3903,10 +3903,10 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>29</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4081,10 +4081,10 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4170,7 +4170,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,7 +4348,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4357,67 +4357,67 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
         <v>2.7</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,7 +4437,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4446,67 +4446,67 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
         <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4618,73 +4618,73 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
         <v>3.9</v>
       </c>
-      <c r="M47">
-        <v>1.8</v>
-      </c>
       <c r="N47">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>3</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4707,73 +4707,73 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
+        <v>3.5</v>
+      </c>
+      <c r="L48">
+        <v>3.9</v>
+      </c>
+      <c r="M48">
         <v>1.8</v>
       </c>
-      <c r="L48">
-        <v>3.6</v>
-      </c>
-      <c r="M48">
-        <v>3.9</v>
-      </c>
       <c r="N48">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O48">
         <v>3.8</v>
       </c>
       <c r="P48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X48">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4796,7 +4796,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>45219.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5238,7 +5238,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,58 +5330,58 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>40</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.8</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>3.25</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.875</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,58 +5419,58 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>40</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>3.25</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
+        <v>3.6</v>
+      </c>
+      <c r="P56">
         <v>3.2</v>
-      </c>
-      <c r="M56">
-        <v>3.4</v>
-      </c>
-      <c r="N56">
-        <v>2.3</v>
-      </c>
-      <c r="O56">
-        <v>3.4</v>
-      </c>
-      <c r="P56">
-        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5505,10 +5505,10 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5594,10 +5594,10 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
+        <v>37</v>
+      </c>
+      <c r="G58" t="s">
         <v>38</v>
-      </c>
-      <c r="G58" t="s">
-        <v>37</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,76 +5683,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N59">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
         <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,76 +5772,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N60">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q60">
         <v>-0.75</v>
       </c>
       <c r="R60">
+        <v>1.925</v>
+      </c>
+      <c r="S60">
+        <v>1.875</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
         <v>1.85</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA60">
+        <v>-0.5</v>
+      </c>
+      <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.95</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
-      <c r="AC60">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5864,7 +5864,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6811731</v>
+        <v>6811939</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,76 +5950,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>40</v>
       </c>
       <c r="K62">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L62">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="N62">
-        <v>2.375</v>
+        <v>1.615</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P62">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="S62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="T62">
         <v>2.75</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V62">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>0.375</v>
+        <v>1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6811939</v>
+        <v>6811731</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,76 +6039,76 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>40</v>
       </c>
       <c r="K63">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>3.25</v>
+        <v>2.8</v>
       </c>
       <c r="N63">
-        <v>1.615</v>
+        <v>2.375</v>
       </c>
       <c r="O63">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q63">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R63">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="T63">
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB63">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
         <v>36</v>
@@ -6306,10 +6306,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6811442</v>
+        <v>6811443</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,73 +6484,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K68">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N68">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O68">
         <v>4.333</v>
       </c>
       <c r="P68">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q68">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S68">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V68">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y68">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6811443</v>
+        <v>6811442</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,73 +6573,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M69">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N69">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O69">
         <v>4.333</v>
       </c>
       <c r="P69">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R69">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S69">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB69">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6665,7 +6665,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>45242.42708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,70 +6843,70 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O72">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
         <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,70 +6932,70 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q73">
         <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X73">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7018,10 +7018,10 @@
         <v>45254.67708333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
+        <v>1.909</v>
+      </c>
+      <c r="L75">
         <v>3.6</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
       <c r="M75">
+        <v>3.5</v>
+      </c>
+      <c r="N75">
+        <v>1.7</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>4.75</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
         <v>1.85</v>
       </c>
-      <c r="N75">
-        <v>3.1</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.925</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
+        <v>3.75</v>
+      </c>
+      <c r="M76">
+        <v>1.85</v>
+      </c>
+      <c r="N76">
+        <v>3.1</v>
+      </c>
+      <c r="O76">
         <v>3.6</v>
       </c>
-      <c r="M76">
-        <v>3.5</v>
-      </c>
-      <c r="N76">
-        <v>1.7</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
       <c r="P76">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7288,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7374,10 +7374,10 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7463,10 +7463,10 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,76 +7641,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
         <v>3.5</v>
       </c>
       <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>3.4</v>
+      </c>
+      <c r="O81">
         <v>3.3</v>
       </c>
-      <c r="N81">
+      <c r="P81">
+        <v>2.15</v>
+      </c>
+      <c r="Q81">
+        <v>0.25</v>
+      </c>
+      <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
         <v>1.85</v>
       </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
-      <c r="P81">
-        <v>4</v>
-      </c>
-      <c r="Q81">
-        <v>-0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.9</v>
-      </c>
-      <c r="S81">
-        <v>1.9</v>
-      </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,76 +7730,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
         <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O82">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8178,7 +8178,7 @@
         <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>30</v>
@@ -8353,10 +8353,10 @@
         <v>45277.42708333334</v>
       </c>
       <c r="F89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
         <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O90">
         <v>3.6</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
         <v>3.75</v>
       </c>
-      <c r="L91">
-        <v>3.5</v>
-      </c>
       <c r="M91">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -8798,10 +8798,10 @@
         <v>45321.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -8976,10 +8976,10 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9068,7 +9068,7 @@
         <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,58 +9243,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>39</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N99">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9303,13 +9303,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,59 +9332,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
         <v>32</v>
       </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
       <c r="H100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>39</v>
       </c>
       <c r="K100">
+        <v>3.2</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.1</v>
+      </c>
+      <c r="N100">
+        <v>3.6</v>
+      </c>
+      <c r="O100">
+        <v>3.5</v>
+      </c>
+      <c r="P100">
+        <v>2.05</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>1.8</v>
+      </c>
+      <c r="W100">
         <v>2.6</v>
       </c>
-      <c r="L100">
-        <v>3.4</v>
-      </c>
-      <c r="M100">
-        <v>2.5</v>
-      </c>
-      <c r="N100">
-        <v>2.75</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>1.75</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
@@ -9392,13 +9392,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.8</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>1</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9421,10 +9421,10 @@
         <v>45328.625</v>
       </c>
       <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
         <v>34</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9513,7 +9513,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9691,7 +9691,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9866,10 +9866,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,76 +10044,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
+        <v>1.833</v>
+      </c>
+      <c r="N108">
+        <v>5.25</v>
+      </c>
+      <c r="O108">
         <v>4</v>
       </c>
-      <c r="N108">
-        <v>1.7</v>
-      </c>
-      <c r="O108">
-        <v>4.2</v>
-      </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z108">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
+        <v>0.4</v>
+      </c>
+      <c r="AB108">
+        <v>0.4125</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,76 +10133,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M109">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.425</v>
+      </c>
+      <c r="AA109">
         <v>-0.5</v>
       </c>
-      <c r="AA109">
-        <v>0.4</v>
-      </c>
       <c r="AB109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7617774</v>
+        <v>7617832</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,40 +10222,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
         <v>1.775</v>
@@ -10264,34 +10264,34 @@
         <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7617832</v>
+        <v>7617774</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,40 +10311,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G111" t="s">
         <v>37</v>
-      </c>
-      <c r="G111" t="s">
-        <v>35</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K111">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M111">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
         <v>1.775</v>
@@ -10353,34 +10353,34 @@
         <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y111">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
+        <v>-0</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>1.025</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10578,7 +10578,7 @@
         <v>45345.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10667,10 +10667,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10756,10 +10756,10 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
         <v>33</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10845,10 +10845,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11026,7 +11026,16 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H119">
+        <v>3</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119" t="s">
+        <v>39</v>
       </c>
       <c r="K119">
         <v>1.285</v>
@@ -11041,10 +11050,10 @@
         <v>1.363</v>
       </c>
       <c r="O119">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="P119">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q119">
         <v>-1.5</v>
@@ -11056,28 +11065,34 @@
         <v>1.85</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U119">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V119">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W119">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA119">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB119">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC119">
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11097,10 +11112,10 @@
         <v>45354.42708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11112,13 +11127,13 @@
         <v>3.5</v>
       </c>
       <c r="N120">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="O120">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q120">
         <v>-0.5</v>
@@ -11133,10 +11148,10 @@
         <v>3</v>
       </c>
       <c r="U120">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V120">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
         <v>0</v>
@@ -11174,7 +11189,7 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K121">
         <v>1.363</v>
@@ -11198,19 +11213,19 @@
         <v>-1.5</v>
       </c>
       <c r="R121">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S121">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T121">
         <v>3</v>
       </c>
       <c r="U121">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Aarau</t>
   </si>
   <si>
+    <t>FC Vaduz</t>
+  </si>
+  <si>
     <t>AC Bellinzona</t>
   </si>
   <si>
-    <t>FC Vaduz</t>
+    <t>Stade Nyonnais</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
-  </si>
-  <si>
     <t>FC Sion</t>
   </si>
   <si>
-    <t>Wil 1900</t>
+    <t>FC Baden</t>
   </si>
   <si>
-    <t>FC Baden</t>
+    <t>Wil 1900</t>
   </si>
   <si>
     <t>H</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC121"/>
+  <dimension ref="A1:AC126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L5">
         <v>3.5</v>
@@ -901,31 +901,31 @@
         <v>2.4</v>
       </c>
       <c r="N5">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P5">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q5">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V5">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -934,19 +934,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="K6">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
         <v>3.5</v>
@@ -990,31 +990,31 @@
         <v>2.4</v>
       </c>
       <c r="N6">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O6">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P6">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S6">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1023,19 +1023,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,43 +1058,43 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K7">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M7">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N7">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
         <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -1109,16 +1109,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,43 +1147,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L8">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
         <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,70 +1328,70 @@
         <v>33</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="J10" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10">
-        <v>1.727</v>
-      </c>
       <c r="L10">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N10">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O10">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W10">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,70 +1417,70 @@
         <v>32</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L11">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M11">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P11">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
+        <v>1.9</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>1.975</v>
+      </c>
+      <c r="V11">
         <v>1.825</v>
       </c>
-      <c r="S11">
-        <v>1.975</v>
-      </c>
-      <c r="T11">
-        <v>2.75</v>
-      </c>
-      <c r="U11">
-        <v>1.85</v>
-      </c>
-      <c r="V11">
-        <v>1.95</v>
-      </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X11">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA11">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1589,10 +1589,10 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1767,10 +1767,10 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>2</v>
@@ -1945,10 +1945,10 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
         <v>35</v>
-      </c>
-      <c r="G17" t="s">
-        <v>34</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2123,7 +2123,7 @@
         <v>45149.63541666666</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2212,7 +2212,7 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -2301,10 +2301,10 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2390,7 +2390,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>31</v>
@@ -2479,7 +2479,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2568,7 +2568,7 @@
         <v>45163.63541666666</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -2657,10 +2657,10 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F25" t="s">
+        <v>37</v>
+      </c>
+      <c r="G25" t="s">
         <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2838,7 +2838,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6811430</v>
+        <v>6811738</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,40 +2924,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>1.55</v>
+      </c>
+      <c r="O28">
         <v>4.5</v>
       </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
-      <c r="N28">
-        <v>1.222</v>
-      </c>
-      <c r="O28">
-        <v>6</v>
-      </c>
       <c r="P28">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R28">
         <v>1.825</v>
@@ -2966,22 +2966,22 @@
         <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z28">
         <v>-1</v>
@@ -2993,7 +2993,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6811738</v>
+        <v>6811430</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,40 +3013,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3055,22 +3055,22 @@
         <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y29">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
@@ -3082,7 +3082,7 @@
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3105,7 +3105,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3191,10 +3191,10 @@
         <v>45172.38541666666</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6811924</v>
+        <v>6811923</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,76 +3280,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L32">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
+        <v>1.909</v>
+      </c>
+      <c r="N32">
         <v>2.9</v>
       </c>
-      <c r="N32">
-        <v>2.375</v>
-      </c>
       <c r="O32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P32">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R32">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T32">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z32">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K33">
+        <v>4.5</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33">
-        <v>3.25</v>
-      </c>
-      <c r="L33">
-        <v>3.75</v>
-      </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6811431</v>
+        <v>6811924</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,46 +3458,46 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K34">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M34">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O34">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P34">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S34">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T34">
         <v>2.75</v>
@@ -3509,16 +3509,16 @@
         <v>1.975</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X34">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA34">
         <v>-1</v>
@@ -3636,10 +3636,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3728,7 +3728,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6811927</v>
+        <v>6811736</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3906,73 +3906,73 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M39">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
+        <v>2</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
+        <v>1.95</v>
+      </c>
+      <c r="V39">
+        <v>1.85</v>
+      </c>
+      <c r="W39">
         <v>1.875</v>
       </c>
-      <c r="T39">
-        <v>2.75</v>
-      </c>
-      <c r="U39">
-        <v>1.925</v>
-      </c>
-      <c r="V39">
-        <v>1.875</v>
-      </c>
-      <c r="W39">
-        <v>-1</v>
-      </c>
       <c r="X39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA39">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6811433</v>
+        <v>6811927</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M40">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y40">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6811736</v>
+        <v>6811433</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,76 +4081,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
       </c>
       <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
         <v>2</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
       <c r="J41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L41">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M41">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N41">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P41">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U41">
+        <v>1.85</v>
+      </c>
+      <c r="V41">
         <v>1.95</v>
       </c>
-      <c r="V41">
-        <v>1.85</v>
-      </c>
       <c r="W41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4170,7 +4170,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,7 +4348,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4357,67 +4357,67 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
         <v>2.7</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,7 +4437,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4446,67 +4446,67 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K45">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
         <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4618,73 +4618,73 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>3.9</v>
+      </c>
+      <c r="M47">
         <v>1.8</v>
       </c>
-      <c r="L47">
-        <v>3.6</v>
-      </c>
-      <c r="M47">
-        <v>3.9</v>
-      </c>
       <c r="N47">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>3</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4707,73 +4707,73 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
+        <v>3.6</v>
+      </c>
+      <c r="M48">
         <v>3.9</v>
       </c>
-      <c r="M48">
-        <v>1.8</v>
-      </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O48">
         <v>3.8</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4796,7 +4796,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>45219.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5238,7 +5238,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,58 +5330,58 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>40</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
+        <v>3.25</v>
+      </c>
+      <c r="M55">
+        <v>3.25</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
+        <v>3.6</v>
+      </c>
+      <c r="P55">
         <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>3.4</v>
-      </c>
-      <c r="N55">
-        <v>2.3</v>
-      </c>
-      <c r="O55">
-        <v>3.4</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,58 +5419,58 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>40</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.8</v>
+      </c>
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>3.25</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,55 +5505,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M57">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N57">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P57">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R57">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U57">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V57">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5562,19 +5562,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5582,7 +5582,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5594,55 +5594,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L58">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N58">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O58">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P58">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q58">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S58">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5651,19 +5651,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB58">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC58">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,76 +5683,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N59">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
         <v>-0.75</v>
       </c>
       <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
+        <v>1.875</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
         <v>1.85</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.825</v>
-      </c>
-      <c r="V59">
-        <v>1.975</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA59">
+        <v>-0.5</v>
+      </c>
+      <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.95</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
-      <c r="AC59">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,76 +5772,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K60">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q60">
         <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5864,7 +5864,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5953,7 +5953,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6039,10 +6039,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
         <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6217,7 +6217,7 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
         <v>36</v>
@@ -6306,10 +6306,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6811443</v>
+        <v>6811442</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6484,73 +6484,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K68">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="L68">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M68">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="N68">
-        <v>1.571</v>
+        <v>4.75</v>
       </c>
       <c r="O68">
         <v>4.333</v>
       </c>
       <c r="P68">
-        <v>5.25</v>
+        <v>1.65</v>
       </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="R68">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T68">
         <v>3</v>
       </c>
       <c r="U68">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W68">
         <v>-1</v>
       </c>
       <c r="X68">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC68">
         <v>-1</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6811442</v>
+        <v>6811443</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,73 +6573,73 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K69">
-        <v>4.333</v>
+        <v>1.571</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M69">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="N69">
-        <v>4.75</v>
+        <v>1.571</v>
       </c>
       <c r="O69">
         <v>4.333</v>
       </c>
       <c r="P69">
-        <v>1.65</v>
+        <v>5.25</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S69">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
         <v>3</v>
       </c>
       <c r="U69">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V69">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y69">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB69">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6665,7 +6665,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>45242.42708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,70 +6843,70 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q72">
         <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X72">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,70 +6932,70 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
         <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7018,10 +7018,10 @@
         <v>45254.67708333334</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.85</v>
+      </c>
+      <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
         <v>3.6</v>
       </c>
-      <c r="M75">
-        <v>3.5</v>
-      </c>
-      <c r="N75">
-        <v>1.7</v>
-      </c>
-      <c r="O75">
-        <v>4</v>
-      </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
         <v>3.6</v>
       </c>
-      <c r="L76">
-        <v>3.75</v>
-      </c>
       <c r="M76">
+        <v>3.5</v>
+      </c>
+      <c r="N76">
+        <v>1.7</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>4.75</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
         <v>1.85</v>
       </c>
-      <c r="N76">
-        <v>3.1</v>
-      </c>
-      <c r="O76">
-        <v>3.6</v>
-      </c>
-      <c r="P76">
-        <v>2.2</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
+      <c r="S76">
+        <v>1.95</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7288,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7374,10 +7374,10 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>2</v>
@@ -7463,10 +7463,10 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H79">
         <v>1</v>
@@ -7641,7 +7641,7 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
         <v>29</v>
@@ -7733,7 +7733,7 @@
         <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7822,7 +7822,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8178,7 +8178,7 @@
         <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
         <v>30</v>
@@ -8353,10 +8353,10 @@
         <v>45277.42708333334</v>
       </c>
       <c r="F89" t="s">
+        <v>32</v>
+      </c>
+      <c r="G89" t="s">
         <v>33</v>
-      </c>
-      <c r="G89" t="s">
-        <v>32</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
         <v>36</v>
@@ -8534,7 +8534,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -8798,10 +8798,10 @@
         <v>45321.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -8976,10 +8976,10 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,58 +9065,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>39</v>
       </c>
       <c r="K97">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L97">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
         <v>4.5</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q97">
         <v>-1</v>
       </c>
       <c r="R97">
+        <v>1.775</v>
+      </c>
+      <c r="S97">
         <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>1.775</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9125,16 +9125,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,58 +9154,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>39</v>
       </c>
       <c r="K98">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
         <v>4.5</v>
       </c>
       <c r="N98">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
         <v>-1</v>
       </c>
       <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
         <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9214,16 +9214,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,59 +9243,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
+        <v>37</v>
+      </c>
+      <c r="G99" t="s">
         <v>33</v>
       </c>
-      <c r="G99" t="s">
-        <v>29</v>
-      </c>
       <c r="H99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>39</v>
       </c>
       <c r="K99">
+        <v>3.2</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.1</v>
+      </c>
+      <c r="N99">
+        <v>3.6</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
+        <v>2.05</v>
+      </c>
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
         <v>2.6</v>
       </c>
-      <c r="L99">
-        <v>3.4</v>
-      </c>
-      <c r="M99">
-        <v>2.5</v>
-      </c>
-      <c r="N99">
-        <v>2.75</v>
-      </c>
-      <c r="O99">
-        <v>3.4</v>
-      </c>
-      <c r="P99">
-        <v>2.55</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>2</v>
-      </c>
-      <c r="S99">
-        <v>1.8</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>1.75</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
@@ -9303,13 +9303,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.8</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>1</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,58 +9332,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J100" t="s">
         <v>39</v>
       </c>
       <c r="K100">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M100">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N100">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O100">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P100">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q100">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R100">
+        <v>2</v>
+      </c>
+      <c r="S100">
         <v>1.8</v>
       </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
       <c r="T100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U100">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V100">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W100">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
@@ -9392,13 +9392,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9421,10 +9421,10 @@
         <v>45328.625</v>
       </c>
       <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
         <v>35</v>
-      </c>
-      <c r="G101" t="s">
-        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9513,7 +9513,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9691,7 +9691,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9780,7 +9780,7 @@
         <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -9866,10 +9866,10 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -9955,7 +9955,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,76 +10044,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M108">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N108">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
+        <v>0.425</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="AA108">
-        <v>0.4</v>
-      </c>
       <c r="AB108">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,76 +10133,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K109">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
+        <v>1.833</v>
+      </c>
+      <c r="N109">
+        <v>5.25</v>
+      </c>
+      <c r="O109">
         <v>4</v>
       </c>
-      <c r="N109">
-        <v>1.7</v>
-      </c>
-      <c r="O109">
-        <v>4.2</v>
-      </c>
       <c r="P109">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z109">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
+        <v>0.4</v>
+      </c>
+      <c r="AB109">
+        <v>0.4125</v>
+      </c>
+      <c r="AC109">
         <v>-0.5</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10222,10 +10222,10 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G110" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10311,10 +10311,10 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>36</v>
@@ -10578,7 +10578,7 @@
         <v>45345.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10667,10 +10667,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10756,10 +10756,10 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F116" t="s">
+        <v>33</v>
+      </c>
+      <c r="G116" t="s">
         <v>32</v>
-      </c>
-      <c r="G116" t="s">
-        <v>33</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10845,10 +10845,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11026,7 +11026,7 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11112,10 +11112,19 @@
         <v>45354.42708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="H120">
+        <v>3</v>
+      </c>
+      <c r="I120">
+        <v>2</v>
+      </c>
+      <c r="J120" t="s">
+        <v>39</v>
       </c>
       <c r="K120">
         <v>1.909</v>
@@ -11127,16 +11136,16 @@
         <v>3.5</v>
       </c>
       <c r="N120">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
         <v>2</v>
@@ -11145,28 +11154,34 @@
         <v>1.8</v>
       </c>
       <c r="T120">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB120">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC120">
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11189,7 +11204,16 @@
         <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="H121">
+        <v>3</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>39</v>
       </c>
       <c r="K121">
         <v>1.363</v>
@@ -11204,22 +11228,22 @@
         <v>1.363</v>
       </c>
       <c r="O121">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="P121">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Q121">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T121">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>1.875</v>
@@ -11228,18 +11252,394 @@
         <v>1.925</v>
       </c>
       <c r="W121">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
+        <v>-1</v>
+      </c>
+      <c r="AB121">
+        <v>0.875</v>
+      </c>
+      <c r="AC121">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7617834</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45359.64583333334</v>
+      </c>
+      <c r="F122" t="s">
+        <v>35</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122">
+        <v>2.9</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>2.15</v>
+      </c>
+      <c r="N122">
+        <v>2.8</v>
+      </c>
+      <c r="O122">
+        <v>3.4</v>
+      </c>
+      <c r="P122">
+        <v>2.375</v>
+      </c>
+      <c r="Q122">
+        <v>0.25</v>
+      </c>
+      <c r="R122">
+        <v>1.75</v>
+      </c>
+      <c r="S122">
+        <v>2.05</v>
+      </c>
+      <c r="T122">
+        <v>2.75</v>
+      </c>
+      <c r="U122">
+        <v>1.9</v>
+      </c>
+      <c r="V122">
+        <v>1.9</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7617784</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45359.67708333334</v>
+      </c>
+      <c r="F123" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s">
+        <v>36</v>
+      </c>
+      <c r="K123">
+        <v>3.6</v>
+      </c>
+      <c r="L123">
+        <v>3.4</v>
+      </c>
+      <c r="M123">
+        <v>1.95</v>
+      </c>
+      <c r="N123">
+        <v>4.5</v>
+      </c>
+      <c r="O123">
+        <v>3.5</v>
+      </c>
+      <c r="P123">
+        <v>1.8</v>
+      </c>
+      <c r="Q123">
+        <v>0.75</v>
+      </c>
+      <c r="R123">
+        <v>1.8</v>
+      </c>
+      <c r="S123">
+        <v>2</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.8</v>
+      </c>
+      <c r="V123">
+        <v>2</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7617786</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F124" t="s">
+        <v>37</v>
+      </c>
+      <c r="G124" t="s">
+        <v>32</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.1</v>
+      </c>
+      <c r="N124">
+        <v>3.2</v>
+      </c>
+      <c r="O124">
+        <v>3.6</v>
+      </c>
+      <c r="P124">
+        <v>2</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>2</v>
+      </c>
+      <c r="S124">
+        <v>1.8</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>1.9</v>
+      </c>
+      <c r="V124">
+        <v>1.9</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7617785</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="G125" t="s">
+        <v>38</v>
+      </c>
+      <c r="K125">
+        <v>1.85</v>
+      </c>
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
+        <v>3.6</v>
+      </c>
+      <c r="N125">
+        <v>1.833</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
+        <v>3.8</v>
+      </c>
+      <c r="Q125">
+        <v>-0.5</v>
+      </c>
+      <c r="R125">
+        <v>1.85</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
+        <v>1.975</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7617835</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45360.58333333334</v>
+      </c>
+      <c r="F126" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="K126">
+        <v>2.3</v>
+      </c>
+      <c r="L126">
+        <v>3.4</v>
+      </c>
+      <c r="M126">
+        <v>2.8</v>
+      </c>
+      <c r="N126">
+        <v>2.375</v>
+      </c>
+      <c r="O126">
+        <v>3.3</v>
+      </c>
+      <c r="P126">
+        <v>2.8</v>
+      </c>
+      <c r="Q126">
+        <v>-0.25</v>
+      </c>
+      <c r="R126">
+        <v>2.05</v>
+      </c>
+      <c r="S126">
+        <v>1.75</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>1.9</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -112,25 +112,25 @@
     <t>Aarau</t>
   </si>
   <si>
+    <t>AC Bellinzona</t>
+  </si>
+  <si>
     <t>FC Vaduz</t>
   </si>
   <si>
-    <t>AC Bellinzona</t>
+    <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>Stade Nyonnais</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
-  </si>
-  <si>
     <t>FC Sion</t>
   </si>
   <si>
-    <t>FC Baden</t>
+    <t>Wil 1900</t>
   </si>
   <si>
-    <t>Wil 1900</t>
+    <t>FC Baden</t>
   </si>
   <si>
     <t>H</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6811422</v>
+        <v>6811910</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="K5">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
         <v>3.5</v>
@@ -901,31 +901,31 @@
         <v>2.4</v>
       </c>
       <c r="N5">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O5">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P5">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -934,19 +934,19 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>1.45</v>
+        <v>1.05</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6811910</v>
+        <v>6811422</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>41</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L6">
         <v>3.5</v>
@@ -990,31 +990,31 @@
         <v>2.4</v>
       </c>
       <c r="N6">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O6">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P6">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
         <v>2.75</v>
       </c>
       <c r="U6">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V6">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1023,19 +1023,19 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>1.05</v>
+        <v>1.45</v>
       </c>
       <c r="Z6">
         <v>-1</v>
       </c>
       <c r="AA6">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,43 +1058,43 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
         <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -1109,16 +1109,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,43 +1147,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
         <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6811424</v>
+        <v>6811912</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1328,70 +1328,70 @@
         <v>33</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1.727</v>
       </c>
       <c r="L10">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>2.55</v>
+        <v>2.2</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P10">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.9</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>1.975</v>
+      </c>
+      <c r="V10">
         <v>1.825</v>
       </c>
-      <c r="S10">
-        <v>1.975</v>
-      </c>
-      <c r="T10">
-        <v>2.75</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>1.95</v>
-      </c>
       <c r="W10">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X10">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6811912</v>
+        <v>6811424</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1417,70 +1417,70 @@
         <v>32</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="J11" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11">
-        <v>1.727</v>
-      </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N11">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="O11">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q11">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T11">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W11">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X11">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB11">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>30</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>6</v>
@@ -1589,10 +1589,10 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1681,7 +1681,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N15">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,76 +1856,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K16">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6811740</v>
+        <v>6811915</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,58 +1945,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>39</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M17">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2005,16 +2005,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6811915</v>
+        <v>6811740</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,58 +2034,58 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
       </c>
       <c r="K18">
-        <v>3.1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>3.25</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="O18">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P18">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W18">
-        <v>1.5</v>
+        <v>1.15</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2094,16 +2094,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>45149.63541666666</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2212,7 +2212,7 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
         <v>31</v>
@@ -2301,10 +2301,10 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2393,73 +2393,73 @@
         <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O22">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P22">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z22">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB22">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2482,73 +2482,73 @@
         <v>34</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L23">
+        <v>3.4</v>
+      </c>
+      <c r="M23">
+        <v>2.1</v>
+      </c>
+      <c r="N23">
         <v>3.6</v>
       </c>
-      <c r="M23">
-        <v>1.65</v>
-      </c>
-      <c r="N23">
-        <v>4.5</v>
-      </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P23">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q23">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y23">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z23">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA23">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC23">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2568,7 +2568,7 @@
         <v>45163.63541666666</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>30</v>
@@ -2657,10 +2657,10 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
         <v>37</v>
-      </c>
-      <c r="G25" t="s">
-        <v>38</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2746,7 +2746,7 @@
         <v>45165.38541666666</v>
       </c>
       <c r="F26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
@@ -2838,7 +2838,7 @@
         <v>29</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2927,7 +2927,7 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H29">
         <v>1</v>
@@ -3105,7 +3105,7 @@
         <v>30</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3191,10 +3191,10 @@
         <v>45172.38541666666</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,76 +3280,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" t="s">
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <v>4.5</v>
+      </c>
+      <c r="L32">
         <v>4</v>
       </c>
-      <c r="J32" t="s">
-        <v>41</v>
-      </c>
-      <c r="K32">
-        <v>3.25</v>
-      </c>
-      <c r="L32">
-        <v>3.75</v>
-      </c>
       <c r="M32">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N32">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O32">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P32">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q32">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S32">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U32">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y32">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA32">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811431</v>
+        <v>6811923</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K33">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>1.6</v>
+        <v>1.909</v>
       </c>
       <c r="N33">
-        <v>5.25</v>
+        <v>2.9</v>
       </c>
       <c r="O33">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P33">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U33">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z33">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G34" t="s">
         <v>29</v>
@@ -3636,10 +3636,10 @@
         <v>45192.54166666666</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3728,7 +3728,7 @@
         <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>3</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6811736</v>
+        <v>6811927</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3906,73 +3906,73 @@
         <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
         <v>3.3</v>
       </c>
-      <c r="M39">
-        <v>2.375</v>
-      </c>
       <c r="N39">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P39">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T39">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U39">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V39">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6811927</v>
+        <v>6811736</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3995,73 +3995,73 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>1.85</v>
+      </c>
+      <c r="W40">
         <v>1.875</v>
       </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.925</v>
-      </c>
-      <c r="V40">
-        <v>1.875</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
       <c r="X40">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4170,7 +4170,7 @@
         <v>45198.60416666666</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
         <v>31</v>
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,7 +4348,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4357,67 +4357,67 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N44">
         <v>2.7</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,7 +4437,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>34</v>
@@ -4446,67 +4446,67 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
         <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4618,73 +4618,73 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K47">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L47">
+        <v>3.6</v>
+      </c>
+      <c r="M47">
         <v>3.9</v>
       </c>
-      <c r="M47">
-        <v>1.8</v>
-      </c>
       <c r="N47">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S47">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T47">
         <v>3</v>
       </c>
       <c r="U47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4707,73 +4707,73 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
+        <v>3.5</v>
+      </c>
+      <c r="L48">
+        <v>3.9</v>
+      </c>
+      <c r="M48">
         <v>1.8</v>
       </c>
-      <c r="L48">
-        <v>3.6</v>
-      </c>
-      <c r="M48">
-        <v>3.9</v>
-      </c>
       <c r="N48">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O48">
         <v>3.8</v>
       </c>
       <c r="P48">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q48">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X48">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4796,7 +4796,7 @@
         <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H49">
         <v>3</v>
@@ -4974,7 +4974,7 @@
         <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5063,7 +5063,7 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5149,7 +5149,7 @@
         <v>45219.63541666666</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
         <v>30</v>
@@ -5238,7 +5238,7 @@
         <v>45220.54166666666</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5330,58 +5330,58 @@
         <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>40</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.8</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>3.25</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.875</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5419,58 +5419,58 @@
         <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>40</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>3.25</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
+        <v>3.6</v>
+      </c>
+      <c r="P56">
         <v>3.2</v>
-      </c>
-      <c r="M56">
-        <v>3.4</v>
-      </c>
-      <c r="N56">
-        <v>2.3</v>
-      </c>
-      <c r="O56">
-        <v>3.4</v>
-      </c>
-      <c r="P56">
-        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5505,10 +5505,10 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F57" t="s">
+        <v>37</v>
+      </c>
+      <c r="G57" t="s">
         <v>38</v>
-      </c>
-      <c r="G57" t="s">
-        <v>37</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -5594,10 +5594,10 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>2</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,76 +5683,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F59" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K59">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L59">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M59">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N59">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P59">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q59">
         <v>-0.75</v>
       </c>
       <c r="R59">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T59">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W59">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X59">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,76 +5772,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M60">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N60">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O60">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q60">
         <v>-0.75</v>
       </c>
       <c r="R60">
+        <v>1.925</v>
+      </c>
+      <c r="S60">
+        <v>1.875</v>
+      </c>
+      <c r="T60">
+        <v>2.75</v>
+      </c>
+      <c r="U60">
         <v>1.85</v>
       </c>
-      <c r="S60">
+      <c r="V60">
         <v>1.95</v>
       </c>
-      <c r="T60">
-        <v>3</v>
-      </c>
-      <c r="U60">
-        <v>1.825</v>
-      </c>
-      <c r="V60">
-        <v>1.975</v>
-      </c>
       <c r="W60">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X60">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA60">
+        <v>-0.5</v>
+      </c>
+      <c r="AB60">
+        <v>-1</v>
+      </c>
+      <c r="AC60">
         <v>0.95</v>
-      </c>
-      <c r="AB60">
-        <v>-1</v>
-      </c>
-      <c r="AC60">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5864,7 +5864,7 @@
         <v>30</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5953,7 +5953,7 @@
         <v>29</v>
       </c>
       <c r="G62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H62">
         <v>2</v>
@@ -6039,10 +6039,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
         <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6220,7 +6220,7 @@
         <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6232,25 +6232,25 @@
         <v>41</v>
       </c>
       <c r="K65">
+        <v>1.4</v>
+      </c>
+      <c r="L65">
+        <v>4.5</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>1.533</v>
+      </c>
+      <c r="O65">
         <v>4.75</v>
       </c>
-      <c r="L65">
-        <v>3.8</v>
-      </c>
-      <c r="M65">
-        <v>1.615</v>
-      </c>
-      <c r="N65">
-        <v>6.5</v>
-      </c>
-      <c r="O65">
-        <v>4.333</v>
-      </c>
       <c r="P65">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6259,7 +6259,7 @@
         <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6274,19 +6274,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
+        <v>-0.5</v>
+      </c>
+      <c r="AC65">
         <v>0.45</v>
-      </c>
-      <c r="AC65">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6309,7 +6309,7 @@
         <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6321,25 +6321,25 @@
         <v>41</v>
       </c>
       <c r="K66">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L66">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N66">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6348,7 +6348,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.9</v>
@@ -6363,19 +6363,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
+        <v>0.45</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="AC66">
-        <v>0.45</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6395,10 +6395,10 @@
         <v>45240.64583333334</v>
       </c>
       <c r="F67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -6484,7 +6484,7 @@
         <v>45240.67708333334</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>29</v>
@@ -6576,7 +6576,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H69">
         <v>3</v>
@@ -6665,7 +6665,7 @@
         <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>45242.42708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,70 +6843,70 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O72">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
         <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,70 +6932,70 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q73">
         <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X73">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7018,10 +7018,10 @@
         <v>45254.67708333334</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H74">
         <v>2</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
+        <v>1.909</v>
+      </c>
+      <c r="L75">
         <v>3.6</v>
       </c>
-      <c r="L75">
-        <v>3.75</v>
-      </c>
       <c r="M75">
+        <v>3.5</v>
+      </c>
+      <c r="N75">
+        <v>1.7</v>
+      </c>
+      <c r="O75">
+        <v>4</v>
+      </c>
+      <c r="P75">
+        <v>4.75</v>
+      </c>
+      <c r="Q75">
+        <v>-0.75</v>
+      </c>
+      <c r="R75">
         <v>1.85</v>
       </c>
-      <c r="N75">
-        <v>3.1</v>
-      </c>
-      <c r="O75">
-        <v>3.6</v>
-      </c>
-      <c r="P75">
-        <v>2.2</v>
-      </c>
-      <c r="Q75">
-        <v>0.25</v>
-      </c>
-      <c r="R75">
+      <c r="S75">
+        <v>1.95</v>
+      </c>
+      <c r="T75">
+        <v>2.5</v>
+      </c>
+      <c r="U75">
         <v>1.875</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>1.925</v>
       </c>
-      <c r="T75">
-        <v>2.75</v>
-      </c>
-      <c r="U75">
-        <v>1.975</v>
-      </c>
-      <c r="V75">
-        <v>1.825</v>
-      </c>
       <c r="W75">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X75">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA75">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC75">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H76">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
+        <v>3.75</v>
+      </c>
+      <c r="M76">
+        <v>1.85</v>
+      </c>
+      <c r="N76">
+        <v>3.1</v>
+      </c>
+      <c r="O76">
         <v>3.6</v>
       </c>
-      <c r="M76">
-        <v>3.5</v>
-      </c>
-      <c r="N76">
-        <v>1.7</v>
-      </c>
-      <c r="O76">
-        <v>4</v>
-      </c>
       <c r="P76">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q76">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R76">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S76">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W76">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB76">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7288,7 +7288,7 @@
         <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6811447</v>
+        <v>6811727</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,10 +7377,10 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -7389,43 +7389,43 @@
         <v>39</v>
       </c>
       <c r="K78">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O78">
         <v>3.8</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V78">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W78">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7434,7 +7434,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7443,7 +7443,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6811727</v>
+        <v>6811447</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,10 +7466,10 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -7478,43 +7478,43 @@
         <v>39</v>
       </c>
       <c r="K79">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N79">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O79">
         <v>3.8</v>
       </c>
       <c r="P79">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U79">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W79">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7523,7 +7523,7 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7532,7 +7532,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,76 +7641,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
         <v>3.5</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N81">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,76 +7730,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L82">
         <v>3.5</v>
       </c>
       <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3.4</v>
+      </c>
+      <c r="O82">
         <v>3.3</v>
       </c>
-      <c r="N82">
+      <c r="P82">
+        <v>2.15</v>
+      </c>
+      <c r="Q82">
+        <v>0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
         <v>1.85</v>
       </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>4</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>1.9</v>
-      </c>
-      <c r="S82">
-        <v>1.9</v>
-      </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7911,7 +7911,7 @@
         <v>30</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H84">
         <v>3</v>
@@ -7997,10 +7997,10 @@
         <v>45275.64583333334</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8178,7 +8178,7 @@
         <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8264,7 +8264,7 @@
         <v>45276.58333333334</v>
       </c>
       <c r="F88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
         <v>30</v>
@@ -8353,10 +8353,10 @@
         <v>45277.42708333334</v>
       </c>
       <c r="F89" t="s">
+        <v>33</v>
+      </c>
+      <c r="G89" t="s">
         <v>32</v>
-      </c>
-      <c r="G89" t="s">
-        <v>33</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -8442,7 +8442,7 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
         <v>36</v>
@@ -8534,7 +8534,7 @@
         <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8709,7 +8709,7 @@
         <v>45318.58333333334</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>30</v>
@@ -8798,10 +8798,10 @@
         <v>45321.64583333334</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,7 +8887,7 @@
         <v>45321.67708333334</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
         <v>31</v>
@@ -8976,10 +8976,10 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>3</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,58 +9065,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>39</v>
       </c>
       <c r="K97">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L97">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M97">
         <v>4.5</v>
       </c>
       <c r="N97">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O97">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P97">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q97">
         <v>-1</v>
       </c>
       <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
         <v>1.775</v>
-      </c>
-      <c r="S97">
-        <v>2.025</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W97">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9125,16 +9125,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC97">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,58 +9154,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="s">
         <v>39</v>
       </c>
       <c r="K98">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L98">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M98">
         <v>4.5</v>
       </c>
       <c r="N98">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O98">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P98">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q98">
         <v>-1</v>
       </c>
       <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
         <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V98">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9214,16 +9214,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,58 +9243,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>39</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N99">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9303,13 +9303,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,59 +9332,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
+        <v>38</v>
+      </c>
+      <c r="G100" t="s">
         <v>32</v>
       </c>
-      <c r="G100" t="s">
-        <v>29</v>
-      </c>
       <c r="H100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>39</v>
       </c>
       <c r="K100">
+        <v>3.2</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.1</v>
+      </c>
+      <c r="N100">
+        <v>3.6</v>
+      </c>
+      <c r="O100">
+        <v>3.5</v>
+      </c>
+      <c r="P100">
+        <v>2.05</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>1.8</v>
+      </c>
+      <c r="W100">
         <v>2.6</v>
       </c>
-      <c r="L100">
-        <v>3.4</v>
-      </c>
-      <c r="M100">
-        <v>2.5</v>
-      </c>
-      <c r="N100">
-        <v>2.75</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>1.75</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
@@ -9392,13 +9392,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.8</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>1</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9421,10 +9421,10 @@
         <v>45328.625</v>
       </c>
       <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
         <v>34</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9513,7 +9513,7 @@
         <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -9599,7 +9599,7 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
@@ -9691,7 +9691,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>4</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7617831</v>
+        <v>7617770</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,58 +9777,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H105">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>39</v>
       </c>
       <c r="K105">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L105">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N105">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O105">
         <v>3.6</v>
       </c>
       <c r="P105">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U105">
+        <v>2</v>
+      </c>
+      <c r="V105">
         <v>1.8</v>
       </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
       <c r="W105">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9837,16 +9837,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.8</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7617770</v>
+        <v>7617831</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,58 +9866,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>39</v>
       </c>
       <c r="K106">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M106">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N106">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O106">
         <v>3.6</v>
       </c>
       <c r="P106">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q106">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T106">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U106">
+        <v>1.8</v>
+      </c>
+      <c r="V106">
         <v>2</v>
       </c>
-      <c r="V106">
-        <v>1.8</v>
-      </c>
       <c r="W106">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9926,16 +9926,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9955,7 +9955,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>29</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,76 +10044,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
+        <v>1.833</v>
+      </c>
+      <c r="N108">
+        <v>5.25</v>
+      </c>
+      <c r="O108">
         <v>4</v>
       </c>
-      <c r="N108">
-        <v>1.7</v>
-      </c>
-      <c r="O108">
-        <v>4.2</v>
-      </c>
       <c r="P108">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q108">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R108">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T108">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z108">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA108">
+        <v>0.4</v>
+      </c>
+      <c r="AB108">
+        <v>0.4125</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,76 +10133,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M109">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N109">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O109">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P109">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q109">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R109">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S109">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W109">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.425</v>
+      </c>
+      <c r="AA109">
         <v>-0.5</v>
       </c>
-      <c r="AA109">
-        <v>0.4</v>
-      </c>
       <c r="AB109">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7617832</v>
+        <v>7617774</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,40 +10222,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F110" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" t="s">
         <v>37</v>
-      </c>
-      <c r="G110" t="s">
-        <v>35</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K110">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
         <v>1.775</v>
@@ -10264,34 +10264,34 @@
         <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y110">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
+        <v>-0</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>1.025</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7617774</v>
+        <v>7617832</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,40 +10311,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L111">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N111">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
         <v>1.775</v>
@@ -10353,34 +10353,34 @@
         <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10388,7 +10388,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7617776</v>
+        <v>7617775</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10400,73 +10400,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>4</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K112">
+        <v>5.5</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>1.533</v>
+      </c>
+      <c r="N112">
+        <v>5.5</v>
+      </c>
+      <c r="O112">
+        <v>3.8</v>
+      </c>
+      <c r="P112">
+        <v>1.615</v>
+      </c>
+      <c r="Q112">
+        <v>0.75</v>
+      </c>
+      <c r="R112">
+        <v>2.025</v>
+      </c>
+      <c r="S112">
+        <v>1.775</v>
+      </c>
+      <c r="T112">
         <v>2.5</v>
       </c>
-      <c r="L112">
-        <v>3.5</v>
-      </c>
-      <c r="M112">
-        <v>2.5</v>
-      </c>
-      <c r="N112">
-        <v>2.4</v>
-      </c>
-      <c r="O112">
-        <v>3.5</v>
-      </c>
-      <c r="P112">
-        <v>2.75</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>1.825</v>
-      </c>
-      <c r="S112">
-        <v>1.975</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7617775</v>
+        <v>7617776</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,73 +10489,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>4</v>
-      </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K113">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10578,7 +10578,7 @@
         <v>45345.67708333334</v>
       </c>
       <c r="F114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G114" t="s">
         <v>31</v>
@@ -10667,10 +10667,10 @@
         <v>45346.58333333334</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10756,10 +10756,10 @@
         <v>45350.60416666666</v>
       </c>
       <c r="F116" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" t="s">
         <v>33</v>
-      </c>
-      <c r="G116" t="s">
-        <v>32</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -10845,10 +10845,10 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H117">
         <v>1</v>
@@ -11026,7 +11026,7 @@
         <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H119">
         <v>3</v>
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7617782</v>
+        <v>7617783</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,58 +11112,58 @@
         <v>45354.42708333334</v>
       </c>
       <c r="F120" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" t="s">
         <v>32</v>
-      </c>
-      <c r="G120" t="s">
-        <v>35</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
         <v>39</v>
       </c>
       <c r="K120">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M120">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R120">
+        <v>1.8</v>
+      </c>
+      <c r="S120">
         <v>2</v>
       </c>
-      <c r="S120">
-        <v>1.8</v>
-      </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11172,13 +11172,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7617783</v>
+        <v>7617782</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,58 +11201,58 @@
         <v>45354.42708333334</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>39</v>
       </c>
       <c r="K121">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L121">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M121">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N121">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O121">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P121">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q121">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
         <v>1.8</v>
       </c>
-      <c r="S121">
-        <v>2</v>
-      </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V121">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11261,13 +11261,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11290,11 +11290,20 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>31</v>
       </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>40</v>
+      </c>
       <c r="K122">
         <v>2.9</v>
       </c>
@@ -11305,46 +11314,52 @@
         <v>2.15</v>
       </c>
       <c r="N122">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="O122">
         <v>3.4</v>
       </c>
       <c r="P122">
-        <v>2.375</v>
+        <v>2.15</v>
       </c>
       <c r="Q122">
         <v>0.25</v>
       </c>
       <c r="R122">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
         <v>2.75</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB122">
+        <v>-1</v>
+      </c>
+      <c r="AC122">
+        <v>0.8</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11369,6 +11384,15 @@
       <c r="G123" t="s">
         <v>36</v>
       </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>40</v>
+      </c>
       <c r="K123">
         <v>3.6</v>
       </c>
@@ -11379,46 +11403,52 @@
         <v>1.95</v>
       </c>
       <c r="N123">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O123">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P123">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q123">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T123">
         <v>2.5</v>
       </c>
       <c r="U123">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V123">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X123">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y123">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z123">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA123">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB123">
+        <v>-1</v>
+      </c>
+      <c r="AC123">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:29">
@@ -11426,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7617786</v>
+        <v>7617835</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11438,46 +11468,46 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K124">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L124">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M124">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="N124">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="O124">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P124">
+        <v>2.75</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>1.75</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.8</v>
+      </c>
+      <c r="V124">
         <v>2</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
-      </c>
-      <c r="R124">
-        <v>2</v>
-      </c>
-      <c r="S124">
-        <v>1.8</v>
-      </c>
-      <c r="T124">
-        <v>3</v>
-      </c>
-      <c r="U124">
-        <v>1.9</v>
-      </c>
-      <c r="V124">
-        <v>1.9</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11515,7 +11545,7 @@
         <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K125">
         <v>1.85</v>
@@ -11527,31 +11557,31 @@
         <v>3.6</v>
       </c>
       <c r="N125">
-        <v>1.833</v>
+        <v>1.85</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q125">
         <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
+        <v>1.975</v>
+      </c>
+      <c r="V125">
         <v>1.825</v>
-      </c>
-      <c r="V125">
-        <v>1.975</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11574,7 +11604,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7617835</v>
+        <v>7617786</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11586,46 +11616,46 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F126" t="s">
+        <v>38</v>
+      </c>
+      <c r="G126" t="s">
         <v>33</v>
       </c>
-      <c r="G126" t="s">
-        <v>34</v>
-      </c>
       <c r="K126">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="L126">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M126">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="N126">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="O126">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P126">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="Q126">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R126">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S126">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T126">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V126">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,10 +103,10 @@
     <t>Switzerland Challenge League</t>
   </si>
   <si>
-    <t>Neuchatel Xamax</t>
+    <t>FC Thun</t>
   </si>
   <si>
-    <t>FC Thun</t>
+    <t>Neuchatel Xamax</t>
   </si>
   <si>
     <t>Aarau</t>
@@ -118,10 +118,10 @@
     <t>FC Vaduz</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
+    <t>Stade Nyonnais</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
+    <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>FC Sion</t>
@@ -133,10 +133,10 @@
     <t>FC Baden</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
     <t>A</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC126"/>
+  <dimension ref="A1:AC131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6811909</v>
+        <v>6811743</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -616,34 +616,34 @@
         <v>34</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2.4</v>
+        <v>1.615</v>
       </c>
       <c r="L2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="N2">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="P2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
         <v>1.775</v>
@@ -652,34 +652,34 @@
         <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V2">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6811743</v>
+        <v>6811909</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,34 +705,34 @@
         <v>35</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.615</v>
+        <v>2.4</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="N3">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="O3">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
         <v>1.775</v>
@@ -741,34 +741,34 @@
         <v>2.025</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X3">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC3">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>1.55</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1061,40 +1061,40 @@
         <v>30</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M7">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N7">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O7">
         <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S7">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -1109,16 +1109,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,40 +1150,40 @@
         <v>29</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L8">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
         <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>1.909</v>
@@ -1334,7 +1334,7 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>1.727</v>
@@ -1423,7 +1423,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1500,7 +1500,7 @@
         <v>45142.60416666666</v>
       </c>
       <c r="F12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.615</v>
@@ -1589,7 +1589,7 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1690,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
         <v>1.3</v>
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N15">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U15">
+        <v>1.95</v>
+      </c>
+      <c r="V15">
         <v>1.85</v>
       </c>
-      <c r="V15">
-        <v>1.95</v>
-      </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA15">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,76 +1856,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M16">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N16">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P16">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q16">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T16">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U16">
+        <v>1.85</v>
+      </c>
+      <c r="V16">
         <v>1.95</v>
       </c>
-      <c r="V16">
-        <v>1.85</v>
-      </c>
       <c r="W16">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z16">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB16">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC16">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,10 +1945,10 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
         <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
       </c>
       <c r="H17">
         <v>4</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>3.1</v>
@@ -2034,10 +2034,10 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>35</v>
-      </c>
-      <c r="G18" t="s">
-        <v>34</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>2.8</v>
@@ -2390,7 +2390,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2479,7 +2479,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2491,7 +2491,7 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>3.1</v>
@@ -2571,7 +2571,7 @@
         <v>32</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2749,7 +2749,7 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K26">
         <v>1.833</v>
@@ -2835,7 +2835,7 @@
         <v>45170.60416666666</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -2847,7 +2847,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
         <v>1.571</v>
@@ -2927,7 +2927,7 @@
         <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
         <v>1.3</v>
@@ -3102,7 +3102,7 @@
         <v>45171.54166666666</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3114,7 +3114,7 @@
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K30">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
         <v>1.75</v>
@@ -3280,7 +3280,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3292,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K32">
         <v>4.5</v>
@@ -3461,7 +3461,7 @@
         <v>37</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K34">
         <v>2.15</v>
@@ -3547,7 +3547,7 @@
         <v>45191.63541666666</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>31</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K35">
         <v>1.909</v>
@@ -3639,7 +3639,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -3737,7 +3737,7 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>1.833</v>
@@ -3817,7 +3817,7 @@
         <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3903,7 +3903,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>2.05</v>
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6811736</v>
+        <v>6811433</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
         <v>2</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K40">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L40">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="M40">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="N40">
-        <v>2.875</v>
+        <v>1.3</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="P40">
-        <v>2.4</v>
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S40">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U40">
+        <v>1.85</v>
+      </c>
+      <c r="V40">
         <v>1.95</v>
       </c>
-      <c r="V40">
-        <v>1.85</v>
-      </c>
       <c r="W40">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC40">
-        <v>0.8500000000000001</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6811433</v>
+        <v>6811736</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,76 +4081,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>3.3</v>
+      </c>
+      <c r="M41">
+        <v>2.375</v>
+      </c>
+      <c r="N41">
+        <v>2.875</v>
+      </c>
+      <c r="O41">
+        <v>3.4</v>
+      </c>
+      <c r="P41">
+        <v>2.4</v>
+      </c>
+      <c r="Q41">
+        <v>0.25</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
         <v>2</v>
       </c>
-      <c r="J41" t="s">
-        <v>41</v>
-      </c>
-      <c r="K41">
-        <v>1.4</v>
-      </c>
-      <c r="L41">
-        <v>4.75</v>
-      </c>
-      <c r="M41">
-        <v>7.5</v>
-      </c>
-      <c r="N41">
-        <v>1.3</v>
-      </c>
-      <c r="O41">
-        <v>5.5</v>
-      </c>
-      <c r="P41">
-        <v>10</v>
-      </c>
-      <c r="Q41">
-        <v>-1.75</v>
-      </c>
-      <c r="R41">
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
         <v>1.95</v>
       </c>
-      <c r="S41">
+      <c r="V41">
         <v>1.85</v>
       </c>
-      <c r="T41">
-        <v>3.25</v>
-      </c>
-      <c r="U41">
-        <v>1.85</v>
-      </c>
-      <c r="V41">
-        <v>1.95</v>
-      </c>
       <c r="W41">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
+        <v>-1</v>
+      </c>
+      <c r="AB41">
+        <v>-1</v>
+      </c>
+      <c r="AC41">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB41">
-        <v>-0.5</v>
-      </c>
-      <c r="AC41">
-        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4259,7 +4259,7 @@
         <v>45198.63541666666</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>36</v>
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,7 +4348,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>35</v>
@@ -4357,67 +4357,67 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>39</v>
       </c>
       <c r="K44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N44">
         <v>2.7</v>
       </c>
       <c r="O44">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P44">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S44">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V44">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811435</v>
+        <v>6811929</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,10 +4437,10 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G45" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4449,49 +4449,49 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K45">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M45">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N45">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O45">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P45">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S45">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y45">
         <v>-1</v>
@@ -4506,7 +4506,7 @@
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4514,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6811929</v>
+        <v>6811735</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4526,76 +4526,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
         <v>40</v>
       </c>
       <c r="K46">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4603,7 +4603,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6811734</v>
+        <v>6811931</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4618,73 +4618,73 @@
         <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>40</v>
       </c>
       <c r="K47">
+        <v>3.5</v>
+      </c>
+      <c r="L47">
+        <v>3.9</v>
+      </c>
+      <c r="M47">
         <v>1.8</v>
       </c>
-      <c r="L47">
-        <v>3.6</v>
-      </c>
-      <c r="M47">
-        <v>3.9</v>
-      </c>
       <c r="N47">
-        <v>1.727</v>
+        <v>3.25</v>
       </c>
       <c r="O47">
         <v>3.8</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>2.1</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R47">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T47">
         <v>3</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="X47">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA47">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6811931</v>
+        <v>6811734</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4707,73 +4707,73 @@
         <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
         <v>39</v>
       </c>
       <c r="K48">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="L48">
+        <v>3.6</v>
+      </c>
+      <c r="M48">
         <v>3.9</v>
       </c>
-      <c r="M48">
-        <v>1.8</v>
-      </c>
       <c r="N48">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O48">
         <v>3.8</v>
       </c>
       <c r="P48">
-        <v>2.1</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R48">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V48">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W48">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB48">
         <v>-1</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4805,7 +4805,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K49">
         <v>1.615</v>
@@ -4882,10 +4882,10 @@
         <v>45206.54166666666</v>
       </c>
       <c r="F50" t="s">
+        <v>29</v>
+      </c>
+      <c r="G50" t="s">
         <v>30</v>
-      </c>
-      <c r="G50" t="s">
-        <v>29</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -4894,7 +4894,7 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K50">
         <v>2.35</v>
@@ -5060,10 +5060,10 @@
         <v>45219.60416666666</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K52">
         <v>1.8</v>
@@ -5152,7 +5152,7 @@
         <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,61 +5327,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
+        <v>3.25</v>
+      </c>
+      <c r="M55">
+        <v>3.25</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
+        <v>3.6</v>
+      </c>
+      <c r="P55">
         <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>3.4</v>
-      </c>
-      <c r="N55">
-        <v>2.3</v>
-      </c>
-      <c r="O55">
-        <v>3.4</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,61 +5416,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.8</v>
+      </c>
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>3.25</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6811936</v>
+        <v>6811438</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,76 +5683,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G59" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" t="s">
         <v>40</v>
       </c>
       <c r="K59">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M59">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="N59">
-        <v>1.7</v>
+        <v>1.727</v>
       </c>
       <c r="O59">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P59">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q59">
         <v>-0.75</v>
       </c>
       <c r="R59">
+        <v>1.925</v>
+      </c>
+      <c r="S59">
+        <v>1.875</v>
+      </c>
+      <c r="T59">
+        <v>2.75</v>
+      </c>
+      <c r="U59">
         <v>1.85</v>
       </c>
-      <c r="S59">
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
-        <v>1.825</v>
-      </c>
-      <c r="V59">
-        <v>1.975</v>
-      </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X59">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA59">
+        <v>-0.5</v>
+      </c>
+      <c r="AB59">
+        <v>-1</v>
+      </c>
+      <c r="AC59">
         <v>0.95</v>
-      </c>
-      <c r="AB59">
-        <v>-1</v>
-      </c>
-      <c r="AC59">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6811438</v>
+        <v>6811936</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,76 +5772,76 @@
         <v>45226.63541666666</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>1</v>
       </c>
       <c r="I60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
         <v>39</v>
       </c>
       <c r="K60">
-        <v>1.75</v>
+        <v>1.615</v>
       </c>
       <c r="L60">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N60">
-        <v>1.727</v>
+        <v>1.7</v>
       </c>
       <c r="O60">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P60">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q60">
         <v>-0.75</v>
       </c>
       <c r="R60">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S60">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T60">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W60">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5861,7 +5861,7 @@
         <v>45228.52083333334</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G61" t="s">
         <v>33</v>
@@ -5873,7 +5873,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K61">
         <v>1.8</v>
@@ -5950,7 +5950,7 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
         <v>37</v>
@@ -5962,7 +5962,7 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
         <v>2</v>
@@ -6039,10 +6039,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" t="s">
         <v>34</v>
-      </c>
-      <c r="G63" t="s">
-        <v>35</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6051,7 +6051,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K63">
         <v>2.25</v>
@@ -6131,7 +6131,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>5</v>
@@ -6140,7 +6140,7 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K64">
         <v>2.9</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,10 +6217,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6232,25 +6232,25 @@
         <v>41</v>
       </c>
       <c r="K65">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L65">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M65">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N65">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O65">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P65">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q65">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6259,7 +6259,7 @@
         <v>1.825</v>
       </c>
       <c r="T65">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6274,19 +6274,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB65">
+        <v>0.45</v>
+      </c>
+      <c r="AC65">
         <v>-0.5</v>
-      </c>
-      <c r="AC65">
-        <v>0.45</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6306,10 +6306,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6321,25 +6321,25 @@
         <v>41</v>
       </c>
       <c r="K66">
+        <v>1.4</v>
+      </c>
+      <c r="L66">
+        <v>4.5</v>
+      </c>
+      <c r="M66">
+        <v>7</v>
+      </c>
+      <c r="N66">
+        <v>1.533</v>
+      </c>
+      <c r="O66">
         <v>4.75</v>
       </c>
-      <c r="L66">
-        <v>3.8</v>
-      </c>
-      <c r="M66">
-        <v>1.615</v>
-      </c>
-      <c r="N66">
-        <v>6.5</v>
-      </c>
-      <c r="O66">
-        <v>4.333</v>
-      </c>
       <c r="P66">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q66">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6348,7 +6348,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U66">
         <v>1.9</v>
@@ -6363,19 +6363,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB66">
+        <v>-0.5</v>
+      </c>
+      <c r="AC66">
         <v>0.45</v>
-      </c>
-      <c r="AC66">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6407,7 +6407,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.7</v>
@@ -6487,7 +6487,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -6585,7 +6585,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>1.571</v>
@@ -6662,10 +6662,10 @@
         <v>45241.58333333334</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6674,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>1.4</v>
@@ -6751,7 +6751,7 @@
         <v>45242.42708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K71">
         <v>2.625</v>
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,7 +6846,7 @@
         <v>29</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
@@ -6855,58 +6855,58 @@
         <v>40</v>
       </c>
       <c r="K72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q72">
         <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X72">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,7 +6935,7 @@
         <v>30</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -6944,58 +6944,58 @@
         <v>39</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
         <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7030,7 +7030,7 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
         <v>2.15</v>
@@ -7119,7 +7119,7 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>1.909</v>
@@ -7208,7 +7208,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>3.6</v>
@@ -7285,7 +7285,7 @@
         <v>45261.64583333334</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G77" t="s">
         <v>33</v>
@@ -7297,7 +7297,7 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K77">
         <v>1.727</v>
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6811727</v>
+        <v>6811447</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7377,55 +7377,55 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K78">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="N78">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="O78">
         <v>3.8</v>
       </c>
       <c r="P78">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W78">
-        <v>1.2</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X78">
         <v>-1</v>
@@ -7434,7 +7434,7 @@
         <v>-1</v>
       </c>
       <c r="Z78">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AA78">
         <v>-1</v>
@@ -7443,7 +7443,7 @@
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6811447</v>
+        <v>6811727</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7466,55 +7466,55 @@
         <v>34</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K79">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="O79">
         <v>3.8</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W79">
-        <v>0.6499999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7523,7 +7523,7 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA79">
         <v>-1</v>
@@ -7532,7 +7532,7 @@
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7552,7 +7552,7 @@
         <v>45268.67708333334</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
         <v>36</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>2.4</v>
@@ -7653,7 +7653,7 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
         <v>2.05</v>
@@ -7733,7 +7733,7 @@
         <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>3.5</v>
@@ -7822,7 +7822,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7831,7 +7831,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K83">
         <v>1.5</v>
@@ -7908,7 +7908,7 @@
         <v>45273.625</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G84" t="s">
         <v>32</v>
@@ -7920,7 +7920,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K84">
         <v>1.55</v>
@@ -8000,7 +8000,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8009,7 +8009,7 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K85">
         <v>1.95</v>
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6811949</v>
+        <v>6811450</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,10 +8086,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F86" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8098,64 +8098,64 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K86">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M86">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N86">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P86">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q86">
+        <v>-1.5</v>
+      </c>
+      <c r="R86">
+        <v>1.975</v>
+      </c>
+      <c r="S86">
+        <v>1.825</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.875</v>
+      </c>
+      <c r="V86">
+        <v>1.925</v>
+      </c>
+      <c r="W86">
+        <v>0.363</v>
+      </c>
+      <c r="X86">
+        <v>-1</v>
+      </c>
+      <c r="Y86">
+        <v>-1</v>
+      </c>
+      <c r="Z86">
+        <v>-1</v>
+      </c>
+      <c r="AA86">
+        <v>0.825</v>
+      </c>
+      <c r="AB86">
+        <v>0.4375</v>
+      </c>
+      <c r="AC86">
         <v>-0.5</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.9</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>2</v>
-      </c>
-      <c r="V86">
-        <v>1.8</v>
-      </c>
-      <c r="W86">
-        <v>0.909</v>
-      </c>
-      <c r="X86">
-        <v>-1</v>
-      </c>
-      <c r="Y86">
-        <v>-1</v>
-      </c>
-      <c r="Z86">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA86">
-        <v>-1</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6811450</v>
+        <v>6811949</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,10 +8175,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G87" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8187,46 +8187,46 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L87">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M87">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N87">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O87">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P87">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q87">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R87">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S87">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U87">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V87">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W87">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X87">
         <v>-1</v>
@@ -8235,16 +8235,16 @@
         <v>-1</v>
       </c>
       <c r="Z87">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA87">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB87">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC87">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8267,7 +8267,7 @@
         <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
         <v>3.75</v>
       </c>
-      <c r="L90">
-        <v>3.5</v>
-      </c>
       <c r="M90">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
         <v>3.6</v>
       </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>45317.67708333334</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>1.333</v>
@@ -8712,7 +8712,7 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K93">
         <v>3.75</v>
@@ -8801,7 +8801,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8810,7 +8810,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K94">
         <v>1.727</v>
@@ -8976,7 +8976,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -8988,7 +8988,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>2.55</v>
@@ -9065,10 +9065,10 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
         <v>1.615</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K98">
         <v>1.7</v>
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,59 +9243,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K99">
+        <v>3.2</v>
+      </c>
+      <c r="L99">
+        <v>3.5</v>
+      </c>
+      <c r="M99">
+        <v>2.1</v>
+      </c>
+      <c r="N99">
+        <v>3.6</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
+        <v>2.05</v>
+      </c>
+      <c r="Q99">
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>2</v>
+      </c>
+      <c r="T99">
+        <v>2.5</v>
+      </c>
+      <c r="U99">
+        <v>2</v>
+      </c>
+      <c r="V99">
+        <v>1.8</v>
+      </c>
+      <c r="W99">
         <v>2.6</v>
       </c>
-      <c r="L99">
-        <v>3.4</v>
-      </c>
-      <c r="M99">
-        <v>2.5</v>
-      </c>
-      <c r="N99">
-        <v>2.75</v>
-      </c>
-      <c r="O99">
-        <v>3.4</v>
-      </c>
-      <c r="P99">
-        <v>2.55</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
-      </c>
-      <c r="R99">
-        <v>2</v>
-      </c>
-      <c r="S99">
-        <v>1.8</v>
-      </c>
-      <c r="T99">
-        <v>3</v>
-      </c>
-      <c r="U99">
-        <v>1.975</v>
-      </c>
-      <c r="V99">
-        <v>1.825</v>
-      </c>
-      <c r="W99">
-        <v>1.75</v>
-      </c>
       <c r="X99">
         <v>-1</v>
       </c>
@@ -9303,13 +9303,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
+        <v>0.8</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>1</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,73 +9332,73 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H100">
+        <v>5</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100" t="s">
+        <v>40</v>
+      </c>
+      <c r="K100">
+        <v>2.6</v>
+      </c>
+      <c r="L100">
+        <v>3.4</v>
+      </c>
+      <c r="M100">
+        <v>2.5</v>
+      </c>
+      <c r="N100">
+        <v>2.75</v>
+      </c>
+      <c r="O100">
+        <v>3.4</v>
+      </c>
+      <c r="P100">
+        <v>2.55</v>
+      </c>
+      <c r="Q100">
+        <v>0</v>
+      </c>
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="I100">
+      <c r="S100">
+        <v>1.8</v>
+      </c>
+      <c r="T100">
+        <v>3</v>
+      </c>
+      <c r="U100">
+        <v>1.975</v>
+      </c>
+      <c r="V100">
+        <v>1.825</v>
+      </c>
+      <c r="W100">
+        <v>1.75</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
         <v>1</v>
       </c>
-      <c r="J100" t="s">
-        <v>39</v>
-      </c>
-      <c r="K100">
-        <v>3.2</v>
-      </c>
-      <c r="L100">
-        <v>3.5</v>
-      </c>
-      <c r="M100">
-        <v>2.1</v>
-      </c>
-      <c r="N100">
-        <v>3.6</v>
-      </c>
-      <c r="O100">
-        <v>3.5</v>
-      </c>
-      <c r="P100">
-        <v>2.05</v>
-      </c>
-      <c r="Q100">
-        <v>0.5</v>
-      </c>
-      <c r="R100">
-        <v>1.8</v>
-      </c>
-      <c r="S100">
-        <v>2</v>
-      </c>
-      <c r="T100">
-        <v>2.5</v>
-      </c>
-      <c r="U100">
-        <v>2</v>
-      </c>
-      <c r="V100">
-        <v>1.8</v>
-      </c>
-      <c r="W100">
-        <v>2.6</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
-      <c r="Z100">
-        <v>0.8</v>
-      </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9421,10 +9421,10 @@
         <v>45328.625</v>
       </c>
       <c r="F101" t="s">
+        <v>34</v>
+      </c>
+      <c r="G101" t="s">
         <v>35</v>
-      </c>
-      <c r="G101" t="s">
-        <v>34</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9510,7 +9510,7 @@
         <v>45331.64583333334</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
         <v>32</v>
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,13 +9599,13 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -9614,34 +9614,34 @@
         <v>40</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M103">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N103">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O103">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P103">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q103">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U103">
         <v>1.9</v>
@@ -9650,25 +9650,25 @@
         <v>1.9</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X103">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA103">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,13 +9688,13 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I104">
         <v>1</v>
@@ -9703,34 +9703,34 @@
         <v>39</v>
       </c>
       <c r="K104">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N104">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O104">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P104">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T104">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
         <v>1.9</v>
@@ -9739,25 +9739,25 @@
         <v>1.9</v>
       </c>
       <c r="W104">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X104">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA104">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB104">
+        <v>-1</v>
+      </c>
+      <c r="AC104">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC104">
-        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9789,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
         <v>2.15</v>
@@ -9869,7 +9869,7 @@
         <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9878,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>1.727</v>
@@ -9955,10 +9955,10 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G109" t="s">
         <v>31</v>
@@ -10145,7 +10145,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K109">
         <v>1.727</v>
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7617774</v>
+        <v>7617832</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,40 +10222,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
         <v>1.775</v>
@@ -10264,34 +10264,34 @@
         <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7617832</v>
+        <v>7617774</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,40 +10311,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K111">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L111">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M111">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O111">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P111">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
         <v>1.775</v>
@@ -10353,34 +10353,34 @@
         <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U111">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y111">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA111">
+        <v>-0</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>1.025</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10388,7 +10388,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7617775</v>
+        <v>7617776</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10400,73 +10400,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K112">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M112">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N112">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O112">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P112">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q112">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U112">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V112">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7617776</v>
+        <v>7617775</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,73 +10489,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
         <v>4</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K113">
+        <v>5.5</v>
+      </c>
+      <c r="L113">
+        <v>4</v>
+      </c>
+      <c r="M113">
+        <v>1.533</v>
+      </c>
+      <c r="N113">
+        <v>5.5</v>
+      </c>
+      <c r="O113">
+        <v>3.8</v>
+      </c>
+      <c r="P113">
+        <v>1.615</v>
+      </c>
+      <c r="Q113">
+        <v>0.75</v>
+      </c>
+      <c r="R113">
+        <v>2.025</v>
+      </c>
+      <c r="S113">
+        <v>1.775</v>
+      </c>
+      <c r="T113">
         <v>2.5</v>
       </c>
-      <c r="L113">
-        <v>3.5</v>
-      </c>
-      <c r="M113">
-        <v>2.5</v>
-      </c>
-      <c r="N113">
-        <v>2.4</v>
-      </c>
-      <c r="O113">
-        <v>3.5</v>
-      </c>
-      <c r="P113">
-        <v>2.75</v>
-      </c>
-      <c r="Q113">
-        <v>0</v>
-      </c>
-      <c r="R113">
-        <v>1.825</v>
-      </c>
-      <c r="S113">
-        <v>1.975</v>
-      </c>
-      <c r="T113">
-        <v>2.75</v>
-      </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB113">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10590,7 +10590,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10670,7 +10670,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10845,7 +10845,7 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -10857,7 +10857,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>2.5</v>
@@ -10937,7 +10937,7 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K118">
         <v>2.375</v>
@@ -11023,7 +11023,7 @@
         <v>45353.58333333334</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G119" t="s">
         <v>38</v>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K119">
         <v>1.285</v>
@@ -11124,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K120">
         <v>1.363</v>
@@ -11204,7 +11204,7 @@
         <v>33</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H121">
         <v>3</v>
@@ -11213,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K121">
         <v>1.909</v>
@@ -11290,7 +11290,7 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
         <v>31</v>
@@ -11302,7 +11302,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
         <v>2.9</v>
@@ -11379,7 +11379,7 @@
         <v>45359.67708333334</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G123" t="s">
         <v>36</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>3.6</v>
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7617835</v>
+        <v>7617785</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,61 +11468,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124" t="s">
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="L124">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M124">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="N124">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="O124">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P124">
+        <v>4</v>
+      </c>
+      <c r="Q124">
+        <v>-0.5</v>
+      </c>
+      <c r="R124">
+        <v>1.85</v>
+      </c>
+      <c r="S124">
+        <v>1.95</v>
+      </c>
+      <c r="T124">
         <v>2.75</v>
       </c>
-      <c r="Q124">
-        <v>0</v>
-      </c>
-      <c r="R124">
-        <v>1.75</v>
-      </c>
-      <c r="S124">
-        <v>2.05</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA124">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB124">
+        <v>0.4875</v>
+      </c>
+      <c r="AC124">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11530,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7617785</v>
+        <v>7617786</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11542,61 +11557,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125" t="s">
+        <v>39</v>
       </c>
       <c r="K125">
+        <v>3</v>
+      </c>
+      <c r="L125">
+        <v>3.6</v>
+      </c>
+      <c r="M125">
+        <v>2.1</v>
+      </c>
+      <c r="N125">
+        <v>3.3</v>
+      </c>
+      <c r="O125">
+        <v>3.75</v>
+      </c>
+      <c r="P125">
+        <v>2.05</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>2.025</v>
+      </c>
+      <c r="S125">
+        <v>1.775</v>
+      </c>
+      <c r="T125">
+        <v>3</v>
+      </c>
+      <c r="U125">
+        <v>1.95</v>
+      </c>
+      <c r="V125">
         <v>1.85</v>
       </c>
-      <c r="L125">
-        <v>3.5</v>
-      </c>
-      <c r="M125">
-        <v>3.6</v>
-      </c>
-      <c r="N125">
-        <v>1.85</v>
-      </c>
-      <c r="O125">
-        <v>3.6</v>
-      </c>
-      <c r="P125">
-        <v>4</v>
-      </c>
-      <c r="Q125">
+      <c r="W125">
+        <v>-1</v>
+      </c>
+      <c r="X125">
+        <v>2.75</v>
+      </c>
+      <c r="Y125">
+        <v>-1</v>
+      </c>
+      <c r="Z125">
+        <v>0.5125</v>
+      </c>
+      <c r="AA125">
         <v>-0.5</v>
       </c>
-      <c r="R125">
-        <v>1.825</v>
-      </c>
-      <c r="S125">
-        <v>1.975</v>
-      </c>
-      <c r="T125">
-        <v>2.75</v>
-      </c>
-      <c r="U125">
-        <v>1.975</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
-      </c>
-      <c r="W125">
-        <v>0</v>
-      </c>
-      <c r="X125">
-        <v>0</v>
-      </c>
-      <c r="Y125">
-        <v>0</v>
-      </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
-      <c r="AA125">
-        <v>0</v>
+      <c r="AB125">
+        <v>-1</v>
+      </c>
+      <c r="AC125">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11604,7 +11634,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7617786</v>
+        <v>7617835</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11616,60 +11646,445 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F126" t="s">
+        <v>32</v>
+      </c>
+      <c r="G126" t="s">
+        <v>34</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <v>2</v>
+      </c>
+      <c r="J126" t="s">
+        <v>41</v>
+      </c>
+      <c r="K126">
+        <v>2.3</v>
+      </c>
+      <c r="L126">
+        <v>3.4</v>
+      </c>
+      <c r="M126">
+        <v>2.8</v>
+      </c>
+      <c r="N126">
+        <v>2.45</v>
+      </c>
+      <c r="O126">
+        <v>3.4</v>
+      </c>
+      <c r="P126">
+        <v>2.875</v>
+      </c>
+      <c r="Q126">
+        <v>0</v>
+      </c>
+      <c r="R126">
+        <v>1.775</v>
+      </c>
+      <c r="S126">
+        <v>2.025</v>
+      </c>
+      <c r="T126">
+        <v>2.25</v>
+      </c>
+      <c r="U126">
+        <v>1.8</v>
+      </c>
+      <c r="V126">
+        <v>2</v>
+      </c>
+      <c r="W126">
+        <v>-1</v>
+      </c>
+      <c r="X126">
+        <v>-1</v>
+      </c>
+      <c r="Y126">
+        <v>1.875</v>
+      </c>
+      <c r="Z126">
+        <v>-1</v>
+      </c>
+      <c r="AA126">
+        <v>1.025</v>
+      </c>
+      <c r="AB126">
+        <v>-0.5</v>
+      </c>
+      <c r="AC126">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7617836</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45366.64583333334</v>
+      </c>
+      <c r="F127" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" t="s">
+        <v>32</v>
+      </c>
+      <c r="K127">
+        <v>2.3</v>
+      </c>
+      <c r="L127">
+        <v>3.2</v>
+      </c>
+      <c r="M127">
+        <v>3.2</v>
+      </c>
+      <c r="N127">
+        <v>2.3</v>
+      </c>
+      <c r="O127">
+        <v>3.2</v>
+      </c>
+      <c r="P127">
+        <v>3.2</v>
+      </c>
+      <c r="Q127">
+        <v>-0.25</v>
+      </c>
+      <c r="R127">
+        <v>1.975</v>
+      </c>
+      <c r="S127">
+        <v>1.825</v>
+      </c>
+      <c r="T127">
+        <v>2.5</v>
+      </c>
+      <c r="U127">
+        <v>2</v>
+      </c>
+      <c r="V127">
+        <v>1.8</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:29">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>7617787</v>
+      </c>
+      <c r="C128" t="s">
+        <v>28</v>
+      </c>
+      <c r="D128" t="s">
+        <v>28</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45366.67708333334</v>
+      </c>
+      <c r="F128" t="s">
+        <v>36</v>
+      </c>
+      <c r="G128" t="s">
+        <v>29</v>
+      </c>
+      <c r="K128">
+        <v>1.727</v>
+      </c>
+      <c r="L128">
+        <v>3.8</v>
+      </c>
+      <c r="M128">
+        <v>4.333</v>
+      </c>
+      <c r="N128">
+        <v>1.727</v>
+      </c>
+      <c r="O128">
+        <v>3.8</v>
+      </c>
+      <c r="P128">
+        <v>4.333</v>
+      </c>
+      <c r="Q128">
+        <v>-0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.95</v>
+      </c>
+      <c r="S128">
+        <v>1.85</v>
+      </c>
+      <c r="T128">
+        <v>2.75</v>
+      </c>
+      <c r="U128">
+        <v>2</v>
+      </c>
+      <c r="V128">
+        <v>1.8</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>7617837</v>
+      </c>
+      <c r="C129" t="s">
+        <v>28</v>
+      </c>
+      <c r="D129" t="s">
+        <v>28</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45367.58333333334</v>
+      </c>
+      <c r="F129" t="s">
+        <v>31</v>
+      </c>
+      <c r="G129" t="s">
         <v>38</v>
       </c>
-      <c r="G126" t="s">
+      <c r="K129">
+        <v>1.45</v>
+      </c>
+      <c r="L129">
+        <v>5</v>
+      </c>
+      <c r="M129">
+        <v>5.75</v>
+      </c>
+      <c r="N129">
+        <v>1.45</v>
+      </c>
+      <c r="O129">
+        <v>5</v>
+      </c>
+      <c r="P129">
+        <v>5.75</v>
+      </c>
+      <c r="Q129">
+        <v>-1.25</v>
+      </c>
+      <c r="R129">
+        <v>1.95</v>
+      </c>
+      <c r="S129">
+        <v>1.85</v>
+      </c>
+      <c r="T129">
+        <v>3.25</v>
+      </c>
+      <c r="U129">
+        <v>2</v>
+      </c>
+      <c r="V129">
+        <v>1.8</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>7617789</v>
+      </c>
+      <c r="C130" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45368.42708333334</v>
+      </c>
+      <c r="F130" t="s">
         <v>33</v>
       </c>
-      <c r="K126">
+      <c r="G130" t="s">
+        <v>34</v>
+      </c>
+      <c r="K130">
+        <v>2.1</v>
+      </c>
+      <c r="L130">
+        <v>3.8</v>
+      </c>
+      <c r="M130">
         <v>3</v>
       </c>
-      <c r="L126">
-        <v>3.6</v>
-      </c>
-      <c r="M126">
-        <v>2.1</v>
-      </c>
-      <c r="N126">
-        <v>3.25</v>
-      </c>
-      <c r="O126">
-        <v>3.75</v>
-      </c>
-      <c r="P126">
-        <v>2.05</v>
-      </c>
-      <c r="Q126">
-        <v>0.25</v>
-      </c>
-      <c r="R126">
-        <v>2</v>
-      </c>
-      <c r="S126">
-        <v>1.8</v>
-      </c>
-      <c r="T126">
+      <c r="N130">
+        <v>2.2</v>
+      </c>
+      <c r="O130">
+        <v>3.8</v>
+      </c>
+      <c r="P130">
+        <v>2.875</v>
+      </c>
+      <c r="Q130">
+        <v>-0.25</v>
+      </c>
+      <c r="R130">
+        <v>1.95</v>
+      </c>
+      <c r="S130">
+        <v>1.85</v>
+      </c>
+      <c r="T130">
         <v>3</v>
       </c>
-      <c r="U126">
+      <c r="U130">
+        <v>1.85</v>
+      </c>
+      <c r="V130">
         <v>1.95</v>
       </c>
-      <c r="V126">
-        <v>1.85</v>
-      </c>
-      <c r="W126">
-        <v>0</v>
-      </c>
-      <c r="X126">
-        <v>0</v>
-      </c>
-      <c r="Y126">
-        <v>0</v>
-      </c>
-      <c r="Z126">
-        <v>0</v>
-      </c>
-      <c r="AA126">
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>7617788</v>
+      </c>
+      <c r="C131" t="s">
+        <v>28</v>
+      </c>
+      <c r="D131" t="s">
+        <v>28</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45368.42708333334</v>
+      </c>
+      <c r="F131" t="s">
+        <v>37</v>
+      </c>
+      <c r="G131" t="s">
+        <v>30</v>
+      </c>
+      <c r="K131">
+        <v>2.5</v>
+      </c>
+      <c r="L131">
+        <v>3.4</v>
+      </c>
+      <c r="M131">
+        <v>2.625</v>
+      </c>
+      <c r="N131">
+        <v>2.55</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
+        <v>2.6</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>1.875</v>
+      </c>
+      <c r="S131">
+        <v>1.925</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
+        <v>1.975</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
         <v>0</v>
       </c>
     </row>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>FC Vaduz</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
+    <t>FC Schaffhausen</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
+    <t>Stade Nyonnais</t>
   </si>
   <si>
     <t>FC Sion</t>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6811742</v>
+        <v>6811911</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,43 +1058,43 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="L7">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M7">
-        <v>3.8</v>
+        <v>2.15</v>
       </c>
       <c r="N7">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
         <v>3.75</v>
       </c>
       <c r="P7">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T7">
         <v>3</v>
@@ -1109,16 +1109,16 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6811911</v>
+        <v>6811742</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,43 +1147,43 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O8">
         <v>3.75</v>
       </c>
       <c r="P8">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>3</v>
@@ -1198,16 +1198,16 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y8">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
         <v>-1</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6811913</v>
+        <v>6811426</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,76 +1589,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13">
-        <v>2.625</v>
+        <v>1.3</v>
       </c>
       <c r="L13">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="M13">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N13">
-        <v>2.625</v>
+        <v>1.333</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="P13">
-        <v>2.6</v>
+        <v>8</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S13">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V13">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6811426</v>
+        <v>6811913</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,76 +1678,76 @@
         <v>45142.63541666666</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14">
+        <v>2.625</v>
+      </c>
+      <c r="L14">
+        <v>3.6</v>
+      </c>
+      <c r="M14">
+        <v>2.3</v>
+      </c>
+      <c r="N14">
+        <v>2.625</v>
+      </c>
+      <c r="O14">
+        <v>3.5</v>
+      </c>
+      <c r="P14">
+        <v>2.6</v>
+      </c>
+      <c r="Q14">
         <v>0</v>
       </c>
-      <c r="J14" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14">
-        <v>1.3</v>
-      </c>
-      <c r="L14">
-        <v>5.25</v>
-      </c>
-      <c r="M14">
-        <v>7.5</v>
-      </c>
-      <c r="N14">
-        <v>1.333</v>
-      </c>
-      <c r="O14">
-        <v>5.5</v>
-      </c>
-      <c r="P14">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>-1.5</v>
-      </c>
       <c r="R14">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T14">
         <v>3</v>
       </c>
       <c r="U14">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W14">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
+        <v>0.875</v>
+      </c>
+      <c r="AB14">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB14">
-        <v>-1</v>
-      </c>
       <c r="AC14">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6811741</v>
+        <v>6811914</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="M15">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="N15">
-        <v>1.909</v>
+        <v>2.15</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P15">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U15">
+        <v>1.85</v>
+      </c>
+      <c r="V15">
         <v>1.95</v>
       </c>
-      <c r="V15">
-        <v>1.85</v>
-      </c>
       <c r="W15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z15">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC15">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1844,7 +1844,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6811914</v>
+        <v>6811741</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1856,76 +1856,76 @@
         <v>45144.38541666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H16">
         <v>2</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K16">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="N16">
-        <v>2.15</v>
+        <v>1.909</v>
       </c>
       <c r="O16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q16">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R16">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U16">
+        <v>1.95</v>
+      </c>
+      <c r="V16">
         <v>1.85</v>
       </c>
-      <c r="V16">
-        <v>1.95</v>
-      </c>
       <c r="W16">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X16">
         <v>-1</v>
       </c>
       <c r="Y16">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA16">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC16">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2034,10 +2034,10 @@
         <v>45149.60416666666</v>
       </c>
       <c r="F18" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" t="s">
         <v>34</v>
-      </c>
-      <c r="G18" t="s">
-        <v>35</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2200,7 +2200,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6811916</v>
+        <v>6811428</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2212,13 +2212,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -2227,40 +2227,40 @@
         <v>41</v>
       </c>
       <c r="K20">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="N20">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O20">
         <v>3.6</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Q20">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W20">
         <v>-1</v>
@@ -2269,16 +2269,16 @@
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="Z20">
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2289,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6811428</v>
+        <v>6811916</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2301,13 +2301,13 @@
         <v>45151.38541666666</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -2316,40 +2316,40 @@
         <v>41</v>
       </c>
       <c r="K21">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="L21">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M21">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="N21">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="O21">
         <v>3.6</v>
       </c>
       <c r="P21">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Q21">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>-1</v>
@@ -2358,16 +2358,16 @@
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>-1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB21">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC21">
         <v>-1</v>
@@ -2390,7 +2390,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2479,7 +2479,7 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6811738</v>
+        <v>6811430</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,40 +2924,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L28">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M28">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N28">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O28">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P28">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R28">
         <v>1.825</v>
@@ -2966,22 +2966,22 @@
         <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U28">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y28">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z28">
         <v>-1</v>
@@ -2993,7 +2993,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6811430</v>
+        <v>6811738</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,40 +3013,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L29">
+        <v>3.5</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>1.55</v>
+      </c>
+      <c r="O29">
         <v>4.5</v>
       </c>
-      <c r="M29">
-        <v>8</v>
-      </c>
-      <c r="N29">
-        <v>1.222</v>
-      </c>
-      <c r="O29">
-        <v>6</v>
-      </c>
       <c r="P29">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="Q29">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3055,22 +3055,22 @@
         <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z29">
         <v>-1</v>
@@ -3082,7 +3082,7 @@
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3194,7 +3194,7 @@
         <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>6</v>
@@ -3280,7 +3280,7 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3639,7 +3639,7 @@
         <v>38</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6811927</v>
+        <v>6811433</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,76 +3903,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="M39">
-        <v>3.3</v>
+        <v>7.5</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="O39">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P39">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="Q39">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB39">
         <v>-0.5</v>
       </c>
-      <c r="AA39">
-        <v>0.4375</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
-      </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6811433</v>
+        <v>6811927</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K40">
-        <v>1.4</v>
+        <v>2.05</v>
       </c>
       <c r="L40">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M40">
-        <v>7.5</v>
+        <v>3.3</v>
       </c>
       <c r="N40">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="O40">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="P40">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="Q40">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R40">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S40">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V40">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W40">
         <v>-1</v>
       </c>
       <c r="X40">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y40">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AB40">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4081,7 +4081,7 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6811435</v>
+        <v>6811929</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,10 +4348,10 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4363,46 +4363,46 @@
         <v>39</v>
       </c>
       <c r="K44">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="L44">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="M44">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="N44">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="O44">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P44">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="Q44">
         <v>0</v>
       </c>
       <c r="R44">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S44">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U44">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
@@ -4417,7 +4417,7 @@
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811929</v>
+        <v>6811735</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,76 +4437,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K45">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="L45">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="M45">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P45">
-        <v>2.55</v>
+        <v>2.625</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X45">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4514,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4526,7 +4526,7 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
         <v>34</v>
@@ -4535,67 +4535,67 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L46">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N46">
         <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P46">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S46">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V46">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
@@ -4704,7 +4704,7 @@
         <v>45205.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G48" t="s">
         <v>38</v>
@@ -5063,7 +5063,7 @@
         <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H52">
         <v>1</v>
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,61 +5327,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>39</v>
       </c>
       <c r="K55">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L55">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M55">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N55">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O55">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P55">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
+        <v>2</v>
+      </c>
+      <c r="S55">
+        <v>1.8</v>
+      </c>
+      <c r="T55">
+        <v>2.5</v>
+      </c>
+      <c r="U55">
         <v>1.85</v>
       </c>
-      <c r="S55">
+      <c r="V55">
         <v>1.95</v>
       </c>
-      <c r="T55">
-        <v>3.25</v>
-      </c>
-      <c r="U55">
-        <v>1.925</v>
-      </c>
-      <c r="V55">
-        <v>1.875</v>
-      </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB55">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,61 +5416,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L56">
+        <v>3.25</v>
+      </c>
+      <c r="M56">
+        <v>3.25</v>
+      </c>
+      <c r="N56">
+        <v>2.15</v>
+      </c>
+      <c r="O56">
+        <v>3.6</v>
+      </c>
+      <c r="P56">
         <v>3.2</v>
-      </c>
-      <c r="M56">
-        <v>3.4</v>
-      </c>
-      <c r="N56">
-        <v>2.3</v>
-      </c>
-      <c r="O56">
-        <v>3.4</v>
-      </c>
-      <c r="P56">
-        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U56">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5594,7 +5594,7 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
@@ -5775,7 +5775,7 @@
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -6039,10 +6039,10 @@
         <v>45233.64583333334</v>
       </c>
       <c r="F63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G63" t="s">
         <v>35</v>
-      </c>
-      <c r="G63" t="s">
-        <v>34</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -6205,7 +6205,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6811440</v>
+        <v>6811441</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6217,10 +6217,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6232,25 +6232,25 @@
         <v>41</v>
       </c>
       <c r="K65">
+        <v>1.4</v>
+      </c>
+      <c r="L65">
+        <v>4.5</v>
+      </c>
+      <c r="M65">
+        <v>7</v>
+      </c>
+      <c r="N65">
+        <v>1.533</v>
+      </c>
+      <c r="O65">
         <v>4.75</v>
       </c>
-      <c r="L65">
-        <v>3.8</v>
-      </c>
-      <c r="M65">
-        <v>1.615</v>
-      </c>
-      <c r="N65">
-        <v>6.5</v>
-      </c>
-      <c r="O65">
-        <v>4.333</v>
-      </c>
       <c r="P65">
-        <v>1.5</v>
+        <v>5.25</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>-1.25</v>
       </c>
       <c r="R65">
         <v>1.975</v>
@@ -6259,7 +6259,7 @@
         <v>1.825</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U65">
         <v>1.9</v>
@@ -6274,19 +6274,19 @@
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>0.5</v>
+        <v>4.25</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB65">
+        <v>-0.5</v>
+      </c>
+      <c r="AC65">
         <v>0.45</v>
-      </c>
-      <c r="AC65">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6294,7 +6294,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6811441</v>
+        <v>6811440</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6306,10 +6306,10 @@
         <v>45235.42708333334</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6321,25 +6321,25 @@
         <v>41</v>
       </c>
       <c r="K66">
-        <v>1.4</v>
+        <v>4.75</v>
       </c>
       <c r="L66">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="M66">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N66">
-        <v>1.533</v>
+        <v>6.5</v>
       </c>
       <c r="O66">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P66">
-        <v>5.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q66">
-        <v>-1.25</v>
+        <v>1</v>
       </c>
       <c r="R66">
         <v>1.975</v>
@@ -6348,7 +6348,7 @@
         <v>1.825</v>
       </c>
       <c r="T66">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.9</v>
@@ -6363,19 +6363,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>4.25</v>
+        <v>0.5</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB66">
+        <v>0.45</v>
+      </c>
+      <c r="AC66">
         <v>-0.5</v>
-      </c>
-      <c r="AC66">
-        <v>0.45</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6665,7 +6665,7 @@
         <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -6751,7 +6751,7 @@
         <v>45242.42708333334</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>31</v>
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6843,70 +6843,70 @@
         <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N72">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O72">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P72">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q72">
         <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S72">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W72">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X72">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6932,70 +6932,70 @@
         <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K73">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O73">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P73">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q73">
         <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U73">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X73">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6811445</v>
+        <v>6811444</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K75">
-        <v>1.909</v>
+        <v>3.6</v>
       </c>
       <c r="L75">
+        <v>3.75</v>
+      </c>
+      <c r="M75">
+        <v>1.85</v>
+      </c>
+      <c r="N75">
+        <v>3.1</v>
+      </c>
+      <c r="O75">
         <v>3.6</v>
       </c>
-      <c r="M75">
-        <v>3.5</v>
-      </c>
-      <c r="N75">
-        <v>1.7</v>
-      </c>
-      <c r="O75">
-        <v>4</v>
-      </c>
       <c r="P75">
-        <v>4.75</v>
+        <v>2.2</v>
       </c>
       <c r="Q75">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R75">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S75">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W75">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB75">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC75">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6811444</v>
+        <v>6811445</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45256.42708333334</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K76">
+        <v>1.909</v>
+      </c>
+      <c r="L76">
         <v>3.6</v>
       </c>
-      <c r="L76">
-        <v>3.75</v>
-      </c>
       <c r="M76">
+        <v>3.5</v>
+      </c>
+      <c r="N76">
+        <v>1.7</v>
+      </c>
+      <c r="O76">
+        <v>4</v>
+      </c>
+      <c r="P76">
+        <v>4.75</v>
+      </c>
+      <c r="Q76">
+        <v>-0.75</v>
+      </c>
+      <c r="R76">
         <v>1.85</v>
       </c>
-      <c r="N76">
-        <v>3.1</v>
-      </c>
-      <c r="O76">
-        <v>3.6</v>
-      </c>
-      <c r="P76">
-        <v>2.2</v>
-      </c>
-      <c r="Q76">
-        <v>0.25</v>
-      </c>
-      <c r="R76">
+      <c r="S76">
+        <v>1.95</v>
+      </c>
+      <c r="T76">
+        <v>2.5</v>
+      </c>
+      <c r="U76">
         <v>1.875</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>1.925</v>
       </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
-      <c r="U76">
-        <v>1.975</v>
-      </c>
-      <c r="V76">
-        <v>1.825</v>
-      </c>
       <c r="W76">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X76">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA76">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7463,7 +7463,7 @@
         <v>45268.64583333334</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G79" t="s">
         <v>33</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,76 +7641,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L81">
         <v>3.5</v>
       </c>
       <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>3.4</v>
+      </c>
+      <c r="O81">
         <v>3.3</v>
       </c>
-      <c r="N81">
+      <c r="P81">
+        <v>2.15</v>
+      </c>
+      <c r="Q81">
+        <v>0.25</v>
+      </c>
+      <c r="R81">
+        <v>1.95</v>
+      </c>
+      <c r="S81">
         <v>1.85</v>
       </c>
-      <c r="O81">
-        <v>3.75</v>
-      </c>
-      <c r="P81">
-        <v>4</v>
-      </c>
-      <c r="Q81">
-        <v>-0.5</v>
-      </c>
-      <c r="R81">
-        <v>1.9</v>
-      </c>
-      <c r="S81">
-        <v>1.9</v>
-      </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U81">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X81">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA81">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,76 +7730,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K82">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L82">
         <v>3.5</v>
       </c>
       <c r="M82">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N82">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O82">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P82">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q82">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R82">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S82">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W82">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>36</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -8000,7 +8000,7 @@
         <v>37</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H85">
         <v>3</v>
@@ -8089,7 +8089,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N90">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O90">
         <v>3.6</v>
       </c>
       <c r="P90">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q90">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W90">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z90">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K91">
+        <v>2</v>
+      </c>
+      <c r="L91">
         <v>3.75</v>
       </c>
-      <c r="L91">
-        <v>3.5</v>
-      </c>
       <c r="M91">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N91">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q91">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V91">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA91">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8801,7 +8801,7 @@
         <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8976,7 +8976,7 @@
         <v>45324.64583333334</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9068,7 +9068,7 @@
         <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>4</v>
@@ -9421,10 +9421,10 @@
         <v>45328.625</v>
       </c>
       <c r="F101" t="s">
+        <v>35</v>
+      </c>
+      <c r="G101" t="s">
         <v>34</v>
-      </c>
-      <c r="G101" t="s">
-        <v>35</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9688,7 +9688,7 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
         <v>29</v>
@@ -9869,7 +9869,7 @@
         <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -9955,7 +9955,7 @@
         <v>45338.64583333334</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>30</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7617772</v>
+        <v>7617773</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,76 +10044,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H108">
         <v>1</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>1.727</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M108">
-        <v>1.833</v>
+        <v>4</v>
       </c>
       <c r="N108">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P108">
-        <v>1.615</v>
+        <v>4.5</v>
       </c>
       <c r="Q108">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R108">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S108">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U108">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
+        <v>0.425</v>
+      </c>
+      <c r="AA108">
         <v>-0.5</v>
       </c>
-      <c r="AA108">
-        <v>0.4</v>
-      </c>
       <c r="AB108">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7617773</v>
+        <v>7617772</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,76 +10133,76 @@
         <v>45338.67708333334</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H109">
         <v>1</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K109">
-        <v>1.727</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M109">
+        <v>1.833</v>
+      </c>
+      <c r="N109">
+        <v>5.25</v>
+      </c>
+      <c r="O109">
         <v>4</v>
       </c>
-      <c r="N109">
-        <v>1.7</v>
-      </c>
-      <c r="O109">
-        <v>4.2</v>
-      </c>
       <c r="P109">
-        <v>4.5</v>
+        <v>1.615</v>
       </c>
       <c r="Q109">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R109">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T109">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X109">
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z109">
-        <v>0.425</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
+        <v>0.4</v>
+      </c>
+      <c r="AB109">
+        <v>0.4125</v>
+      </c>
+      <c r="AC109">
         <v>-0.5</v>
-      </c>
-      <c r="AB109">
-        <v>-1</v>
-      </c>
-      <c r="AC109">
-        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7617832</v>
+        <v>7617774</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,40 +10222,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G110" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K110">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M110">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="O110">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P110">
-        <v>2.375</v>
+        <v>3</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R110">
         <v>1.775</v>
@@ -10264,34 +10264,34 @@
         <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U110">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V110">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y110">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
+        <v>-0</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>1.025</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7617774</v>
+        <v>7617832</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,40 +10311,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L111">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N111">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O111">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P111">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q111">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
         <v>1.775</v>
@@ -10353,34 +10353,34 @@
         <v>2.025</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U111">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V111">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10388,7 +10388,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7617776</v>
+        <v>7617775</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10400,73 +10400,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
         <v>4</v>
       </c>
-      <c r="I112">
-        <v>0</v>
-      </c>
       <c r="J112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K112">
+        <v>5.5</v>
+      </c>
+      <c r="L112">
+        <v>4</v>
+      </c>
+      <c r="M112">
+        <v>1.533</v>
+      </c>
+      <c r="N112">
+        <v>5.5</v>
+      </c>
+      <c r="O112">
+        <v>3.8</v>
+      </c>
+      <c r="P112">
+        <v>1.615</v>
+      </c>
+      <c r="Q112">
+        <v>0.75</v>
+      </c>
+      <c r="R112">
+        <v>2.025</v>
+      </c>
+      <c r="S112">
+        <v>1.775</v>
+      </c>
+      <c r="T112">
         <v>2.5</v>
       </c>
-      <c r="L112">
-        <v>3.5</v>
-      </c>
-      <c r="M112">
-        <v>2.5</v>
-      </c>
-      <c r="N112">
-        <v>2.4</v>
-      </c>
-      <c r="O112">
-        <v>3.5</v>
-      </c>
-      <c r="P112">
-        <v>2.75</v>
-      </c>
-      <c r="Q112">
-        <v>0</v>
-      </c>
-      <c r="R112">
-        <v>1.825</v>
-      </c>
-      <c r="S112">
-        <v>1.975</v>
-      </c>
-      <c r="T112">
-        <v>2.75</v>
-      </c>
       <c r="U112">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W112">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB112">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7617775</v>
+        <v>7617776</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,73 +10489,73 @@
         <v>45345.64583333334</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H113">
+        <v>4</v>
+      </c>
+      <c r="I113">
         <v>0</v>
       </c>
-      <c r="I113">
-        <v>4</v>
-      </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K113">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>1.533</v>
+        <v>2.5</v>
       </c>
       <c r="N113">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="O113">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="Q113">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R113">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S113">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T113">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA113">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10670,7 +10670,7 @@
         <v>38</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10845,7 +10845,7 @@
         <v>45352.64583333334</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G117" t="s">
         <v>37</v>
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7617783</v>
+        <v>7617782</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,58 +11112,58 @@
         <v>45354.42708333334</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H120">
         <v>3</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>40</v>
       </c>
       <c r="K120">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="L120">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N120">
-        <v>1.363</v>
+        <v>2.3</v>
       </c>
       <c r="O120">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
+        <v>2</v>
+      </c>
+      <c r="S120">
         <v>1.8</v>
       </c>
-      <c r="S120">
-        <v>2</v>
-      </c>
       <c r="T120">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>0.363</v>
+        <v>1.3</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11172,13 +11172,13 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7617782</v>
+        <v>7617783</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,58 +11201,58 @@
         <v>45354.42708333334</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H121">
         <v>3</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
         <v>40</v>
       </c>
       <c r="K121">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="L121">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M121">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="O121">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P121">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Q121">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R121">
+        <v>1.8</v>
+      </c>
+      <c r="S121">
         <v>2</v>
       </c>
-      <c r="S121">
-        <v>1.8</v>
-      </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W121">
-        <v>1.3</v>
+        <v>0.363</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11261,13 +11261,13 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11290,7 +11290,7 @@
         <v>45359.64583333334</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
         <v>31</v>
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7617785</v>
+        <v>7617786</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>3.6</v>
+      </c>
+      <c r="M124">
+        <v>2.1</v>
+      </c>
+      <c r="N124">
+        <v>3.3</v>
+      </c>
+      <c r="O124">
+        <v>3.75</v>
+      </c>
+      <c r="P124">
+        <v>2.05</v>
+      </c>
+      <c r="Q124">
+        <v>0.25</v>
+      </c>
+      <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.775</v>
+      </c>
+      <c r="T124">
+        <v>3</v>
+      </c>
+      <c r="U124">
+        <v>1.95</v>
+      </c>
+      <c r="V124">
         <v>1.85</v>
       </c>
-      <c r="L124">
-        <v>3.5</v>
-      </c>
-      <c r="M124">
-        <v>3.6</v>
-      </c>
-      <c r="N124">
-        <v>1.85</v>
-      </c>
-      <c r="O124">
-        <v>3.6</v>
-      </c>
-      <c r="P124">
-        <v>4</v>
-      </c>
-      <c r="Q124">
+      <c r="W124">
+        <v>-1</v>
+      </c>
+      <c r="X124">
+        <v>2.75</v>
+      </c>
+      <c r="Y124">
+        <v>-1</v>
+      </c>
+      <c r="Z124">
+        <v>0.5125</v>
+      </c>
+      <c r="AA124">
         <v>-0.5</v>
       </c>
-      <c r="R124">
-        <v>1.85</v>
-      </c>
-      <c r="S124">
-        <v>1.95</v>
-      </c>
-      <c r="T124">
-        <v>2.75</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.825</v>
-      </c>
-      <c r="W124">
+      <c r="AB124">
+        <v>-1</v>
+      </c>
+      <c r="AC124">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="X124">
-        <v>-1</v>
-      </c>
-      <c r="Y124">
-        <v>-1</v>
-      </c>
-      <c r="Z124">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA124">
-        <v>-1</v>
-      </c>
-      <c r="AB124">
-        <v>0.4875</v>
-      </c>
-      <c r="AC124">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7617786</v>
+        <v>7617785</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45360.58333333334</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
         <v>3.6</v>
       </c>
-      <c r="M125">
-        <v>2.1</v>
-      </c>
       <c r="N125">
-        <v>3.3</v>
+        <v>1.85</v>
       </c>
       <c r="O125">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P125">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="X125">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.5125</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA125">
+        <v>-1</v>
+      </c>
+      <c r="AB125">
+        <v>0.4875</v>
+      </c>
+      <c r="AC125">
         <v>-0.5</v>
-      </c>
-      <c r="AB125">
-        <v>-1</v>
-      </c>
-      <c r="AC125">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11649,7 +11649,7 @@
         <v>32</v>
       </c>
       <c r="G126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11735,11 +11735,20 @@
         <v>45366.64583333334</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G127" t="s">
         <v>32</v>
       </c>
+      <c r="H127">
+        <v>2</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127" t="s">
+        <v>40</v>
+      </c>
       <c r="K127">
         <v>2.3</v>
       </c>
@@ -11750,46 +11759,52 @@
         <v>3.2</v>
       </c>
       <c r="N127">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="O127">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q127">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S127">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T127">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U127">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y127">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA127">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB127">
+        <v>0.925</v>
+      </c>
+      <c r="AC127">
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11814,6 +11829,15 @@
       <c r="G128" t="s">
         <v>29</v>
       </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>2</v>
+      </c>
+      <c r="J128" t="s">
+        <v>41</v>
+      </c>
       <c r="K128">
         <v>1.727</v>
       </c>
@@ -11824,49 +11848,55 @@
         <v>4.333</v>
       </c>
       <c r="N128">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="O128">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P128">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="Q128">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R128">
+        <v>1.85</v>
+      </c>
+      <c r="S128">
         <v>1.95</v>
       </c>
-      <c r="S128">
-        <v>1.85</v>
-      </c>
       <c r="T128">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U128">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V128">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y128">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Z128">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+        <v>0.95</v>
+      </c>
+      <c r="AB128">
+        <v>0.925</v>
+      </c>
+      <c r="AC128">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11888,6 +11918,15 @@
       <c r="G129" t="s">
         <v>38</v>
       </c>
+      <c r="H129">
+        <v>2</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>40</v>
+      </c>
       <c r="K129">
         <v>1.45</v>
       </c>
@@ -11898,16 +11937,16 @@
         <v>5.75</v>
       </c>
       <c r="N129">
-        <v>1.45</v>
+        <v>1.75</v>
       </c>
       <c r="O129">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="P129">
-        <v>5.75</v>
+        <v>4.2</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R129">
         <v>1.95</v>
@@ -11916,31 +11955,37 @@
         <v>1.85</v>
       </c>
       <c r="T129">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11960,7 +12005,7 @@
         <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K130">
         <v>2.1</v>
@@ -11978,16 +12023,16 @@
         <v>3.8</v>
       </c>
       <c r="P130">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>3</v>
@@ -12014,7 +12059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -12046,31 +12091,31 @@
         <v>2.625</v>
       </c>
       <c r="N131">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="O131">
         <v>3.4</v>
       </c>
       <c r="P131">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
         <v>0</v>

--- a/Switzerland Challenge League/Switzerland Challenge League.xlsx
+++ b/Switzerland Challenge League/Switzerland Challenge League.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC131"/>
+  <dimension ref="A1:AC136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6811739</v>
+        <v>6811917</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K22">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="L22">
+        <v>3.4</v>
+      </c>
+      <c r="M22">
+        <v>2.1</v>
+      </c>
+      <c r="N22">
         <v>3.6</v>
       </c>
-      <c r="M22">
-        <v>1.65</v>
-      </c>
-      <c r="N22">
-        <v>4.5</v>
-      </c>
       <c r="O22">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="P22">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="Q22">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T22">
         <v>3</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y22">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC22">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6811917</v>
+        <v>6811739</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2479,76 +2479,76 @@
         <v>45163.60416666666</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K23">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="L23">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="N23">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O23">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P23">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R23">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S23">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V23">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="Z23">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA23">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB23">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6811430</v>
+        <v>6811738</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,40 +2924,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="L28">
+        <v>3.5</v>
+      </c>
+      <c r="M28">
+        <v>4</v>
+      </c>
+      <c r="N28">
+        <v>1.55</v>
+      </c>
+      <c r="O28">
         <v>4.5</v>
       </c>
-      <c r="M28">
-        <v>8</v>
-      </c>
-      <c r="N28">
-        <v>1.222</v>
-      </c>
-      <c r="O28">
-        <v>6</v>
-      </c>
       <c r="P28">
-        <v>13</v>
+        <v>5.5</v>
       </c>
       <c r="Q28">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R28">
         <v>1.825</v>
@@ -2966,22 +2966,22 @@
         <v>1.975</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W28">
         <v>-1</v>
       </c>
       <c r="X28">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Z28">
         <v>-1</v>
@@ -2993,7 +2993,7 @@
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6811738</v>
+        <v>6811430</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,40 +3013,40 @@
         <v>45170.63541666666</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="L29">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N29">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O29">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>5.5</v>
+        <v>13</v>
       </c>
       <c r="Q29">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="R29">
         <v>1.825</v>
@@ -3055,22 +3055,22 @@
         <v>1.975</v>
       </c>
       <c r="T29">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Y29">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
         <v>-1</v>
@@ -3082,7 +3082,7 @@
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3268,7 +3268,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6811431</v>
+        <v>6811924</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3280,46 +3280,46 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K32">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M32">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="N32">
-        <v>5.25</v>
+        <v>2.375</v>
       </c>
       <c r="O32">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="P32">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T32">
         <v>2.75</v>
@@ -3331,16 +3331,16 @@
         <v>1.975</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X32">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.825</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA32">
         <v>-1</v>
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6811923</v>
+        <v>6811431</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33">
+        <v>4.5</v>
+      </c>
+      <c r="L33">
         <v>4</v>
       </c>
-      <c r="J33" t="s">
-        <v>41</v>
-      </c>
-      <c r="K33">
-        <v>3.25</v>
-      </c>
-      <c r="L33">
-        <v>3.75</v>
-      </c>
       <c r="M33">
-        <v>1.909</v>
+        <v>1.6</v>
       </c>
       <c r="N33">
-        <v>2.9</v>
+        <v>5.25</v>
       </c>
       <c r="O33">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P33">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="Q33">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S33">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y33">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6811924</v>
+        <v>6811923</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,76 +3458,76 @@
         <v>45191.60416666666</v>
       </c>
       <c r="F34" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M34">
+        <v>1.909</v>
+      </c>
+      <c r="N34">
         <v>2.9</v>
       </c>
-      <c r="N34">
-        <v>2.375</v>
-      </c>
       <c r="O34">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="P34">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R34">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S34">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X34">
         <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z34">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC34">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6811927</v>
+        <v>6811736</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K40">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="L40">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M40">
-        <v>3.3</v>
+        <v>2.375</v>
       </c>
       <c r="N40">
-        <v>2.2</v>
+        <v>2.875</v>
       </c>
       <c r="O40">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="Q40">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40">
+        <v>1.95</v>
+      </c>
+      <c r="V40">
+        <v>1.85</v>
+      </c>
+      <c r="W40">
         <v>1.875</v>
       </c>
-      <c r="T40">
-        <v>2.75</v>
-      </c>
-      <c r="U40">
-        <v>1.925</v>
-      </c>
-      <c r="V40">
-        <v>1.875</v>
-      </c>
-      <c r="W40">
-        <v>-1</v>
-      </c>
       <c r="X40">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4069,7 +4069,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6811736</v>
+        <v>6811927</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4081,76 +4081,76 @@
         <v>45195.60416666666</v>
       </c>
       <c r="F41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41">
-        <v>3</v>
+        <v>2.05</v>
       </c>
       <c r="L41">
+        <v>3.8</v>
+      </c>
+      <c r="M41">
         <v>3.3</v>
       </c>
-      <c r="M41">
-        <v>2.375</v>
-      </c>
       <c r="N41">
-        <v>2.875</v>
+        <v>2.2</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P41">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q41">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U41">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V41">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W41">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y41">
         <v>-1</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB41">
         <v>-1</v>
       </c>
       <c r="AC41">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6811735</v>
+        <v>6811435</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,76 +4437,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="N45">
         <v>2.7</v>
       </c>
       <c r="O45">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P45">
-        <v>2.625</v>
+        <v>2.375</v>
       </c>
       <c r="Q45">
         <v>0</v>
       </c>
       <c r="R45">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T45">
         <v>2.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V45">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4514,7 +4514,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6811435</v>
+        <v>6811735</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4526,76 +4526,76 @@
         <v>45200.38541666666</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K46">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M46">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="N46">
         <v>2.7</v>
       </c>
       <c r="O46">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P46">
-        <v>2.375</v>
+        <v>2.625</v>
       </c>
       <c r="Q46">
         <v>0</v>
       </c>
       <c r="R46">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T46">
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X46">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA46">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -5315,7 +5315,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>7326491</v>
+        <v>7326492</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5327,61 +5327,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>39</v>
       </c>
       <c r="K55">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L55">
+        <v>3.25</v>
+      </c>
+      <c r="M55">
+        <v>3.25</v>
+      </c>
+      <c r="N55">
+        <v>2.15</v>
+      </c>
+      <c r="O55">
+        <v>3.6</v>
+      </c>
+      <c r="P55">
         <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>3.4</v>
-      </c>
-      <c r="N55">
-        <v>2.3</v>
-      </c>
-      <c r="O55">
-        <v>3.4</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
       </c>
       <c r="Q55">
         <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S55">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U55">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V55">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
         <v>-1</v>
       </c>
       <c r="X55">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y55">
         <v>-1</v>
@@ -5390,13 +5390,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA55">
-        <v>0.4</v>
+        <v>0.475</v>
       </c>
       <c r="AB55">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC55">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>7326492</v>
+        <v>7326491</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,61 +5416,61 @@
         <v>45221.38541666666</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
         <v>39</v>
       </c>
       <c r="K56">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L56">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M56">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N56">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="O56">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P56">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q56">
         <v>-0.25</v>
       </c>
       <c r="R56">
+        <v>2</v>
+      </c>
+      <c r="S56">
+        <v>1.8</v>
+      </c>
+      <c r="T56">
+        <v>2.5</v>
+      </c>
+      <c r="U56">
         <v>1.85</v>
       </c>
-      <c r="S56">
+      <c r="V56">
         <v>1.95</v>
       </c>
-      <c r="T56">
-        <v>3.25</v>
-      </c>
-      <c r="U56">
-        <v>1.925</v>
-      </c>
-      <c r="V56">
-        <v>1.875</v>
-      </c>
       <c r="W56">
         <v>-1</v>
       </c>
       <c r="X56">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y56">
         <v>-1</v>
@@ -5479,13 +5479,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA56">
-        <v>0.475</v>
+        <v>0.4</v>
       </c>
       <c r="AB56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC56">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6811439</v>
+        <v>6811732</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,55 +5505,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F57" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>1.45</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="N57">
-        <v>1.45</v>
+        <v>2</v>
       </c>
       <c r="O57">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="P57">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="Q57">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W57">
         <v>-1</v>
@@ -5562,19 +5562,19 @@
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="Z57">
         <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC57">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5582,7 +5582,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6811732</v>
+        <v>6811439</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5594,55 +5594,55 @@
         <v>45226.60416666666</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>1.45</v>
       </c>
       <c r="L58">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N58">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="O58">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P58">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R58">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S58">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U58">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
         <v>-1</v>
@@ -5651,19 +5651,19 @@
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="Z58">
         <v>-1</v>
       </c>
       <c r="AA58">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -6828,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6811942</v>
+        <v>6811729</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6840,73 +6840,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O72">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P72">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="Q72">
         <v>0.5</v>
       </c>
       <c r="R72">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X72">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y72">
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA72">
         <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
         <v>-1</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6811729</v>
+        <v>6811942</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6929,73 +6929,73 @@
         <v>45254.64583333334</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O73">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P73">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="Q73">
         <v>0.5</v>
       </c>
       <c r="R73">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S73">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W73">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X73">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y73">
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
         <v>-1</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>7559219</v>
+        <v>7559218</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,76 +7641,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H81">
         <v>1</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K81">
-        <v>3.5</v>
+        <v>2.05</v>
       </c>
       <c r="L81">
         <v>3.5</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N81">
-        <v>3.4</v>
+        <v>1.85</v>
       </c>
       <c r="O81">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P81">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q81">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U81">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V81">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB81">
         <v>-1</v>
       </c>
       <c r="AC81">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>7559218</v>
+        <v>7559219</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,76 +7730,76 @@
         <v>45270.42708333334</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="L82">
         <v>3.5</v>
       </c>
       <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3.4</v>
+      </c>
+      <c r="O82">
         <v>3.3</v>
       </c>
-      <c r="N82">
+      <c r="P82">
+        <v>2.15</v>
+      </c>
+      <c r="Q82">
+        <v>0.25</v>
+      </c>
+      <c r="R82">
+        <v>1.95</v>
+      </c>
+      <c r="S82">
         <v>1.85</v>
       </c>
-      <c r="O82">
-        <v>3.75</v>
-      </c>
-      <c r="P82">
-        <v>4</v>
-      </c>
-      <c r="Q82">
-        <v>-0.5</v>
-      </c>
-      <c r="R82">
-        <v>1.9</v>
-      </c>
-      <c r="S82">
-        <v>1.9</v>
-      </c>
       <c r="T82">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U82">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X82">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB82">
         <v>-1</v>
       </c>
       <c r="AC82">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6811450</v>
+        <v>6811949</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,10 +8086,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>2</v>
@@ -8101,43 +8101,43 @@
         <v>40</v>
       </c>
       <c r="K86">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L86">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="N86">
-        <v>1.363</v>
+        <v>1.909</v>
       </c>
       <c r="O86">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>10</v>
+        <v>3.6</v>
       </c>
       <c r="Q86">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R86">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W86">
-        <v>0.363</v>
+        <v>0.909</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8146,16 +8146,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA86">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AC86">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8163,7 +8163,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>6811949</v>
+        <v>6811450</v>
       </c>
       <c r="C87" t="s">
         <v>28</v>
@@ -8175,10 +8175,10 @@
         <v>45275.67708333334</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8190,61 +8190,61 @@
         <v>40</v>
       </c>
       <c r="K87">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L87">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M87">
-        <v>3.1</v>
+        <v>7</v>
       </c>
       <c r="N87">
-        <v>1.909</v>
+        <v>1.363</v>
       </c>
       <c r="O87">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P87">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="Q87">
+        <v>-1.5</v>
+      </c>
+      <c r="R87">
+        <v>1.975</v>
+      </c>
+      <c r="S87">
+        <v>1.825</v>
+      </c>
+      <c r="T87">
+        <v>2.75</v>
+      </c>
+      <c r="U87">
+        <v>1.875</v>
+      </c>
+      <c r="V87">
+        <v>1.925</v>
+      </c>
+      <c r="W87">
+        <v>0.363</v>
+      </c>
+      <c r="X87">
+        <v>-1</v>
+      </c>
+      <c r="Y87">
+        <v>-1</v>
+      </c>
+      <c r="Z87">
+        <v>-1</v>
+      </c>
+      <c r="AA87">
+        <v>0.825</v>
+      </c>
+      <c r="AB87">
+        <v>0.4375</v>
+      </c>
+      <c r="AC87">
         <v>-0.5</v>
-      </c>
-      <c r="R87">
-        <v>1.9</v>
-      </c>
-      <c r="S87">
-        <v>1.9</v>
-      </c>
-      <c r="T87">
-        <v>3</v>
-      </c>
-      <c r="U87">
-        <v>2</v>
-      </c>
-      <c r="V87">
-        <v>1.8</v>
-      </c>
-      <c r="W87">
-        <v>0.909</v>
-      </c>
-      <c r="X87">
-        <v>-1</v>
-      </c>
-      <c r="Y87">
-        <v>-1</v>
-      </c>
-      <c r="Z87">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA87">
-        <v>-1</v>
-      </c>
-      <c r="AB87">
-        <v>0</v>
-      </c>
-      <c r="AC87">
-        <v>-0</v>
       </c>
     </row>
     <row r="88" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>7617758</v>
+        <v>7617759</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
         <v>3.75</v>
       </c>
-      <c r="L90">
-        <v>3.5</v>
-      </c>
       <c r="M90">
-        <v>1.85</v>
+        <v>3.1</v>
       </c>
       <c r="N90">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O90">
         <v>3.6</v>
       </c>
       <c r="P90">
-        <v>1.909</v>
+        <v>3</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V90">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>7617759</v>
+        <v>7617758</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,76 +8531,76 @@
         <v>45317.64583333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M91">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="O91">
         <v>3.6</v>
       </c>
       <c r="P91">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W91">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7617763</v>
+        <v>7617764</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,58 +9065,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J97" t="s">
         <v>40</v>
       </c>
       <c r="K97">
-        <v>1.615</v>
+        <v>1.7</v>
       </c>
       <c r="L97">
-        <v>4.333</v>
+        <v>3.75</v>
       </c>
       <c r="M97">
         <v>4.5</v>
       </c>
       <c r="N97">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="O97">
-        <v>4.333</v>
+        <v>4.2</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q97">
         <v>-1</v>
       </c>
       <c r="R97">
+        <v>1.775</v>
+      </c>
+      <c r="S97">
         <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>1.775</v>
       </c>
       <c r="T97">
         <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>0.6499999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="X97">
         <v>-1</v>
@@ -9125,16 +9125,16 @@
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>1.025</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7617764</v>
+        <v>7617763</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,58 +9154,58 @@
         <v>45324.67708333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>40</v>
       </c>
       <c r="K98">
-        <v>1.7</v>
+        <v>1.615</v>
       </c>
       <c r="L98">
-        <v>3.75</v>
+        <v>4.333</v>
       </c>
       <c r="M98">
         <v>4.5</v>
       </c>
       <c r="N98">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="O98">
-        <v>4.2</v>
+        <v>4.333</v>
       </c>
       <c r="P98">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="Q98">
         <v>-1</v>
       </c>
       <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
         <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.025</v>
       </c>
       <c r="T98">
         <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.5</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X98">
         <v>-1</v>
@@ -9214,16 +9214,16 @@
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.7749999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC98">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7617830</v>
+        <v>7617765</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,58 +9243,58 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J99" t="s">
         <v>40</v>
       </c>
       <c r="K99">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="L99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N99">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="Q99">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="S99">
-        <v>2</v>
-      </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V99">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W99">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
@@ -9303,13 +9303,13 @@
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
@@ -9320,7 +9320,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7617765</v>
+        <v>7617830</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9332,59 +9332,59 @@
         <v>45326.42708333334</v>
       </c>
       <c r="F100" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H100">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J100" t="s">
         <v>40</v>
       </c>
       <c r="K100">
+        <v>3.2</v>
+      </c>
+      <c r="L100">
+        <v>3.5</v>
+      </c>
+      <c r="M100">
+        <v>2.1</v>
+      </c>
+      <c r="N100">
+        <v>3.6</v>
+      </c>
+      <c r="O100">
+        <v>3.5</v>
+      </c>
+      <c r="P100">
+        <v>2.05</v>
+      </c>
+      <c r="Q100">
+        <v>0.5</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>2</v>
+      </c>
+      <c r="T100">
+        <v>2.5</v>
+      </c>
+      <c r="U100">
+        <v>2</v>
+      </c>
+      <c r="V100">
+        <v>1.8</v>
+      </c>
+      <c r="W100">
         <v>2.6</v>
       </c>
-      <c r="L100">
-        <v>3.4</v>
-      </c>
-      <c r="M100">
-        <v>2.5</v>
-      </c>
-      <c r="N100">
-        <v>2.75</v>
-      </c>
-      <c r="O100">
-        <v>3.4</v>
-      </c>
-      <c r="P100">
-        <v>2.55</v>
-      </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>2</v>
-      </c>
-      <c r="S100">
-        <v>1.8</v>
-      </c>
-      <c r="T100">
-        <v>3</v>
-      </c>
-      <c r="U100">
-        <v>1.975</v>
-      </c>
-      <c r="V100">
-        <v>1.825</v>
-      </c>
-      <c r="W100">
-        <v>1.75</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
@@ -9392,13 +9392,13 @@
         <v>-1</v>
       </c>
       <c r="Z100">
+        <v>0.8</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>1</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.9750000000000001</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7617768</v>
+        <v>7617769</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,49 +9599,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K103">
-        <v>1.222</v>
+        <v>4.333</v>
       </c>
       <c r="L103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M103">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="N103">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="O103">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P103">
-        <v>10</v>
+        <v>2.05</v>
       </c>
       <c r="Q103">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U103">
         <v>1.9</v>
@@ -9650,25 +9650,25 @@
         <v>1.9</v>
       </c>
       <c r="W103">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y103">
         <v>-1</v>
       </c>
       <c r="Z103">
-        <v>0.8500000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC103">
-        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>7617769</v>
+        <v>7617768</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,49 +9688,49 @@
         <v>45331.67708333334</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
-        <v>4.333</v>
+        <v>1.222</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M104">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="N104">
-        <v>3.5</v>
+        <v>1.285</v>
       </c>
       <c r="O104">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P104">
-        <v>2.05</v>
+        <v>10</v>
       </c>
       <c r="Q104">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U104">
         <v>1.9</v>
@@ -9739,25 +9739,25 @@
         <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X104">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC104">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7617770</v>
+        <v>7617831</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,58 +9777,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>40</v>
       </c>
       <c r="K105">
-        <v>2.15</v>
+        <v>1.727</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M105">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="N105">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="O105">
         <v>3.6</v>
       </c>
       <c r="P105">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U105">
+        <v>1.8</v>
+      </c>
+      <c r="V105">
         <v>2</v>
       </c>
-      <c r="V105">
-        <v>1.8</v>
-      </c>
       <c r="W105">
-        <v>1.15</v>
+        <v>0.833</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9837,16 +9837,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7617831</v>
+        <v>7617770</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,58 +9866,58 @@
         <v>45332.58333333334</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>40</v>
       </c>
       <c r="K106">
-        <v>1.727</v>
+        <v>2.15</v>
       </c>
       <c r="L106">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="O106">
         <v>3.6</v>
       </c>
       <c r="P106">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S106">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
         <v>1.8</v>
       </c>
-      <c r="V106">
-        <v>2</v>
-      </c>
       <c r="W106">
-        <v>0.833</v>
+        <v>1.15</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9926,16 +9926,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.8</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7617774</v>
+        <v>7617832</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,40 +10222,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F110" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L110">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="N110">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="P110">
-        <v>3</v>
+        <v>2.375</v>
       </c>
       <c r="Q110">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
         <v>1.775</v>
@@ -10264,34 +10264,34 @@
         <v>2.025</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V110">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10299,7 +10299,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7617832</v>
+        <v>7617774</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10311,40 +10311,40 @@
         <v>45339.58333333334</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H111">
         <v>0</v>
       </c>
       <c r="I111">
-   